--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Liquidity_GAP.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 01/26/21 5:28:13 PM</t>
+    <t>Printed on: 02/10/21 4:47:47 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -9964,31 +9964,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27443.352483783954</v>
+        <v>27443.350390452339</v>
       </c>
       <c r="C9" s="231">
-        <v>5547.4301533930975</v>
+        <v>5559.8989425688478</v>
       </c>
       <c r="D9" s="231">
-        <v>11597.769632903563</v>
+        <v>11637.251411571251</v>
       </c>
       <c r="E9" s="231">
-        <v>23434.746572477437</v>
+        <v>23450.038934367843</v>
       </c>
       <c r="F9" s="231">
-        <v>20403.861682547264</v>
+        <v>20396.753990412439</v>
       </c>
       <c r="G9" s="231">
-        <v>22134.628046357786</v>
+        <v>22124.10482147475</v>
       </c>
       <c r="H9" s="231">
-        <v>10982.015036068544</v>
+        <v>10951.82814008712</v>
       </c>
       <c r="I9" s="231">
-        <v>2634.3022360724431</v>
+        <v>2618.3537316289339</v>
       </c>
       <c r="J9" s="231">
-        <v>2725.8941563959379</v>
+        <v>2722.4196374365129</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -10014,28 +10014,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27443.352483783954</v>
+        <v>27443.350390452339</v>
       </c>
       <c r="C11" s="231">
-        <v>32990.78263717705</v>
+        <v>33003.249333021187</v>
       </c>
       <c r="D11" s="231">
-        <v>44588.55227008061</v>
+        <v>44640.500744592442</v>
       </c>
       <c r="E11" s="231">
-        <v>68023.298842558055</v>
+        <v>68090.539678960282</v>
       </c>
       <c r="F11" s="231">
-        <v>88427.160525105312</v>
+        <v>88487.293669372724</v>
       </c>
       <c r="G11" s="231">
-        <v>110561.7885714631</v>
+        <v>110611.39849084747</v>
       </c>
       <c r="H11" s="231">
-        <v>121543.80360753165</v>
+        <v>121563.22663093459</v>
       </c>
       <c r="I11" s="231">
-        <v>124178.10584360409</v>
+        <v>124181.58036256352</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -10152,31 +10152,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>14405.714259568107</v>
+        <v>14405.712166236492</v>
       </c>
       <c r="C15" s="231">
-        <v>-8494.9813275705328</v>
+        <v>-8482.5125383947816</v>
       </c>
       <c r="D15" s="231">
-        <v>-11727.92834054263</v>
+        <v>-11688.446561874942</v>
       </c>
       <c r="E15" s="231">
-        <v>2436.2353078709566</v>
+        <v>2451.5276697613626</v>
       </c>
       <c r="F15" s="231">
-        <v>7599.7458440946339</v>
+        <v>7592.638151959809</v>
       </c>
       <c r="G15" s="231">
-        <v>8921.5288434010963</v>
+        <v>8911.00561851806</v>
       </c>
       <c r="H15" s="231">
-        <v>-764.10797400299452</v>
+        <v>-794.29486998441826</v>
       </c>
       <c r="I15" s="231">
-        <v>-1653.8138245026998</v>
+        <v>-1669.762328946209</v>
       </c>
       <c r="J15" s="231">
-        <v>-10722.392788315934</v>
+        <v>-10725.867307275359</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -10185,31 +10185,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.11351662878686333</v>
+        <v>0.11351661229146826</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.066940217231691121</v>
+        <v>-0.066841963518839281</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.092415750020035839</v>
+        <v>-0.09210463469926039</v>
       </c>
       <c r="E16" s="236">
-        <v>0.019197466650940524</v>
+        <v>0.019317970038465</v>
       </c>
       <c r="F16" s="237">
-        <v>0.059885786453497382</v>
+        <v>0.059829778036624592</v>
       </c>
       <c r="G16" s="236">
-        <v>0.070301399825073232</v>
+        <v>0.070218477104882882</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.00602114964069686</v>
+        <v>-0.0062590215437213804</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.013032007064416405</v>
+        <v>-0.013157680837059578</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.084492157759534225</v>
+        <v>-0.084519536872560017</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -10218,28 +10218,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>14405.714259568107</v>
+        <v>14405.712166236492</v>
       </c>
       <c r="C17" s="231">
-        <v>5910.7329319975725</v>
+        <v>5923.19962784171</v>
       </c>
       <c r="D17" s="231">
-        <v>-5817.1954085450634</v>
+        <v>-5765.2469340332318</v>
       </c>
       <c r="E17" s="231">
-        <v>-3380.9601006740995</v>
+        <v>-3313.7192642718728</v>
       </c>
       <c r="F17" s="231">
-        <v>4218.7857434205216</v>
+        <v>4278.9188876879343</v>
       </c>
       <c r="G17" s="231">
-        <v>13140.314586821623</v>
+        <v>13189.924506205993</v>
       </c>
       <c r="H17" s="231">
-        <v>12376.206612818642</v>
+        <v>12395.62963622158</v>
       </c>
       <c r="I17" s="231">
-        <v>10722.392788315934</v>
+        <v>10725.867307275359</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -10251,28 +10251,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.11351662878686333</v>
+        <v>0.11351661229146826</v>
       </c>
       <c r="C18" s="236">
-        <v>0.046576411555172184</v>
+        <v>0.046674648772628988</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.026641871813923114</v>
+        <v>-0.026112015888166425</v>
       </c>
       <c r="F18" s="237">
-        <v>0.033243914639574171</v>
+        <v>0.033717762148458147</v>
       </c>
       <c r="G18" s="236">
-        <v>0.10354531446464746</v>
+        <v>0.10393623925334103</v>
       </c>
       <c r="H18" s="236">
-        <v>0.0975241648239507</v>
+        <v>0.0976772177096197</v>
       </c>
       <c r="I18" s="236">
-        <v>0.084492157759534225</v>
+        <v>0.084519536872560017</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -10284,31 +10284,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.1049328115893893</v>
+        <v>2.1049326510287432</v>
       </c>
       <c r="C19" s="236">
-        <v>0.39504825513149094</v>
+        <v>0.39593619301827437</v>
       </c>
       <c r="D19" s="236">
-        <v>0.4972099718562068</v>
+        <v>0.4989026019636803</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1160194300048925</v>
+        <v>1.116747689341838</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5935392915824369</v>
+        <v>1.5929841816299417</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6752033498245991</v>
+        <v>1.6744069261603705</v>
       </c>
       <c r="H19" s="236">
-        <v>0.93494806981437006</v>
+        <v>0.932378124313583</v>
       </c>
       <c r="I19" s="236">
-        <v>0.61432624463973051</v>
+        <v>0.61060701124720662</v>
       </c>
       <c r="J19" s="236">
-        <v>0.20269452664138851</v>
+        <v>0.20243616518808896</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -10317,28 +10317,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.1049328115893893</v>
+        <v>2.1049326510287432</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2182689100037749</v>
+        <v>1.2187292745887688</v>
       </c>
       <c r="D20" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E20" s="236">
-        <v>0.952650441994475</v>
+        <v>0.9535921342324083</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0500993607151066</v>
+        <v>1.05081346004814</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1348810898600568</v>
+        <v>1.1353903196772139</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1133688654282463</v>
+        <v>1.113546784737067</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0945072971608825</v>
+        <v>1.0945379216121847</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -10381,28 +10381,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -10412,28 +10412,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -10804,31 +10804,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>30.361182468387</v>
+        <v>30.361179307558302</v>
       </c>
       <c r="C51" s="246">
-        <v>33.2874347210955</v>
+        <v>33.3885689945305</v>
       </c>
       <c r="D51" s="246">
-        <v>73.2043989521095</v>
+        <v>73.574551068723309</v>
       </c>
       <c r="E51" s="246">
-        <v>144.18462894281</v>
+        <v>144.520442205046</v>
       </c>
       <c r="F51" s="246">
-        <v>119.47351323868999</v>
+        <v>119.714746970513</v>
       </c>
       <c r="G51" s="246">
-        <v>203.31366933629002</v>
+        <v>203.609162999983</v>
       </c>
       <c r="H51" s="246">
-        <v>299.008623923908</v>
+        <v>299.003682758186</v>
       </c>
       <c r="I51" s="246">
-        <v>319.834465686843</v>
+        <v>318.612956977444</v>
       </c>
       <c r="J51" s="246">
-        <v>14.332082729867125</v>
+        <v>14.214708718015572</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -10839,31 +10839,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>30.361182468387</v>
+        <v>30.361179307558302</v>
       </c>
       <c r="C52" s="248">
-        <v>33.2874347210955</v>
+        <v>33.3885689945305</v>
       </c>
       <c r="D52" s="248">
-        <v>73.2043989521095</v>
+        <v>73.574551068723309</v>
       </c>
       <c r="E52" s="248">
-        <v>144.18462894281</v>
+        <v>144.520442205046</v>
       </c>
       <c r="F52" s="248">
-        <v>119.47351323868999</v>
+        <v>119.714746970513</v>
       </c>
       <c r="G52" s="248">
-        <v>203.31366933629002</v>
+        <v>203.609162999983</v>
       </c>
       <c r="H52" s="248">
-        <v>299.008623923908</v>
+        <v>299.003682758186</v>
       </c>
       <c r="I52" s="248">
-        <v>319.834465686843</v>
+        <v>318.612956977444</v>
       </c>
       <c r="J52" s="248">
-        <v>14.332082729867125</v>
+        <v>14.214708718015572</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -10944,31 +10944,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>152.42941274557302</v>
+        <v>152.42940958474432</v>
       </c>
       <c r="C55" s="248">
-        <v>33.2874347210955</v>
+        <v>33.3885689945305</v>
       </c>
       <c r="D55" s="248">
-        <v>73.2043989521095</v>
+        <v>73.574551068723309</v>
       </c>
       <c r="E55" s="248">
-        <v>144.18462894281</v>
+        <v>144.520442205046</v>
       </c>
       <c r="F55" s="248">
-        <v>119.47351323868999</v>
+        <v>119.714746970513</v>
       </c>
       <c r="G55" s="248">
-        <v>310.245439059104</v>
+        <v>310.54093272279704</v>
       </c>
       <c r="H55" s="248">
-        <v>299.008623923908</v>
+        <v>299.003682758186</v>
       </c>
       <c r="I55" s="248">
-        <v>319.834465686843</v>
+        <v>318.612956977444</v>
       </c>
       <c r="J55" s="248">
-        <v>14.332082729867125</v>
+        <v>14.214708718015572</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -10979,31 +10979,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2152.4294127455687</v>
+        <v>2152.4294095847404</v>
       </c>
       <c r="C56" s="248">
-        <v>33.2874347210955</v>
+        <v>33.3885689945305</v>
       </c>
       <c r="D56" s="248">
-        <v>73.2043989521095</v>
+        <v>73.574551068723309</v>
       </c>
       <c r="E56" s="248">
-        <v>144.18462894281</v>
+        <v>144.520442205046</v>
       </c>
       <c r="F56" s="248">
-        <v>119.47351323868999</v>
+        <v>119.714746970513</v>
       </c>
       <c r="G56" s="248">
-        <v>2062.2454390591051</v>
+        <v>2062.5409327227981</v>
       </c>
       <c r="H56" s="248">
-        <v>299.008623923908</v>
+        <v>299.003682758186</v>
       </c>
       <c r="I56" s="248">
-        <v>319.834465686843</v>
+        <v>318.612956977444</v>
       </c>
       <c r="J56" s="248">
-        <v>14.332082729870308</v>
+        <v>14.2147087180183</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -11119,19 +11119,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -11143,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -11154,31 +11154,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>425.45203347173396</v>
+        <v>425.75955424673305</v>
       </c>
       <c r="F61" s="246">
-        <v>296.241033207604</v>
+        <v>296.222550715808</v>
       </c>
       <c r="G61" s="246">
-        <v>344.74474538736</v>
+        <v>344.366890995647</v>
       </c>
       <c r="H61" s="246">
-        <v>243.240845727868</v>
+        <v>242.210818591806</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.21439859280008</v>
+        <v>30.107432890581094</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -11189,31 +11189,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>3085.4337290448902</v>
+        <v>3085.43351863998</v>
       </c>
       <c r="C62" s="246">
-        <v>3125.8009795890703</v>
+        <v>3134.34651538332</v>
       </c>
       <c r="D62" s="246">
-        <v>6912.69512301139</v>
+        <v>6940.19228680898</v>
       </c>
       <c r="E62" s="246">
-        <v>12678.214826981399</v>
+        <v>12691.5493769222</v>
       </c>
       <c r="F62" s="246">
-        <v>7851.3563969666</v>
+        <v>7854.4926816984707</v>
       </c>
       <c r="G62" s="246">
-        <v>10991.824407121301</v>
+        <v>10985.8075358464</v>
       </c>
       <c r="H62" s="246">
-        <v>10351.7020936468</v>
+        <v>10322.923079350101</v>
       </c>
       <c r="I62" s="246">
-        <v>2314.4677703856</v>
+        <v>2299.74077465149</v>
       </c>
       <c r="J62" s="246">
-        <v>489.50467325294449</v>
+        <v>486.51423069906741</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -11224,31 +11224,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>154.031628415244</v>
+        <v>154.142963940798</v>
       </c>
       <c r="F63" s="246">
-        <v>107.251782007085</v>
+        <v>107.245090563433</v>
       </c>
       <c r="G63" s="246">
-        <v>124.81217703039</v>
+        <v>124.675377761188</v>
       </c>
       <c r="H63" s="246">
-        <v>88.0634727699658</v>
+        <v>87.6905593870285</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.938890052679199</v>
+        <v>10.900163944913743</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -11259,31 +11259,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>3147.0983056115406</v>
+        <v>3147.0980340517322</v>
       </c>
       <c r="C64" s="248">
-        <v>3182.2021313077657</v>
+        <v>3190.8548246214878</v>
       </c>
       <c r="D64" s="248">
-        <v>7011.5314444506794</v>
+        <v>7039.3653065616982</v>
       </c>
       <c r="E64" s="248">
-        <v>12832.246455396644</v>
+        <v>12845.692340862997</v>
       </c>
       <c r="F64" s="248">
-        <v>7958.6081789736854</v>
+        <v>7961.737772261904</v>
       </c>
       <c r="G64" s="248">
-        <v>11116.636584151691</v>
+        <v>11110.482913607588</v>
       </c>
       <c r="H64" s="248">
-        <v>10439.765566416767</v>
+        <v>10410.61363873713</v>
       </c>
       <c r="I64" s="248">
-        <v>2314.4677703856</v>
+        <v>2299.74077465149</v>
       </c>
       <c r="J64" s="248">
-        <v>500.44356330562732</v>
+        <v>497.4143946439799</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -11294,31 +11294,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>3317.4225420256935</v>
+        <v>3317.4221015494363</v>
       </c>
       <c r="C65" s="248">
-        <v>3337.9882184623971</v>
+        <v>3346.9368924459995</v>
       </c>
       <c r="D65" s="248">
-        <v>7284.5280644945287</v>
+        <v>7313.2919237989072</v>
       </c>
       <c r="E65" s="248">
-        <v>13257.698488868376</v>
+        <v>13271.451895109731</v>
       </c>
       <c r="F65" s="248">
-        <v>8254.8492121812887</v>
+        <v>8257.9603229777113</v>
       </c>
       <c r="G65" s="248">
-        <v>11461.381329539052</v>
+        <v>11454.849804603236</v>
       </c>
       <c r="H65" s="248">
-        <v>10683.006412144636</v>
+        <v>10652.824457328934</v>
       </c>
       <c r="I65" s="248">
-        <v>2314.4677703856</v>
+        <v>2299.74077465149</v>
       </c>
       <c r="J65" s="248">
-        <v>530.6579618984324</v>
+        <v>527.52182753455418</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -11329,19 +11329,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -11364,19 +11364,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -11399,19 +11399,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -11434,31 +11434,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4530.5456483047192</v>
+        <v>4530.5445367887005</v>
       </c>
       <c r="C69" s="248">
-        <v>4556.69453966891</v>
+        <v>4567.3667507298605</v>
       </c>
       <c r="D69" s="248">
-        <v>9742.3714802610684</v>
+        <v>9776.3790542483257</v>
       </c>
       <c r="E69" s="248">
-        <v>18274.757566125285</v>
+        <v>18288.708179758083</v>
       </c>
       <c r="F69" s="248">
-        <v>17662.301645257558</v>
+        <v>17658.282050805956</v>
       </c>
       <c r="G69" s="248">
-        <v>11461.381329539052</v>
+        <v>11454.849804603236</v>
       </c>
       <c r="H69" s="248">
-        <v>10683.006412144636</v>
+        <v>10652.824457328934</v>
       </c>
       <c r="I69" s="248">
-        <v>2314.4677703856</v>
+        <v>2299.74077465149</v>
       </c>
       <c r="J69" s="248">
-        <v>652.47360831318656</v>
+        <v>649.30439108541759</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -11469,19 +11469,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -11539,22 +11539,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -11574,22 +11574,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -11609,22 +11609,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -11714,31 +11714,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5506.9230710383863</v>
+        <v>5506.9209808676042</v>
       </c>
       <c r="C77" s="248">
-        <v>5514.142718672002</v>
+        <v>5526.5103735743178</v>
       </c>
       <c r="D77" s="248">
-        <v>11524.565233951453</v>
+        <v>11563.676860502528</v>
       </c>
       <c r="E77" s="248">
-        <v>23290.561943534627</v>
+        <v>23305.5184921628</v>
       </c>
       <c r="F77" s="248">
-        <v>20284.388169308571</v>
+        <v>20277.039243441926</v>
       </c>
       <c r="G77" s="248">
-        <v>20072.382607298681</v>
+        <v>20061.563888751949</v>
       </c>
       <c r="H77" s="248">
-        <v>10683.006412144636</v>
+        <v>10652.824457328934</v>
       </c>
       <c r="I77" s="248">
-        <v>2314.4677703856</v>
+        <v>2299.74077465149</v>
       </c>
       <c r="J77" s="248">
-        <v>934.5620736660785</v>
+        <v>931.20492871847819</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -11924,31 +11924,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>27443.352483783954</v>
+        <v>27443.350390452339</v>
       </c>
       <c r="C83" s="248">
-        <v>5547.4301533930975</v>
+        <v>5559.8989425688478</v>
       </c>
       <c r="D83" s="248">
-        <v>11597.769632903563</v>
+        <v>11637.251411571251</v>
       </c>
       <c r="E83" s="248">
-        <v>23434.746572477437</v>
+        <v>23450.038934367843</v>
       </c>
       <c r="F83" s="248">
-        <v>20403.861682547264</v>
+        <v>20396.753990412439</v>
       </c>
       <c r="G83" s="248">
-        <v>22134.628046357786</v>
+        <v>22124.10482147475</v>
       </c>
       <c r="H83" s="248">
-        <v>10982.015036068544</v>
+        <v>10951.82814008712</v>
       </c>
       <c r="I83" s="248">
-        <v>2634.3022360724431</v>
+        <v>2618.3537316289339</v>
       </c>
       <c r="J83" s="248">
-        <v>2725.8941563959379</v>
+        <v>2722.4196374365129</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -12304,31 +12304,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>14405.714259568107</v>
+        <v>14405.712166236493</v>
       </c>
       <c r="C97" s="248">
-        <v>-8494.9813275705328</v>
+        <v>-8482.5125383947834</v>
       </c>
       <c r="D97" s="248">
-        <v>-11727.92834054263</v>
+        <v>-11688.446561874944</v>
       </c>
       <c r="E97" s="248">
-        <v>2436.235307870958</v>
+        <v>2451.5276697613635</v>
       </c>
       <c r="F97" s="248">
-        <v>7599.7458440946339</v>
+        <v>7592.6381519598108</v>
       </c>
       <c r="G97" s="248">
-        <v>8921.5288434010945</v>
+        <v>8911.00561851806</v>
       </c>
       <c r="H97" s="248">
-        <v>-764.10797400299464</v>
+        <v>-794.29486998441814</v>
       </c>
       <c r="I97" s="248">
-        <v>-1653.8138245026996</v>
+        <v>-1669.7623289462085</v>
       </c>
       <c r="J97" s="248">
-        <v>2923.6072116840933</v>
+        <v>2920.1326927246555</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -12769,31 +12769,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27383.951539263882</v>
+        <v>27383.938659975447</v>
       </c>
       <c r="C9" s="231">
-        <v>5552.6852052772956</v>
+        <v>5565.160900021282</v>
       </c>
       <c r="D9" s="231">
-        <v>11945.763224003289</v>
+        <v>11984.949110051399</v>
       </c>
       <c r="E9" s="231">
-        <v>23948.519862340308</v>
+        <v>23962.411488007067</v>
       </c>
       <c r="F9" s="231">
-        <v>20625.993115077319</v>
+        <v>20617.912346775789</v>
       </c>
       <c r="G9" s="231">
-        <v>22626.551540518434</v>
+        <v>22612.853560297357</v>
       </c>
       <c r="H9" s="231">
-        <v>10290.886176191225</v>
+        <v>10261.055923701317</v>
       </c>
       <c r="I9" s="231">
-        <v>1839.0853211107951</v>
+        <v>1827.993725040863</v>
       </c>
       <c r="J9" s="231">
-        <v>2690.5640162174968</v>
+        <v>2687.7242861294944</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -12819,28 +12819,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27383.951539263882</v>
+        <v>27383.938659975447</v>
       </c>
       <c r="C11" s="231">
-        <v>32936.636744541174</v>
+        <v>32949.099559996728</v>
       </c>
       <c r="D11" s="231">
-        <v>44882.399968544465</v>
+        <v>44934.048670048127</v>
       </c>
       <c r="E11" s="231">
-        <v>68830.91983088477</v>
+        <v>68896.4601580552</v>
       </c>
       <c r="F11" s="231">
-        <v>89456.912945962089</v>
+        <v>89514.372504830986</v>
       </c>
       <c r="G11" s="231">
-        <v>112083.46448648052</v>
+        <v>112127.22606512834</v>
       </c>
       <c r="H11" s="231">
-        <v>122374.35066267174</v>
+        <v>122388.28198882967</v>
       </c>
       <c r="I11" s="231">
-        <v>124213.43598378253</v>
+        <v>124216.27571387054</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -12957,31 +12957,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>14476.650763762387</v>
+        <v>14476.637884473952</v>
       </c>
       <c r="C15" s="231">
-        <v>-8386.128842821734</v>
+        <v>-8373.6531480777485</v>
       </c>
       <c r="D15" s="231">
-        <v>-11071.904278151504</v>
+        <v>-11032.718392103394</v>
       </c>
       <c r="E15" s="231">
-        <v>2814.2629597385094</v>
+        <v>2828.1545854052674</v>
       </c>
       <c r="F15" s="231">
-        <v>7733.9386417730093</v>
+        <v>7725.8578734714793</v>
       </c>
       <c r="G15" s="231">
-        <v>9310.052186677085</v>
+        <v>9296.3542064560079</v>
       </c>
       <c r="H15" s="231">
-        <v>-1549.3280663689147</v>
+        <v>-1579.1583188588229</v>
       </c>
       <c r="I15" s="231">
-        <v>-2496.7840715754874</v>
+        <v>-2507.8756676454195</v>
       </c>
       <c r="J15" s="231">
-        <v>-10830.759293033349</v>
+        <v>-10833.599023121351</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -12990,31 +12990,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.1140756064723128</v>
+        <v>0.11407550498387717</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.066082462671166645</v>
+        <v>-0.065984154542628654</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.087246298604862743</v>
+        <v>-0.086937514909722236</v>
       </c>
       <c r="E16" s="236">
-        <v>0.022176314062113952</v>
+        <v>0.022285779687049003</v>
       </c>
       <c r="F16" s="237">
-        <v>0.060943221977029942</v>
+        <v>0.060879545746954207</v>
       </c>
       <c r="G16" s="236">
-        <v>0.073362952993420882</v>
+        <v>0.073255013289226539</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.012208662188496143</v>
+        <v>-0.012443723750699919</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.019674589229460748</v>
+        <v>-0.01976199069883864</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.085346082810891274</v>
+        <v>-0.08536845980521772</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -13023,28 +13023,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>14476.650763762387</v>
+        <v>14476.637884473952</v>
       </c>
       <c r="C17" s="231">
-        <v>6090.52192094065</v>
+        <v>6102.9847363962035</v>
       </c>
       <c r="D17" s="231">
-        <v>-4981.3823572108522</v>
+        <v>-4929.73365570719</v>
       </c>
       <c r="E17" s="231">
-        <v>-2167.1193974723428</v>
+        <v>-2101.5790703019156</v>
       </c>
       <c r="F17" s="231">
-        <v>5566.81924430067</v>
+        <v>5624.2788031695673</v>
       </c>
       <c r="G17" s="231">
-        <v>14876.871430977742</v>
+        <v>14920.63300962557</v>
       </c>
       <c r="H17" s="231">
-        <v>13327.543364608835</v>
+        <v>13341.474690766758</v>
       </c>
       <c r="I17" s="231">
-        <v>10830.759293033349</v>
+        <v>10833.599023121351</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -13056,28 +13056,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.1140756064723128</v>
+        <v>0.11407550498387717</v>
       </c>
       <c r="C18" s="236">
-        <v>0.047993143801146124</v>
+        <v>0.048091350441248515</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.017076840741602647</v>
+        <v>-0.016560384781424662</v>
       </c>
       <c r="F18" s="237">
-        <v>0.043866381235427319</v>
+        <v>0.044319160965529576</v>
       </c>
       <c r="G18" s="236">
-        <v>0.1172293342288481</v>
+        <v>0.11757417425475608</v>
       </c>
       <c r="H18" s="236">
-        <v>0.10502067204035201</v>
+        <v>0.10513045050405624</v>
       </c>
       <c r="I18" s="236">
-        <v>0.085346082810891274</v>
+        <v>0.08536845980521772</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -13089,31 +13089,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.1215862259318827</v>
+        <v>2.1215852281021541</v>
       </c>
       <c r="C19" s="236">
-        <v>0.39836138039552715</v>
+        <v>0.39925641312219506</v>
       </c>
       <c r="D19" s="236">
-        <v>0.51898235226853418</v>
+        <v>0.52068477872179841</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1331611976095573</v>
+        <v>1.1338185013288591</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5998996248261086</v>
+        <v>1.5992728226109718</v>
       </c>
       <c r="G19" s="236">
-        <v>1.699136607849679</v>
+        <v>1.6981079606161158</v>
       </c>
       <c r="H19" s="236">
-        <v>0.86914695675017517</v>
+        <v>0.86662755533743019</v>
       </c>
       <c r="I19" s="236">
-        <v>0.42415606987907728</v>
+        <v>0.42159796790104226</v>
       </c>
       <c r="J19" s="236">
-        <v>0.19898673781261494</v>
+        <v>0.19877671916110767</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -13122,28 +13122,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.1215862259318827</v>
+        <v>2.1215852281021541</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2268679084835936</v>
+        <v>1.2273321401065842</v>
       </c>
       <c r="D20" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="E20" s="236">
-        <v>0.96947634862841714</v>
+        <v>0.97039947732158593</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0663584816593241</v>
+        <v>1.0670434202060997</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1530438518967885</v>
+        <v>1.1534940433629459</v>
       </c>
       <c r="H20" s="236">
-        <v>1.122218556368918</v>
+        <v>1.1223463118392807</v>
       </c>
       <c r="I20" s="236">
-        <v>1.095523933718501</v>
+        <v>1.0955489792560635</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -13186,28 +13186,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -13217,28 +13217,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -13609,31 +13609,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>33.1432738325421</v>
+        <v>33.143267013582296</v>
       </c>
       <c r="C51" s="246">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D51" s="246">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E51" s="246">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F51" s="246">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G51" s="246">
-        <v>223.07829178292602</v>
+        <v>223.275762864114</v>
       </c>
       <c r="H51" s="246">
-        <v>300.606237997391</v>
+        <v>300.438623471273</v>
       </c>
       <c r="I51" s="246">
-        <v>246.486549449305</v>
+        <v>245.57759921162298</v>
       </c>
       <c r="J51" s="246">
-        <v>13.462515560459224</v>
+        <v>13.361689755736279</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -13644,31 +13644,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>33.1432738325421</v>
+        <v>33.143267013582296</v>
       </c>
       <c r="C52" s="248">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D52" s="248">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E52" s="248">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F52" s="248">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G52" s="248">
-        <v>223.07829178292602</v>
+        <v>223.275762864114</v>
       </c>
       <c r="H52" s="248">
-        <v>300.606237997391</v>
+        <v>300.438623471273</v>
       </c>
       <c r="I52" s="248">
-        <v>246.486549449305</v>
+        <v>245.57759921162298</v>
       </c>
       <c r="J52" s="248">
-        <v>13.462515560459224</v>
+        <v>13.361689755736279</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -13749,31 +13749,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>155.21150410972808</v>
+        <v>155.21149729076831</v>
       </c>
       <c r="C55" s="248">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D55" s="248">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E55" s="248">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F55" s="248">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G55" s="248">
-        <v>330.01006150574005</v>
+        <v>330.207532586928</v>
       </c>
       <c r="H55" s="248">
-        <v>300.606237997391</v>
+        <v>300.438623471273</v>
       </c>
       <c r="I55" s="248">
-        <v>246.486549449305</v>
+        <v>245.57759921162298</v>
       </c>
       <c r="J55" s="248">
-        <v>13.462515560459224</v>
+        <v>13.361689755736052</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -13784,31 +13784,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2155.211504109724</v>
+        <v>2155.2114972907643</v>
       </c>
       <c r="C56" s="248">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D56" s="248">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E56" s="248">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F56" s="248">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G56" s="248">
-        <v>2082.0100615057413</v>
+        <v>2082.2075325869291</v>
       </c>
       <c r="H56" s="248">
-        <v>300.606237997391</v>
+        <v>300.438623471273</v>
       </c>
       <c r="I56" s="248">
-        <v>246.486549449305</v>
+        <v>245.57759921162298</v>
       </c>
       <c r="J56" s="248">
-        <v>13.462515560461725</v>
+        <v>13.361689755739462</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -13924,19 +13924,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -13959,31 +13959,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>426.01039994771696</v>
+        <v>426.299134276842</v>
       </c>
       <c r="F61" s="246">
-        <v>296.59385662694297</v>
+        <v>296.563124999869</v>
       </c>
       <c r="G61" s="246">
-        <v>345.401241011311</v>
+        <v>344.99676030108503</v>
       </c>
       <c r="H61" s="246">
-        <v>241.69656474300598</v>
+        <v>240.72321039182899</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.190994058389151</v>
+        <v>30.085017470950106</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -13994,31 +13994,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>3023.25069316066</v>
+        <v>3023.23970045706</v>
       </c>
       <c r="C62" s="246">
-        <v>3125.99787800208</v>
+        <v>3134.55094309792</v>
       </c>
       <c r="D62" s="246">
-        <v>7249.03273518493</v>
+        <v>7276.24134550082</v>
       </c>
       <c r="E62" s="246">
-        <v>13171.801014918101</v>
+        <v>13183.7867042888</v>
       </c>
       <c r="F62" s="246">
-        <v>8059.07482912602</v>
+        <v>8061.28887801824</v>
       </c>
       <c r="G62" s="246">
-        <v>11463.089104032399</v>
+        <v>11454.0317661738</v>
       </c>
       <c r="H62" s="246">
-        <v>9661.07899570478</v>
+        <v>9632.74210753029</v>
       </c>
       <c r="I62" s="246">
-        <v>1592.59877166149</v>
+        <v>1582.4161258292402</v>
       </c>
       <c r="J62" s="246">
-        <v>455.07597820954106</v>
+        <v>452.7024291038324</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -14029,31 +14029,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>154.233780692779</v>
+        <v>154.33831473044998</v>
       </c>
       <c r="F63" s="246">
-        <v>107.37951900573199</v>
+        <v>107.36839285709499</v>
       </c>
       <c r="G63" s="246">
-        <v>125.04985620935601</v>
+        <v>124.903417086829</v>
       </c>
       <c r="H63" s="246">
-        <v>87.5043777460496</v>
+        <v>87.1519823079235</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.930416621447421</v>
+        <v>10.8920486150638</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -14064,31 +14064,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>3084.9152697273107</v>
+        <v>3084.9042158688121</v>
       </c>
       <c r="C64" s="248">
-        <v>3182.3990297207756</v>
+        <v>3191.0592523360883</v>
       </c>
       <c r="D64" s="248">
-        <v>7347.8690566242194</v>
+        <v>7375.4143652535386</v>
       </c>
       <c r="E64" s="248">
-        <v>13326.034795610878</v>
+        <v>13338.12501901925</v>
       </c>
       <c r="F64" s="248">
-        <v>8166.4543481317514</v>
+        <v>8168.6572708753356</v>
       </c>
       <c r="G64" s="248">
-        <v>11588.138960241755</v>
+        <v>11578.93518326063</v>
       </c>
       <c r="H64" s="248">
-        <v>9748.5833734508287</v>
+        <v>9719.8940898382134</v>
       </c>
       <c r="I64" s="248">
-        <v>1592.59877166149</v>
+        <v>1582.4161258292402</v>
       </c>
       <c r="J64" s="248">
-        <v>466.00639483099076</v>
+        <v>463.59447771889245</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -14099,31 +14099,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>3255.2395061414636</v>
+        <v>3255.2282833665163</v>
       </c>
       <c r="C65" s="248">
-        <v>3338.1851168754069</v>
+        <v>3347.1413201606</v>
       </c>
       <c r="D65" s="248">
-        <v>7620.86567666807</v>
+        <v>7649.3409824907485</v>
       </c>
       <c r="E65" s="248">
-        <v>13752.045195558596</v>
+        <v>13764.424153296093</v>
       </c>
       <c r="F65" s="248">
-        <v>8463.0482047586938</v>
+        <v>8465.2203958752052</v>
       </c>
       <c r="G65" s="248">
-        <v>11933.540201253067</v>
+        <v>11923.931943561714</v>
       </c>
       <c r="H65" s="248">
-        <v>9990.2799381938348</v>
+        <v>9960.6173002300438</v>
       </c>
       <c r="I65" s="248">
-        <v>1592.59877166149</v>
+        <v>1582.4161258292402</v>
       </c>
       <c r="J65" s="248">
-        <v>496.1973888893699</v>
+        <v>493.67949518984096</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -14134,19 +14134,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -14169,19 +14169,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -14204,19 +14204,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -14228,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -14239,31 +14239,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4468.36261242049</v>
+        <v>4468.3507186057805</v>
       </c>
       <c r="C69" s="248">
-        <v>4556.8914380819206</v>
+        <v>4567.57117844446</v>
       </c>
       <c r="D69" s="248">
-        <v>10078.709092434607</v>
+        <v>10112.428112940166</v>
       </c>
       <c r="E69" s="248">
-        <v>18769.104272815508</v>
+        <v>18781.680437944447</v>
       </c>
       <c r="F69" s="248">
-        <v>17870.500637834964</v>
+        <v>17865.542123703446</v>
       </c>
       <c r="G69" s="248">
-        <v>11933.540201253067</v>
+        <v>11923.931943561714</v>
       </c>
       <c r="H69" s="248">
-        <v>9990.2799381938348</v>
+        <v>9960.6173002300438</v>
       </c>
       <c r="I69" s="248">
-        <v>1592.59877166149</v>
+        <v>1582.4161258292402</v>
       </c>
       <c r="J69" s="248">
-        <v>618.01303530413134</v>
+        <v>615.46205874071165</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -14274,19 +14274,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -14344,22 +14344,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -14379,22 +14379,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -14403,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -14414,22 +14414,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -14519,31 +14519,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5444.7400351541564</v>
+        <v>5444.7271626846841</v>
       </c>
       <c r="C77" s="248">
-        <v>5514.3396170850119</v>
+        <v>5526.7148012889165</v>
       </c>
       <c r="D77" s="248">
-        <v>11860.902846124991</v>
+        <v>11899.725919194369</v>
       </c>
       <c r="E77" s="248">
-        <v>23784.90865022485</v>
+        <v>23798.490750349159</v>
       </c>
       <c r="F77" s="248">
-        <v>20492.587161885986</v>
+        <v>20484.299316339417</v>
       </c>
       <c r="G77" s="248">
-        <v>20544.541479012689</v>
+        <v>20530.646027710431</v>
       </c>
       <c r="H77" s="248">
-        <v>9990.2799381938348</v>
+        <v>9960.6173002300438</v>
       </c>
       <c r="I77" s="248">
-        <v>1592.59877166149</v>
+        <v>1582.4161258292402</v>
       </c>
       <c r="J77" s="248">
-        <v>900.10150065702328</v>
+        <v>897.3625963737577</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -14729,31 +14729,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>27383.951539263882</v>
+        <v>27383.938659975447</v>
       </c>
       <c r="C83" s="248">
-        <v>5552.6852052772956</v>
+        <v>5565.160900021282</v>
       </c>
       <c r="D83" s="248">
-        <v>11945.763224003289</v>
+        <v>11984.949110051399</v>
       </c>
       <c r="E83" s="248">
-        <v>23948.519862340308</v>
+        <v>23962.411488007067</v>
       </c>
       <c r="F83" s="248">
-        <v>20625.993115077319</v>
+        <v>20617.912346775789</v>
       </c>
       <c r="G83" s="248">
-        <v>22626.551540518434</v>
+        <v>22612.853560297357</v>
       </c>
       <c r="H83" s="248">
-        <v>10290.886176191225</v>
+        <v>10261.055923701317</v>
       </c>
       <c r="I83" s="248">
-        <v>1839.0853211107951</v>
+        <v>1827.993725040863</v>
       </c>
       <c r="J83" s="248">
-        <v>2690.5640162174968</v>
+        <v>2687.7242861294944</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -15109,31 +15109,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>14476.650763762387</v>
+        <v>14476.637884473952</v>
       </c>
       <c r="C97" s="248">
-        <v>-8386.128842821734</v>
+        <v>-8373.6531480777485</v>
       </c>
       <c r="D97" s="248">
-        <v>-11071.904278151505</v>
+        <v>-11032.718392103394</v>
       </c>
       <c r="E97" s="248">
-        <v>2814.262959738508</v>
+        <v>2828.1545854052642</v>
       </c>
       <c r="F97" s="248">
-        <v>7733.9386417730111</v>
+        <v>7725.85787347148</v>
       </c>
       <c r="G97" s="248">
-        <v>9310.0521866770832</v>
+        <v>9296.35420645601</v>
       </c>
       <c r="H97" s="248">
-        <v>-1549.3280663689134</v>
+        <v>-1579.1583188588229</v>
       </c>
       <c r="I97" s="248">
-        <v>-2496.7840715754869</v>
+        <v>-2507.8756676454191</v>
       </c>
       <c r="J97" s="248">
-        <v>2815.2407069666788</v>
+        <v>2812.4009768787073</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -15323,31 +15323,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27383.951539263882</v>
+        <v>27383.938659975447</v>
       </c>
       <c r="C9" s="231">
-        <v>5552.6852052772956</v>
+        <v>5565.160900021282</v>
       </c>
       <c r="D9" s="231">
-        <v>11945.763224003289</v>
+        <v>11984.949110051399</v>
       </c>
       <c r="E9" s="231">
-        <v>23948.519862340308</v>
+        <v>23962.411488007067</v>
       </c>
       <c r="F9" s="231">
-        <v>20625.993115077319</v>
+        <v>20617.912346775789</v>
       </c>
       <c r="G9" s="231">
-        <v>22626.551540518434</v>
+        <v>22612.853560297357</v>
       </c>
       <c r="H9" s="231">
-        <v>10286.997044041838</v>
+        <v>10257.192745290709</v>
       </c>
       <c r="I9" s="231">
-        <v>1842.9252888527481</v>
+        <v>1831.8095978802562</v>
       </c>
       <c r="J9" s="231">
-        <v>2690.6131806249323</v>
+        <v>2687.7715917007154</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -15373,28 +15373,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27383.951539263882</v>
+        <v>27383.938659975447</v>
       </c>
       <c r="C11" s="231">
-        <v>32936.636744541174</v>
+        <v>32949.099559996728</v>
       </c>
       <c r="D11" s="231">
-        <v>44882.399968544465</v>
+        <v>44934.048670048127</v>
       </c>
       <c r="E11" s="231">
-        <v>68830.91983088477</v>
+        <v>68896.4601580552</v>
       </c>
       <c r="F11" s="231">
-        <v>89456.912945962089</v>
+        <v>89514.372504830986</v>
       </c>
       <c r="G11" s="231">
-        <v>112083.46448648052</v>
+        <v>112127.22606512834</v>
       </c>
       <c r="H11" s="231">
-        <v>122370.46153052236</v>
+        <v>122384.41881041905</v>
       </c>
       <c r="I11" s="231">
-        <v>124213.3868193751</v>
+        <v>124216.22840829931</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -15511,31 +15511,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>14476.650763762387</v>
+        <v>14476.637884473952</v>
       </c>
       <c r="C15" s="231">
-        <v>-8386.128842821734</v>
+        <v>-8373.6531480777485</v>
       </c>
       <c r="D15" s="231">
-        <v>-11071.904278151504</v>
+        <v>-11032.718392103394</v>
       </c>
       <c r="E15" s="231">
-        <v>2814.2629597385094</v>
+        <v>2828.1545854052674</v>
       </c>
       <c r="F15" s="231">
-        <v>7733.9386417730093</v>
+        <v>7725.8578734714793</v>
       </c>
       <c r="G15" s="231">
-        <v>9310.052186677085</v>
+        <v>9296.3542064560079</v>
       </c>
       <c r="H15" s="231">
-        <v>-1553.2173051035516</v>
+        <v>-1583.0216038546805</v>
       </c>
       <c r="I15" s="231">
-        <v>-2497.9838362775536</v>
+        <v>-2509.0995272500454</v>
       </c>
       <c r="J15" s="231">
-        <v>-10825.67028959663</v>
+        <v>-10828.511878520847</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -15544,31 +15544,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.1140756064723128</v>
+        <v>0.11407550498387717</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.066082462671166645</v>
+        <v>-0.065984154542628654</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.087246298604862743</v>
+        <v>-0.086937514909722236</v>
       </c>
       <c r="E16" s="236">
-        <v>0.022176314062113952</v>
+        <v>0.022285779687049003</v>
       </c>
       <c r="F16" s="237">
-        <v>0.060943221977029942</v>
+        <v>0.060879545746954207</v>
       </c>
       <c r="G16" s="236">
-        <v>0.073362952993420882</v>
+        <v>0.073255013289226539</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.01223930928184731</v>
+        <v>-0.0124741663293094</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.019684043342034555</v>
+        <v>-0.019771634678576285</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.085305981604966177</v>
+        <v>-0.085328373246870426</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -15577,28 +15577,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>14476.650763762387</v>
+        <v>14476.637884473952</v>
       </c>
       <c r="C17" s="231">
-        <v>6090.52192094065</v>
+        <v>6102.9847363962035</v>
       </c>
       <c r="D17" s="231">
-        <v>-4981.3823572108522</v>
+        <v>-4929.73365570719</v>
       </c>
       <c r="E17" s="231">
-        <v>-2167.1193974723428</v>
+        <v>-2101.5790703019156</v>
       </c>
       <c r="F17" s="231">
-        <v>5566.81924430067</v>
+        <v>5624.2788031695673</v>
       </c>
       <c r="G17" s="231">
-        <v>14876.871430977742</v>
+        <v>14920.63300962557</v>
       </c>
       <c r="H17" s="231">
-        <v>13323.654125874193</v>
+        <v>13337.611405770891</v>
       </c>
       <c r="I17" s="231">
-        <v>10825.67028959663</v>
+        <v>10828.511878520847</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -15610,28 +15610,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.1140756064723128</v>
+        <v>0.11407550498387717</v>
       </c>
       <c r="C18" s="236">
-        <v>0.047993143801146124</v>
+        <v>0.048091350441248515</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.017076840741602647</v>
+        <v>-0.016560384781424662</v>
       </c>
       <c r="F18" s="237">
-        <v>0.043866381235427319</v>
+        <v>0.044319160965529576</v>
       </c>
       <c r="G18" s="236">
-        <v>0.1172293342288481</v>
+        <v>0.11757417425475608</v>
       </c>
       <c r="H18" s="236">
-        <v>0.10499002494700081</v>
+        <v>0.1051000079254467</v>
       </c>
       <c r="I18" s="236">
-        <v>0.085305981604966177</v>
+        <v>0.085328373246870426</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -15643,31 +15643,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.1215862259318827</v>
+        <v>2.1215852281021541</v>
       </c>
       <c r="C19" s="236">
-        <v>0.39836138039552715</v>
+        <v>0.39925641312219506</v>
       </c>
       <c r="D19" s="236">
-        <v>0.51898235226853418</v>
+        <v>0.52068477872179841</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1331611976095573</v>
+        <v>1.1338185013288591</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5998996248261086</v>
+        <v>1.5992728226109718</v>
       </c>
       <c r="G19" s="236">
-        <v>1.699136607849679</v>
+        <v>1.6981079606161158</v>
       </c>
       <c r="H19" s="236">
-        <v>0.86881848087356117</v>
+        <v>0.86630127148256053</v>
       </c>
       <c r="I19" s="236">
-        <v>0.4245482307343692</v>
+        <v>0.4219875480174376</v>
       </c>
       <c r="J19" s="236">
-        <v>0.19906457174805223</v>
+        <v>0.19885433726085183</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -15676,28 +15676,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.1215862259318827</v>
+        <v>2.1215852281021541</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2268679084835936</v>
+        <v>1.2273321401065842</v>
       </c>
       <c r="D20" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="E20" s="236">
-        <v>0.96947634862841714</v>
+        <v>0.97039947732158593</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0663584816593241</v>
+        <v>1.0670434202060997</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1530438518967885</v>
+        <v>1.1534940433629459</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1221828904759506</v>
+        <v>1.1223108839516778</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0954748064509574</v>
+        <v>1.0954998672689296</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -15740,28 +15740,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -15771,28 +15771,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -16163,31 +16163,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>33.1432738325421</v>
+        <v>33.143267013582296</v>
       </c>
       <c r="C51" s="246">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D51" s="246">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E51" s="246">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F51" s="246">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G51" s="246">
-        <v>223.07829178292602</v>
+        <v>223.275762864114</v>
       </c>
       <c r="H51" s="246">
-        <v>299.990473878433</v>
+        <v>299.825775501227</v>
       </c>
       <c r="I51" s="246">
-        <v>247.093255088638</v>
+        <v>246.181884563676</v>
       </c>
       <c r="J51" s="246">
-        <v>13.471574040084306</v>
+        <v>13.370252373729272</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -16198,31 +16198,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>33.1432738325421</v>
+        <v>33.143267013582296</v>
       </c>
       <c r="C52" s="248">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D52" s="248">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E52" s="248">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F52" s="248">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G52" s="248">
-        <v>223.07829178292602</v>
+        <v>223.275762864114</v>
       </c>
       <c r="H52" s="248">
-        <v>299.990473878433</v>
+        <v>299.825775501227</v>
       </c>
       <c r="I52" s="248">
-        <v>247.093255088638</v>
+        <v>246.181884563676</v>
       </c>
       <c r="J52" s="248">
-        <v>13.471574040084306</v>
+        <v>13.370252373729272</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -16303,31 +16303,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>155.21150410972808</v>
+        <v>155.21149729076831</v>
       </c>
       <c r="C55" s="248">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D55" s="248">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E55" s="248">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F55" s="248">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G55" s="248">
-        <v>330.01006150574005</v>
+        <v>330.207532586928</v>
       </c>
       <c r="H55" s="248">
-        <v>299.990473878433</v>
+        <v>299.825775501227</v>
       </c>
       <c r="I55" s="248">
-        <v>247.093255088638</v>
+        <v>246.181884563676</v>
       </c>
       <c r="J55" s="248">
-        <v>13.471574040084079</v>
+        <v>13.370252373729045</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -16338,31 +16338,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2155.211504109724</v>
+        <v>2155.2114972907643</v>
       </c>
       <c r="C56" s="248">
-        <v>38.3455881922841</v>
+        <v>38.4460987323651</v>
       </c>
       <c r="D56" s="248">
-        <v>84.8603778782966</v>
+        <v>85.223190857030389</v>
       </c>
       <c r="E56" s="248">
-        <v>163.61121211545802</v>
+        <v>163.92073765790403</v>
       </c>
       <c r="F56" s="248">
-        <v>133.405953191338</v>
+        <v>133.61303043637201</v>
       </c>
       <c r="G56" s="248">
-        <v>2082.0100615057413</v>
+        <v>2082.2075325869291</v>
       </c>
       <c r="H56" s="248">
-        <v>299.990473878433</v>
+        <v>299.825775501227</v>
       </c>
       <c r="I56" s="248">
-        <v>247.093255088638</v>
+        <v>246.181884563676</v>
       </c>
       <c r="J56" s="248">
-        <v>13.471574040087035</v>
+        <v>13.370252373732</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -16478,19 +16478,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -16513,31 +16513,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>426.01039994771696</v>
+        <v>426.299134276842</v>
       </c>
       <c r="F61" s="246">
-        <v>296.59385662694297</v>
+        <v>296.563124999869</v>
       </c>
       <c r="G61" s="246">
-        <v>345.401241011311</v>
+        <v>344.99676030108503</v>
       </c>
       <c r="H61" s="246">
-        <v>241.69656474300598</v>
+        <v>240.72321039182899</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.190994058389151</v>
+        <v>30.085017470950106</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -16548,31 +16548,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>3023.25069316066</v>
+        <v>3023.23970045706</v>
       </c>
       <c r="C62" s="246">
-        <v>3125.99787800208</v>
+        <v>3134.55094309792</v>
       </c>
       <c r="D62" s="246">
-        <v>7249.03273518493</v>
+        <v>7276.24134550082</v>
       </c>
       <c r="E62" s="246">
-        <v>13171.801014918101</v>
+        <v>13183.7867042888</v>
       </c>
       <c r="F62" s="246">
-        <v>8059.07482912602</v>
+        <v>8061.28887801824</v>
       </c>
       <c r="G62" s="246">
-        <v>11463.089104032399</v>
+        <v>11454.0317661738</v>
       </c>
       <c r="H62" s="246">
-        <v>9657.80562767435</v>
+        <v>9629.49177708973</v>
       </c>
       <c r="I62" s="246">
-        <v>1595.8320337641098</v>
+        <v>1585.62771331658</v>
       </c>
       <c r="J62" s="246">
-        <v>455.11608413734939</v>
+        <v>452.74117205705261</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -16583,31 +16583,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>154.233780692779</v>
+        <v>154.33831473044998</v>
       </c>
       <c r="F63" s="246">
-        <v>107.37951900573199</v>
+        <v>107.36839285709499</v>
       </c>
       <c r="G63" s="246">
-        <v>125.04985620935601</v>
+        <v>124.903417086829</v>
       </c>
       <c r="H63" s="246">
-        <v>87.5043777460496</v>
+        <v>87.1519823079235</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.930416621447421</v>
+        <v>10.8920486150638</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -16618,31 +16618,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>3084.9152697273107</v>
+        <v>3084.9042158688121</v>
       </c>
       <c r="C64" s="248">
-        <v>3182.3990297207756</v>
+        <v>3191.0592523360883</v>
       </c>
       <c r="D64" s="248">
-        <v>7347.8690566242194</v>
+        <v>7375.4143652535386</v>
       </c>
       <c r="E64" s="248">
-        <v>13326.034795610878</v>
+        <v>13338.12501901925</v>
       </c>
       <c r="F64" s="248">
-        <v>8166.4543481317514</v>
+        <v>8168.6572708753356</v>
       </c>
       <c r="G64" s="248">
-        <v>11588.138960241755</v>
+        <v>11578.93518326063</v>
       </c>
       <c r="H64" s="248">
-        <v>9745.3100054204</v>
+        <v>9716.6437593976534</v>
       </c>
       <c r="I64" s="248">
-        <v>1595.8320337641098</v>
+        <v>1585.62771331658</v>
       </c>
       <c r="J64" s="248">
-        <v>466.04650075879908</v>
+        <v>463.63322067211266</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -16653,31 +16653,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>3255.2395061414636</v>
+        <v>3255.2282833665163</v>
       </c>
       <c r="C65" s="248">
-        <v>3338.1851168754069</v>
+        <v>3347.1413201606</v>
       </c>
       <c r="D65" s="248">
-        <v>7620.86567666807</v>
+        <v>7649.3409824907485</v>
       </c>
       <c r="E65" s="248">
-        <v>13752.045195558596</v>
+        <v>13764.424153296093</v>
       </c>
       <c r="F65" s="248">
-        <v>8463.0482047586938</v>
+        <v>8465.2203958752052</v>
       </c>
       <c r="G65" s="248">
-        <v>11933.540201253067</v>
+        <v>11923.931943561714</v>
       </c>
       <c r="H65" s="248">
-        <v>9987.0065701634066</v>
+        <v>9957.366969789482</v>
       </c>
       <c r="I65" s="248">
-        <v>1595.8320337641098</v>
+        <v>1585.62771331658</v>
       </c>
       <c r="J65" s="248">
-        <v>496.23749481717823</v>
+        <v>493.71823814306117</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -16688,19 +16688,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -16723,19 +16723,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -16747,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -16758,19 +16758,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -16782,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -16793,31 +16793,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4468.36261242049</v>
+        <v>4468.3507186057805</v>
       </c>
       <c r="C69" s="248">
-        <v>4556.8914380819206</v>
+        <v>4567.57117844446</v>
       </c>
       <c r="D69" s="248">
-        <v>10078.709092434607</v>
+        <v>10112.428112940166</v>
       </c>
       <c r="E69" s="248">
-        <v>18769.104272815508</v>
+        <v>18781.680437944447</v>
       </c>
       <c r="F69" s="248">
-        <v>17870.500637834964</v>
+        <v>17865.542123703446</v>
       </c>
       <c r="G69" s="248">
-        <v>11933.540201253067</v>
+        <v>11923.931943561714</v>
       </c>
       <c r="H69" s="248">
-        <v>9987.0065701634066</v>
+        <v>9957.366969789482</v>
       </c>
       <c r="I69" s="248">
-        <v>1595.8320337641098</v>
+        <v>1585.62771331658</v>
       </c>
       <c r="J69" s="248">
-        <v>618.05314123195421</v>
+        <v>615.50080169393914</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -16828,19 +16828,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -16852,7 +16852,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -16898,22 +16898,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -16922,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -16933,22 +16933,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -16968,22 +16968,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -17073,31 +17073,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5444.7400351541564</v>
+        <v>5444.7271626846841</v>
       </c>
       <c r="C77" s="248">
-        <v>5514.3396170850119</v>
+        <v>5526.7148012889165</v>
       </c>
       <c r="D77" s="248">
-        <v>11860.902846124991</v>
+        <v>11899.725919194369</v>
       </c>
       <c r="E77" s="248">
-        <v>23784.90865022485</v>
+        <v>23798.490750349159</v>
       </c>
       <c r="F77" s="248">
-        <v>20492.587161885986</v>
+        <v>20484.299316339417</v>
       </c>
       <c r="G77" s="248">
-        <v>20544.541479012689</v>
+        <v>20530.646027710431</v>
       </c>
       <c r="H77" s="248">
-        <v>9987.0065701634066</v>
+        <v>9957.366969789482</v>
       </c>
       <c r="I77" s="248">
-        <v>1595.8320337641098</v>
+        <v>1585.62771331658</v>
       </c>
       <c r="J77" s="248">
-        <v>900.14160658484616</v>
+        <v>897.40133932698518</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -17283,31 +17283,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>27383.951539263882</v>
+        <v>27383.938659975447</v>
       </c>
       <c r="C83" s="248">
-        <v>5552.6852052772956</v>
+        <v>5565.160900021282</v>
       </c>
       <c r="D83" s="248">
-        <v>11945.763224003289</v>
+        <v>11984.949110051399</v>
       </c>
       <c r="E83" s="248">
-        <v>23948.519862340308</v>
+        <v>23962.411488007067</v>
       </c>
       <c r="F83" s="248">
-        <v>20625.993115077319</v>
+        <v>20617.912346775789</v>
       </c>
       <c r="G83" s="248">
-        <v>22626.551540518434</v>
+        <v>22612.853560297357</v>
       </c>
       <c r="H83" s="248">
-        <v>10286.997044041838</v>
+        <v>10257.192745290709</v>
       </c>
       <c r="I83" s="248">
-        <v>1842.9252888527481</v>
+        <v>1831.8095978802562</v>
       </c>
       <c r="J83" s="248">
-        <v>2690.6131806249323</v>
+        <v>2687.7715917007154</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -17663,31 +17663,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>14476.650763762387</v>
+        <v>14476.637884473952</v>
       </c>
       <c r="C97" s="248">
-        <v>-8386.128842821734</v>
+        <v>-8373.6531480777485</v>
       </c>
       <c r="D97" s="248">
-        <v>-11071.904278151505</v>
+        <v>-11032.718392103394</v>
       </c>
       <c r="E97" s="248">
-        <v>2814.262959738508</v>
+        <v>2828.1545854052642</v>
       </c>
       <c r="F97" s="248">
-        <v>7733.9386417730111</v>
+        <v>7725.85787347148</v>
       </c>
       <c r="G97" s="248">
-        <v>9310.0521866770832</v>
+        <v>9296.35420645601</v>
       </c>
       <c r="H97" s="248">
-        <v>-1553.2173051035516</v>
+        <v>-1583.0216038546805</v>
       </c>
       <c r="I97" s="248">
-        <v>-2497.9838362775536</v>
+        <v>-2509.099527250045</v>
       </c>
       <c r="J97" s="248">
-        <v>2820.3297104033845</v>
+        <v>2817.4881214791894</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -17877,31 +17877,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>26966.960488314755</v>
+        <v>26966.9741641543</v>
       </c>
       <c r="C9" s="231">
-        <v>6088.0173571919495</v>
+        <v>6100.4652923296353</v>
       </c>
       <c r="D9" s="231">
-        <v>11016.683072824177</v>
+        <v>11056.712754360082</v>
       </c>
       <c r="E9" s="231">
-        <v>22366.224184332503</v>
+        <v>22383.961989233452</v>
       </c>
       <c r="F9" s="231">
-        <v>20138.97752334176</v>
+        <v>20133.973274308857</v>
       </c>
       <c r="G9" s="231">
-        <v>22242.950284597471</v>
+        <v>22234.066141304258</v>
       </c>
       <c r="H9" s="231">
-        <v>11978.501644692175</v>
+        <v>11946.45536936057</v>
       </c>
       <c r="I9" s="231">
-        <v>3341.0708727821411</v>
+        <v>3320.8388916912809</v>
       </c>
       <c r="J9" s="231">
-        <v>2764.61457192307</v>
+        <v>2760.5521232575993</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -17927,28 +17927,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>26966.960488314755</v>
+        <v>26966.9741641543</v>
       </c>
       <c r="C11" s="231">
-        <v>33054.977845506706</v>
+        <v>33067.439456483939</v>
       </c>
       <c r="D11" s="231">
-        <v>44071.660918330883</v>
+        <v>44124.152210844019</v>
       </c>
       <c r="E11" s="231">
-        <v>66437.8851026634</v>
+        <v>66508.114200077471</v>
       </c>
       <c r="F11" s="231">
-        <v>86576.862626005153</v>
+        <v>86642.087474386324</v>
       </c>
       <c r="G11" s="231">
-        <v>108819.81291060263</v>
+        <v>108876.15361569058</v>
       </c>
       <c r="H11" s="231">
-        <v>120798.31455529481</v>
+        <v>120822.60898505115</v>
       </c>
       <c r="I11" s="231">
-        <v>124139.38542807696</v>
+        <v>124143.44787674243</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -18065,31 +18065,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>13737.875077071309</v>
+        <v>13737.888752910854</v>
       </c>
       <c r="C15" s="231">
-        <v>-8060.7934197391405</v>
+        <v>-8048.3454846014547</v>
       </c>
       <c r="D15" s="231">
-        <v>-12566.08354152722</v>
+        <v>-12526.053859991314</v>
       </c>
       <c r="E15" s="231">
-        <v>1586.8837416262431</v>
+        <v>1604.6215465271926</v>
       </c>
       <c r="F15" s="231">
-        <v>7455.87950393919</v>
+        <v>7450.8752549062865</v>
       </c>
       <c r="G15" s="231">
-        <v>9106.7780942212212</v>
+        <v>9097.8939509280081</v>
       </c>
       <c r="H15" s="231">
-        <v>238.8681562556867</v>
+        <v>206.82188092408251</v>
       </c>
       <c r="I15" s="231">
-        <v>-952.62711382872294</v>
+        <v>-972.85909491958319</v>
       </c>
       <c r="J15" s="231">
-        <v>-10546.78049801859</v>
+        <v>-10550.842946684061</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -18098,31 +18098,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.10825407455297946</v>
+        <v>0.10825418231821575</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.063518828561267879</v>
+        <v>-0.063420739177657545</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.099020389755462526</v>
+        <v>-0.098704956975282976</v>
       </c>
       <c r="E16" s="236">
-        <v>0.012504599867823258</v>
+        <v>0.012644373278440335</v>
       </c>
       <c r="F16" s="237">
-        <v>0.058752123683565437</v>
+        <v>0.058712690339991526</v>
       </c>
       <c r="G16" s="236">
-        <v>0.071761158783184287</v>
+        <v>0.07169115198045771</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0018822744456887619</v>
+        <v>0.0016297506849593587</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.0075066752334735131</v>
+        <v>-0.0076661026832848689</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.083108337783037473</v>
+        <v>-0.083140349765839214</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -18131,28 +18131,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>13737.875077071309</v>
+        <v>13737.888752910854</v>
       </c>
       <c r="C17" s="231">
-        <v>5677.0816573321717</v>
+        <v>5689.5432683094041</v>
       </c>
       <c r="D17" s="231">
-        <v>-6889.0018841950441</v>
+        <v>-6836.5105916819084</v>
       </c>
       <c r="E17" s="231">
-        <v>-5302.1181425687973</v>
+        <v>-5231.8890451547195</v>
       </c>
       <c r="F17" s="231">
-        <v>2153.761361370387</v>
+        <v>2218.9862097515579</v>
       </c>
       <c r="G17" s="231">
-        <v>11260.539455591614</v>
+        <v>11316.880160679561</v>
       </c>
       <c r="H17" s="231">
-        <v>11499.407611847302</v>
+        <v>11523.702041603639</v>
       </c>
       <c r="I17" s="231">
-        <v>10546.78049801859</v>
+        <v>10550.842946684061</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -18164,28 +18164,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.10825407455297946</v>
+        <v>0.10825418231821575</v>
       </c>
       <c r="C18" s="236">
-        <v>0.044735245991711609</v>
+        <v>0.044833443140558239</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.0417805438959276</v>
+        <v>-0.041227140556284424</v>
       </c>
       <c r="F18" s="237">
-        <v>0.016971579787637792</v>
+        <v>0.017485549783707033</v>
       </c>
       <c r="G18" s="236">
-        <v>0.088732738570822131</v>
+        <v>0.0891767017641647</v>
       </c>
       <c r="H18" s="236">
-        <v>0.0906150130165109</v>
+        <v>0.090806452449124039</v>
       </c>
       <c r="I18" s="236">
-        <v>0.083108337783037473</v>
+        <v>0.083140349765839214</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -18197,31 +18197,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.0384599275015218</v>
+        <v>2.0384609612721203</v>
       </c>
       <c r="C19" s="236">
-        <v>0.43028473934488892</v>
+        <v>0.43116452601628757</v>
       </c>
       <c r="D19" s="236">
-        <v>0.46714973069020344</v>
+        <v>0.46884714313508369</v>
       </c>
       <c r="E19" s="236">
-        <v>1.076368340275365</v>
+        <v>1.0772219672203518</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5878594876845709</v>
+        <v>1.5874649272210903</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6932596468926449</v>
+        <v>1.6925833354706827</v>
       </c>
       <c r="H19" s="236">
-        <v>1.0203471561945243</v>
+        <v>1.0176174052731546</v>
       </c>
       <c r="I19" s="236">
-        <v>0.77813364684723485</v>
+        <v>0.77342162910543033</v>
       </c>
       <c r="J19" s="236">
-        <v>0.207687816145268</v>
+        <v>0.20738263035188378</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -18230,28 +18230,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.0384599275015218</v>
+        <v>2.0384609612721203</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2073600403154534</v>
+        <v>1.2078152108256921</v>
       </c>
       <c r="D20" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="E20" s="236">
-        <v>0.92609258568828989</v>
+        <v>0.92707152483294</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0255115167425459</v>
+        <v>1.0262841115347785</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1154225432068676</v>
+        <v>1.1160000455097514</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1052106368986583</v>
+        <v>1.1054329120378683</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0928474217534892</v>
+        <v>1.0928831850733634</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -18294,28 +18294,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -18325,28 +18325,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -18717,31 +18717,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>25.8255814813659</v>
+        <v>25.8255783530774</v>
       </c>
       <c r="C51" s="246">
-        <v>30.677587810627703</v>
+        <v>30.779366860738598</v>
       </c>
       <c r="D51" s="246">
-        <v>66.2591475501621</v>
+        <v>66.6351742861643</v>
       </c>
       <c r="E51" s="246">
-        <v>133.912083146096</v>
+        <v>134.277093408795</v>
       </c>
       <c r="F51" s="246">
-        <v>111.851184721126</v>
+        <v>112.114795616056</v>
       </c>
       <c r="G51" s="246">
-        <v>191.565722656128</v>
+        <v>191.90582316084</v>
       </c>
       <c r="H51" s="246">
-        <v>295.53761849656104</v>
+        <v>295.65000735557703</v>
       </c>
       <c r="I51" s="246">
-        <v>366.480070004911</v>
+        <v>365.04860581389096</v>
       </c>
       <c r="J51" s="246">
-        <v>14.891004133022307</v>
+        <v>14.763555144860675</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -18752,31 +18752,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>25.8255814813659</v>
+        <v>25.8255783530774</v>
       </c>
       <c r="C52" s="248">
-        <v>30.677587810627703</v>
+        <v>30.779366860738598</v>
       </c>
       <c r="D52" s="248">
-        <v>66.2591475501621</v>
+        <v>66.6351742861643</v>
       </c>
       <c r="E52" s="248">
-        <v>133.912083146096</v>
+        <v>134.277093408795</v>
       </c>
       <c r="F52" s="248">
-        <v>111.851184721126</v>
+        <v>112.114795616056</v>
       </c>
       <c r="G52" s="248">
-        <v>191.565722656128</v>
+        <v>191.90582316084</v>
       </c>
       <c r="H52" s="248">
-        <v>295.53761849656104</v>
+        <v>295.65000735557703</v>
       </c>
       <c r="I52" s="248">
-        <v>366.480070004911</v>
+        <v>365.04860581389096</v>
       </c>
       <c r="J52" s="248">
-        <v>14.891004133022307</v>
+        <v>14.763555144860675</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -18857,31 +18857,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>147.89381175855189</v>
+        <v>147.89380863026341</v>
       </c>
       <c r="C55" s="248">
-        <v>30.677587810627703</v>
+        <v>30.779366860738598</v>
       </c>
       <c r="D55" s="248">
-        <v>66.2591475501621</v>
+        <v>66.6351742861643</v>
       </c>
       <c r="E55" s="248">
-        <v>133.912083146096</v>
+        <v>134.277093408795</v>
       </c>
       <c r="F55" s="248">
-        <v>111.851184721126</v>
+        <v>112.114795616056</v>
       </c>
       <c r="G55" s="248">
-        <v>298.49749237894196</v>
+        <v>298.837592883654</v>
       </c>
       <c r="H55" s="248">
-        <v>295.53761849656104</v>
+        <v>295.65000735557703</v>
       </c>
       <c r="I55" s="248">
-        <v>366.480070004911</v>
+        <v>365.04860581389096</v>
       </c>
       <c r="J55" s="248">
-        <v>14.891004133022307</v>
+        <v>14.763555144860675</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -18892,31 +18892,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2147.8938117585481</v>
+        <v>2147.8938086302592</v>
       </c>
       <c r="C56" s="248">
-        <v>30.677587810627703</v>
+        <v>30.779366860738598</v>
       </c>
       <c r="D56" s="248">
-        <v>66.2591475501621</v>
+        <v>66.6351742861643</v>
       </c>
       <c r="E56" s="248">
-        <v>133.912083146096</v>
+        <v>134.277093408795</v>
       </c>
       <c r="F56" s="248">
-        <v>111.851184721126</v>
+        <v>112.114795616056</v>
       </c>
       <c r="G56" s="248">
-        <v>2050.4974923789432</v>
+        <v>2050.8375928836549</v>
       </c>
       <c r="H56" s="248">
-        <v>295.53761849656104</v>
+        <v>295.65000735557703</v>
       </c>
       <c r="I56" s="248">
-        <v>366.480070004911</v>
+        <v>365.04860581389096</v>
       </c>
       <c r="J56" s="248">
-        <v>14.89100413302549</v>
+        <v>14.763555144863858</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -19032,19 +19032,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -19056,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -19067,31 +19067,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>421.61872219045404</v>
+        <v>422.05775635591</v>
       </c>
       <c r="F61" s="246">
-        <v>294.903524903838</v>
+        <v>294.933587444203</v>
       </c>
       <c r="G61" s="246">
-        <v>345.50467899726</v>
+        <v>345.11323859794396</v>
       </c>
       <c r="H61" s="246">
-        <v>247.552167508465</v>
+        <v>246.35962989826098</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.313962787348828</v>
+        <v>30.203035144257</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -19102,31 +19102,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>2613.57733456271</v>
+        <v>2613.5928932964202</v>
       </c>
       <c r="C62" s="246">
-        <v>3668.99803029839</v>
+        <v>3677.5220672779</v>
       </c>
       <c r="D62" s="246">
-        <v>6338.55381433395</v>
+        <v>6366.59300638037</v>
       </c>
       <c r="E62" s="246">
-        <v>11625.186116708399</v>
+        <v>11640.757785859802</v>
       </c>
       <c r="F62" s="246">
-        <v>7595.9163091514</v>
+        <v>7601.0675394353193</v>
       </c>
       <c r="G62" s="246">
-        <v>11110.859530327</v>
+        <v>11106.4556385178</v>
       </c>
       <c r="H62" s="246">
-        <v>11345.787505107499</v>
+        <v>11315.2531275742</v>
       </c>
       <c r="I62" s="246">
-        <v>2974.59080277723</v>
+        <v>2955.79028587739</v>
       </c>
       <c r="J62" s="246">
-        <v>527.53055673342169</v>
+        <v>523.96765578079794</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -19137,31 +19137,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>152.643807621299</v>
+        <v>152.802756555879</v>
       </c>
       <c r="F63" s="246">
-        <v>106.76754743811</v>
+        <v>106.778431349062</v>
       </c>
       <c r="G63" s="246">
-        <v>125.08730513464499</v>
+        <v>124.945587156141</v>
       </c>
       <c r="H63" s="246">
-        <v>89.6243535796505</v>
+        <v>89.1926045325321</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.9749365016595</v>
+        <v>10.934776003747288</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -19172,31 +19172,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>2675.2419111293607</v>
+        <v>2675.2574087081725</v>
       </c>
       <c r="C64" s="248">
-        <v>3725.3991820170854</v>
+        <v>3734.0303765160679</v>
       </c>
       <c r="D64" s="248">
-        <v>6437.3901357732393</v>
+        <v>6465.7660261330884</v>
       </c>
       <c r="E64" s="248">
-        <v>11777.829924329699</v>
+        <v>11793.56054241568</v>
       </c>
       <c r="F64" s="248">
-        <v>7702.6838565895105</v>
+        <v>7707.8459707843822</v>
       </c>
       <c r="G64" s="248">
-        <v>11235.946835461644</v>
+        <v>11231.401225673943</v>
       </c>
       <c r="H64" s="248">
-        <v>11435.41185868715</v>
+        <v>11404.445732106733</v>
       </c>
       <c r="I64" s="248">
-        <v>2974.59080277723</v>
+        <v>2955.79028587739</v>
       </c>
       <c r="J64" s="248">
-        <v>538.50549323508312</v>
+        <v>534.90243178454693</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -19207,31 +19207,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>2845.5661475435136</v>
+        <v>2845.5814762058767</v>
       </c>
       <c r="C65" s="248">
-        <v>3881.1852691717168</v>
+        <v>3890.1124443405797</v>
       </c>
       <c r="D65" s="248">
-        <v>6710.38675581709</v>
+        <v>6739.6926433702974</v>
       </c>
       <c r="E65" s="248">
-        <v>12199.448646520154</v>
+        <v>12215.618298771589</v>
       </c>
       <c r="F65" s="248">
-        <v>7997.5873814933475</v>
+        <v>8002.7795582285853</v>
       </c>
       <c r="G65" s="248">
-        <v>11581.451514458904</v>
+        <v>11576.514464271886</v>
       </c>
       <c r="H65" s="248">
-        <v>11682.964026195614</v>
+        <v>11650.805362004994</v>
       </c>
       <c r="I65" s="248">
-        <v>2974.59080277723</v>
+        <v>2955.79028587739</v>
       </c>
       <c r="J65" s="248">
-        <v>568.81945602242922</v>
+        <v>565.10546692879871</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -19242,19 +19242,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -19277,19 +19277,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -19301,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -19312,19 +19312,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -19347,31 +19347,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4058.6892538225393</v>
+        <v>4058.7039114451404</v>
       </c>
       <c r="C69" s="248">
-        <v>5099.89159037823</v>
+        <v>5110.54230262444</v>
       </c>
       <c r="D69" s="248">
-        <v>9168.2301715836275</v>
+        <v>9202.779773819715</v>
       </c>
       <c r="E69" s="248">
-        <v>17216.507723777064</v>
+        <v>17232.874583419944</v>
       </c>
       <c r="F69" s="248">
-        <v>17405.03981456962</v>
+        <v>17403.101286056826</v>
       </c>
       <c r="G69" s="248">
-        <v>11581.451514458904</v>
+        <v>11576.514464271886</v>
       </c>
       <c r="H69" s="248">
-        <v>11682.964026195614</v>
+        <v>11650.805362004994</v>
       </c>
       <c r="I69" s="248">
-        <v>2974.59080277723</v>
+        <v>2955.79028587739</v>
       </c>
       <c r="J69" s="248">
-        <v>690.63510243718338</v>
+        <v>686.88803047967667</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -19382,19 +19382,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -19452,22 +19452,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -19476,7 +19476,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -19487,22 +19487,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -19511,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -19522,22 +19522,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -19546,7 +19546,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -19627,31 +19627,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5035.0666765562055</v>
+        <v>5035.0803555240436</v>
       </c>
       <c r="C77" s="248">
-        <v>6057.3397693813213</v>
+        <v>6069.6859254688961</v>
       </c>
       <c r="D77" s="248">
-        <v>10950.423925274015</v>
+        <v>10990.077580073918</v>
       </c>
       <c r="E77" s="248">
-        <v>22232.312101186406</v>
+        <v>22249.684895824659</v>
       </c>
       <c r="F77" s="248">
-        <v>20027.126338620634</v>
+        <v>20021.8584786928</v>
       </c>
       <c r="G77" s="248">
-        <v>20192.45279221853</v>
+        <v>20183.228548420604</v>
       </c>
       <c r="H77" s="248">
-        <v>11682.964026195614</v>
+        <v>11650.805362004994</v>
       </c>
       <c r="I77" s="248">
-        <v>2974.59080277723</v>
+        <v>2955.79028587739</v>
       </c>
       <c r="J77" s="248">
-        <v>972.72356779008987</v>
+        <v>968.78856811272271</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -19837,31 +19837,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>26966.960488314755</v>
+        <v>26966.9741641543</v>
       </c>
       <c r="C83" s="248">
-        <v>6088.0173571919495</v>
+        <v>6100.4652923296353</v>
       </c>
       <c r="D83" s="248">
-        <v>11016.683072824177</v>
+        <v>11056.712754360082</v>
       </c>
       <c r="E83" s="248">
-        <v>22366.224184332503</v>
+        <v>22383.961989233452</v>
       </c>
       <c r="F83" s="248">
-        <v>20138.97752334176</v>
+        <v>20133.973274308857</v>
       </c>
       <c r="G83" s="248">
-        <v>22242.950284597471</v>
+        <v>22234.066141304258</v>
       </c>
       <c r="H83" s="248">
-        <v>11978.501644692175</v>
+        <v>11946.45536936057</v>
       </c>
       <c r="I83" s="248">
-        <v>3341.0708727821411</v>
+        <v>3320.8388916912809</v>
       </c>
       <c r="J83" s="248">
-        <v>2764.61457192307</v>
+        <v>2760.5521232575993</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -20217,31 +20217,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>13737.875077071309</v>
+        <v>13737.888752910856</v>
       </c>
       <c r="C97" s="248">
-        <v>-8060.7934197391414</v>
+        <v>-8048.3454846014547</v>
       </c>
       <c r="D97" s="248">
-        <v>-12566.08354152722</v>
+        <v>-12526.053859991314</v>
       </c>
       <c r="E97" s="248">
-        <v>1586.8837416262404</v>
+        <v>1604.6215465271921</v>
       </c>
       <c r="F97" s="248">
-        <v>7455.8795039391889</v>
+        <v>7450.8752549062856</v>
       </c>
       <c r="G97" s="248">
-        <v>9106.7780942212212</v>
+        <v>9097.8939509280081</v>
       </c>
       <c r="H97" s="248">
-        <v>238.86815625568664</v>
+        <v>206.82188092408143</v>
       </c>
       <c r="I97" s="248">
-        <v>-952.62711382872328</v>
+        <v>-972.8590949195833</v>
       </c>
       <c r="J97" s="248">
-        <v>3099.2195019814662</v>
+        <v>3095.1570533159611</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -20431,31 +20431,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>26226.690275203127</v>
+        <v>26226.704604506089</v>
       </c>
       <c r="C9" s="231">
-        <v>5750.5260721061477</v>
+        <v>5763.1531526586805</v>
       </c>
       <c r="D9" s="231">
-        <v>11873.781418146233</v>
+        <v>11913.640132157949</v>
       </c>
       <c r="E9" s="231">
-        <v>22814.869638678025</v>
+        <v>22832.213488198016</v>
       </c>
       <c r="F9" s="231">
-        <v>19695.502627750753</v>
+        <v>19691.74775526287</v>
       </c>
       <c r="G9" s="231">
-        <v>21370.099906922453</v>
+        <v>21365.121391786986</v>
       </c>
       <c r="H9" s="231">
-        <v>12093.426069019761</v>
+        <v>12063.485392668115</v>
       </c>
       <c r="I9" s="231">
-        <v>4285.98363914772</v>
+        <v>4259.6076373800415</v>
       </c>
       <c r="J9" s="231">
-        <v>2793.1203530258208</v>
+        <v>2788.3264453812881</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -20481,28 +20481,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>26226.690275203127</v>
+        <v>26226.704604506089</v>
       </c>
       <c r="C11" s="231">
-        <v>31977.216347309273</v>
+        <v>31989.857757164769</v>
       </c>
       <c r="D11" s="231">
-        <v>43850.997765455504</v>
+        <v>43903.497889322716</v>
       </c>
       <c r="E11" s="231">
-        <v>66665.867404133533</v>
+        <v>66735.711377520725</v>
       </c>
       <c r="F11" s="231">
-        <v>86361.370031884289</v>
+        <v>86427.4591327836</v>
       </c>
       <c r="G11" s="231">
-        <v>107731.46993880674</v>
+        <v>107792.58052457059</v>
       </c>
       <c r="H11" s="231">
-        <v>119824.89600782649</v>
+        <v>119856.0659172387</v>
       </c>
       <c r="I11" s="231">
-        <v>124110.87964697421</v>
+        <v>124115.67355461874</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -20619,31 +20619,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>12973.1913277381</v>
+        <v>12973.205657041062</v>
       </c>
       <c r="C15" s="231">
-        <v>-8415.9991032187318</v>
+        <v>-8403.372022666199</v>
       </c>
       <c r="D15" s="231">
-        <v>-11748.251432637962</v>
+        <v>-11708.392718626246</v>
       </c>
       <c r="E15" s="231">
-        <v>2021.9261683489749</v>
+        <v>2039.2700178689665</v>
       </c>
       <c r="F15" s="231">
-        <v>7011.4205844264543</v>
+        <v>7007.6657119385709</v>
       </c>
       <c r="G15" s="231">
-        <v>8221.391729760433</v>
+        <v>8216.4132146249667</v>
       </c>
       <c r="H15" s="231">
-        <v>334.30930112321039</v>
+        <v>304.368624771565</v>
       </c>
       <c r="I15" s="231">
-        <v>-18.85770897670227</v>
+        <v>-45.233710744380915</v>
       </c>
       <c r="J15" s="231">
-        <v>-10379.130866563777</v>
+        <v>-10383.92477420831</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -20652,31 +20652,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.1022283878186511</v>
+        <v>0.10222850073316098</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.06631783949456857</v>
+        <v>-0.066218338450058284</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.092575895422035245</v>
+        <v>-0.0922618098612041</v>
       </c>
       <c r="E16" s="236">
-        <v>0.015932722123408044</v>
+        <v>0.016069391176550513</v>
       </c>
       <c r="F16" s="237">
-        <v>0.055249799725985413</v>
+        <v>0.055220211434931672</v>
       </c>
       <c r="G16" s="236">
-        <v>0.064784338789639656</v>
+        <v>0.064745108228463757</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0026343480199458669</v>
+        <v>0.0023984163207744825</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.00014859822367066652</v>
+        <v>-0.00035644038599556285</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.081787263337355587</v>
+        <v>-0.081825039196623484</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -20685,28 +20685,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>12973.1913277381</v>
+        <v>12973.205657041062</v>
       </c>
       <c r="C17" s="231">
-        <v>4557.1922245193673</v>
+        <v>4569.8336343748633</v>
       </c>
       <c r="D17" s="231">
-        <v>-7191.0592081185969</v>
+        <v>-7138.5590842513848</v>
       </c>
       <c r="E17" s="231">
-        <v>-5169.1330397696147</v>
+        <v>-5099.2890663824219</v>
       </c>
       <c r="F17" s="231">
-        <v>1842.287544656836</v>
+        <v>1908.3766455561417</v>
       </c>
       <c r="G17" s="231">
-        <v>10063.679274417271</v>
+        <v>10124.789860181118</v>
       </c>
       <c r="H17" s="231">
-        <v>10397.988575540483</v>
+        <v>10429.158484952684</v>
       </c>
       <c r="I17" s="231">
-        <v>10379.130866563777</v>
+        <v>10383.92477420831</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -20718,28 +20718,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.1022283878186511</v>
+        <v>0.10222850073316098</v>
       </c>
       <c r="C18" s="236">
-        <v>0.035910548324082504</v>
+        <v>0.036010162283102679</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.040732624974544641</v>
+        <v>-0.040182256401550945</v>
       </c>
       <c r="F18" s="237">
-        <v>0.014517174751440739</v>
+        <v>0.015037955033380677</v>
       </c>
       <c r="G18" s="236">
-        <v>0.0793015135410804</v>
+        <v>0.0797830632618445</v>
       </c>
       <c r="H18" s="236">
-        <v>0.0819358615610263</v>
+        <v>0.082181479582619</v>
       </c>
       <c r="I18" s="236">
-        <v>0.081787263337355587</v>
+        <v>0.081825039196623484</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -20751,31 +20751,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.9788502929801388</v>
+        <v>1.9788513741514595</v>
       </c>
       <c r="C19" s="236">
-        <v>0.40592354165454486</v>
+        <v>0.40681487388995619</v>
       </c>
       <c r="D19" s="236">
-        <v>0.50265705297891206</v>
+        <v>0.50434440623354082</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0972409784710957</v>
+        <v>1.0980751003713807</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5527731971835206</v>
+        <v>1.5524771668933459</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6252623161901305</v>
+        <v>1.6248836846874468</v>
       </c>
       <c r="H19" s="236">
-        <v>1.0284297968735121</v>
+        <v>1.0258836297639733</v>
       </c>
       <c r="I19" s="236">
-        <v>0.99561941835907175</v>
+        <v>0.98949236288020481</v>
       </c>
       <c r="J19" s="236">
-        <v>0.2120457852240116</v>
+        <v>0.21168184533517898</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -20784,28 +20784,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.9788502929801388</v>
+        <v>1.9788513741514595</v>
       </c>
       <c r="C20" s="236">
-        <v>1.1661994243371836</v>
+        <v>1.1666604527374098</v>
       </c>
       <c r="D20" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="E20" s="236">
-        <v>0.928041581292865</v>
+        <v>0.92901386462209989</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0217972970179279</v>
+        <v>1.0225792399703881</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1030398988853813</v>
+        <v>1.10366559734081</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0950222282574769</v>
+        <v>1.0953070751031351</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0912597491717415</v>
+        <v>1.0913019001779112</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -20848,28 +20848,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -20879,28 +20879,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -21271,31 +21271,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>21.596428723880198</v>
+        <v>21.5964162734842</v>
       </c>
       <c r="C51" s="246">
-        <v>24.9930938896474</v>
+        <v>25.0958277683644</v>
       </c>
       <c r="D51" s="246">
-        <v>55.2048122206278</v>
+        <v>55.5901748151269</v>
       </c>
       <c r="E51" s="246">
-        <v>134.07818606779298</v>
+        <v>134.468345013708</v>
       </c>
       <c r="F51" s="246">
-        <v>110.12436903424499</v>
+        <v>110.401059968312</v>
       </c>
       <c r="G51" s="246">
-        <v>186.66643043189802</v>
+        <v>187.02380198817198</v>
       </c>
       <c r="H51" s="246">
-        <v>289.39886685947005</v>
+        <v>289.608626693992</v>
       </c>
       <c r="I51" s="246">
-        <v>399.65581666235</v>
+        <v>398.06821734806095</v>
       </c>
       <c r="J51" s="246">
-        <v>15.281996110088585</v>
+        <v>15.147530130779614</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -21306,31 +21306,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>21.596428723880198</v>
+        <v>21.5964162734842</v>
       </c>
       <c r="C52" s="248">
-        <v>24.9930938896474</v>
+        <v>25.0958277683644</v>
       </c>
       <c r="D52" s="248">
-        <v>55.2048122206278</v>
+        <v>55.5901748151269</v>
       </c>
       <c r="E52" s="248">
-        <v>134.07818606779298</v>
+        <v>134.468345013708</v>
       </c>
       <c r="F52" s="248">
-        <v>110.12436903424499</v>
+        <v>110.401059968312</v>
       </c>
       <c r="G52" s="248">
-        <v>186.66643043189802</v>
+        <v>187.02380198817198</v>
       </c>
       <c r="H52" s="248">
-        <v>289.39886685947005</v>
+        <v>289.608626693992</v>
       </c>
       <c r="I52" s="248">
-        <v>399.65581666235</v>
+        <v>398.06821734806095</v>
       </c>
       <c r="J52" s="248">
-        <v>15.281996110088585</v>
+        <v>15.147530130779614</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -21411,31 +21411,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>143.66465900106621</v>
+        <v>143.6646465506702</v>
       </c>
       <c r="C55" s="248">
-        <v>24.9930938896474</v>
+        <v>25.0958277683644</v>
       </c>
       <c r="D55" s="248">
-        <v>55.2048122206278</v>
+        <v>55.5901748151269</v>
       </c>
       <c r="E55" s="248">
-        <v>134.07818606779298</v>
+        <v>134.468345013708</v>
       </c>
       <c r="F55" s="248">
-        <v>110.12436903424499</v>
+        <v>110.401059968312</v>
       </c>
       <c r="G55" s="248">
-        <v>293.598200154712</v>
+        <v>293.95557171098596</v>
       </c>
       <c r="H55" s="248">
-        <v>289.39886685947005</v>
+        <v>289.608626693992</v>
       </c>
       <c r="I55" s="248">
-        <v>399.65581666235</v>
+        <v>398.06821734806095</v>
       </c>
       <c r="J55" s="248">
-        <v>15.281996110088585</v>
+        <v>15.147530130779614</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -21446,31 +21446,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2143.6646590010623</v>
+        <v>2143.664646550666</v>
       </c>
       <c r="C56" s="248">
-        <v>24.9930938896474</v>
+        <v>25.0958277683644</v>
       </c>
       <c r="D56" s="248">
-        <v>55.2048122206278</v>
+        <v>55.5901748151269</v>
       </c>
       <c r="E56" s="248">
-        <v>134.07818606779298</v>
+        <v>134.468345013708</v>
       </c>
       <c r="F56" s="248">
-        <v>110.12436903424499</v>
+        <v>110.401059968312</v>
       </c>
       <c r="G56" s="248">
-        <v>2045.5982001547131</v>
+        <v>2045.955571710987</v>
       </c>
       <c r="H56" s="248">
-        <v>289.39886685947005</v>
+        <v>289.608626693992</v>
       </c>
       <c r="I56" s="248">
-        <v>399.65581666235</v>
+        <v>398.06821734806095</v>
       </c>
       <c r="J56" s="248">
-        <v>15.281996110091313</v>
+        <v>15.147530130782798</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -21586,19 +21586,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -21621,31 +21621,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>417.90963161760203</v>
+        <v>418.480378005624</v>
       </c>
       <c r="F61" s="246">
-        <v>293.57722468380604</v>
+        <v>293.657225639597</v>
       </c>
       <c r="G61" s="246">
-        <v>346.18911051437004</v>
+        <v>345.78643941611097</v>
       </c>
       <c r="H61" s="246">
-        <v>251.80597826778902</v>
+        <v>250.447008220621</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.411111303798862</v>
+        <v>30.296196158621797</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -21656,31 +21656,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>1877.53627420857</v>
+        <v>1877.5524957278</v>
       </c>
       <c r="C62" s="246">
-        <v>3337.19123913357</v>
+        <v>3345.89346669932</v>
       </c>
       <c r="D62" s="246">
-        <v>7206.70649498554</v>
+        <v>7234.56538364927</v>
       </c>
       <c r="E62" s="246">
-        <v>12078.7174063493</v>
+        <v>12093.6905738193</v>
       </c>
       <c r="F62" s="246">
-        <v>7155.9747062359793</v>
+        <v>7162.2942147920894</v>
       </c>
       <c r="G62" s="246">
-        <v>10241.9762202054</v>
+        <v>10241.4759821893</v>
       </c>
       <c r="H62" s="246">
-        <v>11461.056810925</v>
+        <v>11432.7573494137</v>
       </c>
       <c r="I62" s="246">
-        <v>3886.3278224853702</v>
+        <v>3861.53942003198</v>
       </c>
       <c r="J62" s="246">
-        <v>555.51302547127125</v>
+        <v>551.2311136772405</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -21691,31 +21691,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>151.30095997708</v>
+        <v>151.507594306317</v>
       </c>
       <c r="F63" s="246">
-        <v>106.28737066943401</v>
+        <v>106.316334398658</v>
       </c>
       <c r="G63" s="246">
-        <v>125.335098288339</v>
+        <v>125.189314321872</v>
       </c>
       <c r="H63" s="246">
-        <v>91.164412967503</v>
+        <v>90.6724083398022</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>11.010108373008052</v>
+        <v>10.968504230712028</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -21726,31 +21726,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>1939.2008507752205</v>
+        <v>1939.2170111395526</v>
       </c>
       <c r="C64" s="248">
-        <v>3393.5923908522655</v>
+        <v>3402.4017759374879</v>
       </c>
       <c r="D64" s="248">
-        <v>7305.54281642483</v>
+        <v>7333.7384034019888</v>
       </c>
       <c r="E64" s="248">
-        <v>12230.018366326378</v>
+        <v>12245.198168125617</v>
       </c>
       <c r="F64" s="248">
-        <v>7262.2620769054138</v>
+        <v>7268.6105491907474</v>
       </c>
       <c r="G64" s="248">
-        <v>10367.311318493739</v>
+        <v>10366.665296511172</v>
       </c>
       <c r="H64" s="248">
-        <v>11552.221223892502</v>
+        <v>11523.429757753502</v>
       </c>
       <c r="I64" s="248">
-        <v>3886.3278224853702</v>
+        <v>3861.53942003198</v>
       </c>
       <c r="J64" s="248">
-        <v>566.52313384428271</v>
+        <v>562.1996179079506</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -21761,31 +21761,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>2109.5250871893736</v>
+        <v>2109.5410786372568</v>
       </c>
       <c r="C65" s="248">
-        <v>3549.3784780068968</v>
+        <v>3558.4838437619997</v>
       </c>
       <c r="D65" s="248">
-        <v>7578.539436468679</v>
+        <v>7607.6650206391978</v>
       </c>
       <c r="E65" s="248">
-        <v>12647.92799794398</v>
+        <v>12663.678546131241</v>
       </c>
       <c r="F65" s="248">
-        <v>7555.83930158922</v>
+        <v>7562.267774830344</v>
       </c>
       <c r="G65" s="248">
-        <v>10713.500429008109</v>
+        <v>10712.451735927281</v>
       </c>
       <c r="H65" s="248">
-        <v>11804.027202160291</v>
+        <v>11773.876765974123</v>
       </c>
       <c r="I65" s="248">
-        <v>3886.3278224853702</v>
+        <v>3861.53942003198</v>
       </c>
       <c r="J65" s="248">
-        <v>596.934245148077</v>
+        <v>592.49581406657671</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -21796,19 +21796,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -21820,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -21831,19 +21831,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -21855,7 +21855,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -21866,19 +21866,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -21890,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -21901,31 +21901,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>3322.6481934683993</v>
+        <v>3322.6635138765205</v>
       </c>
       <c r="C69" s="248">
-        <v>4768.0847992134095</v>
+        <v>4778.91370204586</v>
       </c>
       <c r="D69" s="248">
-        <v>10036.382852235218</v>
+        <v>10070.752151088616</v>
       </c>
       <c r="E69" s="248">
-        <v>17664.98707520089</v>
+        <v>17680.934830779592</v>
       </c>
       <c r="F69" s="248">
-        <v>16963.29173466549</v>
+        <v>16962.589502658586</v>
       </c>
       <c r="G69" s="248">
-        <v>10713.500429008109</v>
+        <v>10712.451735927281</v>
       </c>
       <c r="H69" s="248">
-        <v>11804.027202160291</v>
+        <v>11773.876765974123</v>
       </c>
       <c r="I69" s="248">
-        <v>3886.3278224853702</v>
+        <v>3861.53942003198</v>
       </c>
       <c r="J69" s="248">
-        <v>718.74989156283846</v>
+        <v>714.2783776174474</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -21936,19 +21936,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -21960,7 +21960,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -22006,22 +22006,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -22030,7 +22030,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -22041,22 +22041,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -22065,7 +22065,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -22076,22 +22076,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -22100,7 +22100,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -22181,31 +22181,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>4299.0256162020651</v>
+        <v>4299.0399579554241</v>
       </c>
       <c r="C77" s="248">
-        <v>5725.5329782165009</v>
+        <v>5738.0573248903165</v>
       </c>
       <c r="D77" s="248">
-        <v>11818.576605925604</v>
+        <v>11858.049957342821</v>
       </c>
       <c r="E77" s="248">
-        <v>22680.791452610232</v>
+        <v>22697.745143184307</v>
       </c>
       <c r="F77" s="248">
-        <v>19585.378258716508</v>
+        <v>19581.34669529456</v>
       </c>
       <c r="G77" s="248">
-        <v>19324.501706767736</v>
+        <v>19319.165820076</v>
       </c>
       <c r="H77" s="248">
-        <v>11804.027202160291</v>
+        <v>11773.876765974123</v>
       </c>
       <c r="I77" s="248">
-        <v>3886.3278224853702</v>
+        <v>3861.53942003198</v>
       </c>
       <c r="J77" s="248">
-        <v>1000.8383569157159</v>
+        <v>996.17891525047889</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -22391,31 +22391,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>26226.690275203127</v>
+        <v>26226.704604506089</v>
       </c>
       <c r="C83" s="248">
-        <v>5750.5260721061477</v>
+        <v>5763.1531526586805</v>
       </c>
       <c r="D83" s="248">
-        <v>11873.781418146233</v>
+        <v>11913.640132157949</v>
       </c>
       <c r="E83" s="248">
-        <v>22814.869638678025</v>
+        <v>22832.213488198016</v>
       </c>
       <c r="F83" s="248">
-        <v>19695.502627750753</v>
+        <v>19691.74775526287</v>
       </c>
       <c r="G83" s="248">
-        <v>21370.099906922453</v>
+        <v>21365.121391786986</v>
       </c>
       <c r="H83" s="248">
-        <v>12093.426069019761</v>
+        <v>12063.485392668115</v>
       </c>
       <c r="I83" s="248">
-        <v>4285.98363914772</v>
+        <v>4259.6076373800415</v>
       </c>
       <c r="J83" s="248">
-        <v>2793.1203530258208</v>
+        <v>2788.3264453812881</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -22771,31 +22771,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>12973.1913277381</v>
+        <v>12973.205657041064</v>
       </c>
       <c r="C97" s="248">
-        <v>-8415.99910321873</v>
+        <v>-8403.372022666199</v>
       </c>
       <c r="D97" s="248">
-        <v>-11748.251432637962</v>
+        <v>-11708.392718626246</v>
       </c>
       <c r="E97" s="248">
-        <v>2021.9261683489756</v>
+        <v>2039.2700178689659</v>
       </c>
       <c r="F97" s="248">
-        <v>7011.4205844264552</v>
+        <v>7007.6657119385709</v>
       </c>
       <c r="G97" s="248">
-        <v>8221.391729760433</v>
+        <v>8216.4132146249649</v>
       </c>
       <c r="H97" s="248">
-        <v>334.30930112321118</v>
+        <v>304.36862477156518</v>
       </c>
       <c r="I97" s="248">
-        <v>-18.857708976701833</v>
+        <v>-45.23371074438095</v>
       </c>
       <c r="J97" s="248">
-        <v>3266.8691334362484</v>
+        <v>3262.0752257917247</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -22985,31 +22985,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>25452.614626511651</v>
+        <v>25452.61866419674</v>
       </c>
       <c r="C9" s="231">
-        <v>4331.8417139066478</v>
+        <v>4344.8663740986085</v>
       </c>
       <c r="D9" s="231">
-        <v>9260.28529114908</v>
+        <v>9304.17146651434</v>
       </c>
       <c r="E9" s="231">
-        <v>19786.086461161267</v>
+        <v>19812.761267527123</v>
       </c>
       <c r="F9" s="231">
-        <v>18979.891374475308</v>
+        <v>18985.742106652218</v>
       </c>
       <c r="G9" s="231">
-        <v>21699.833270080329</v>
+        <v>21704.851635738894</v>
       </c>
       <c r="H9" s="231">
-        <v>15396.34334493417</v>
+        <v>15368.024165410005</v>
       </c>
       <c r="I9" s="231">
-        <v>9013.2752247045046</v>
+        <v>8955.5025478246134</v>
       </c>
       <c r="J9" s="231">
-        <v>2983.8286930770846</v>
+        <v>2975.4617720374808</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -23035,28 +23035,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>25452.614626511651</v>
+        <v>25452.61866419674</v>
       </c>
       <c r="C11" s="231">
-        <v>29784.4563404183</v>
+        <v>29797.485038295348</v>
       </c>
       <c r="D11" s="231">
-        <v>39044.741631567376</v>
+        <v>39101.656504809689</v>
       </c>
       <c r="E11" s="231">
-        <v>58830.82809272864</v>
+        <v>58914.417772336812</v>
       </c>
       <c r="F11" s="231">
-        <v>77810.719467203948</v>
+        <v>77900.159878989027</v>
       </c>
       <c r="G11" s="231">
-        <v>99510.552737284277</v>
+        <v>99605.011514727928</v>
       </c>
       <c r="H11" s="231">
-        <v>114906.89608221845</v>
+        <v>114973.03568013794</v>
       </c>
       <c r="I11" s="231">
-        <v>123920.17130692294</v>
+        <v>123928.53822796255</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -23173,31 +23173,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>12177.096023937125</v>
+        <v>12177.100061622214</v>
       </c>
       <c r="C15" s="231">
-        <v>-9863.719027366722</v>
+        <v>-9850.6943671747613</v>
       </c>
       <c r="D15" s="231">
-        <v>-14380.105723881512</v>
+        <v>-14336.219548516252</v>
       </c>
       <c r="E15" s="231">
-        <v>-1035.1242320478232</v>
+        <v>-1008.4494256819671</v>
       </c>
       <c r="F15" s="231">
-        <v>6293.817340397607</v>
+        <v>6299.6680725745173</v>
       </c>
       <c r="G15" s="231">
-        <v>8547.08572007571</v>
+        <v>8552.1040857342741</v>
       </c>
       <c r="H15" s="231">
-        <v>3616.7297254103214</v>
+        <v>3588.4105458861559</v>
       </c>
       <c r="I15" s="231">
-        <v>4694.2703675298353</v>
+        <v>4636.4976906499442</v>
       </c>
       <c r="J15" s="231">
-        <v>-10050.050194054522</v>
+        <v>-10058.417115094126</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -23206,31 +23206,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.095955178906394781</v>
+        <v>0.095955210723241272</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.0777258323407199</v>
+        <v>-0.0776231983796788</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.11331483423596979</v>
+        <v>-0.11296901239138442</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.0081567502367760111</v>
+        <v>-0.00794655350250557</v>
       </c>
       <c r="F16" s="237">
-        <v>0.049595106067559777</v>
+        <v>0.049641209674829129</v>
       </c>
       <c r="G16" s="236">
-        <v>0.067350798399386208</v>
+        <v>0.067390342981578769</v>
       </c>
       <c r="H16" s="236">
-        <v>0.028499729917184018</v>
+        <v>0.0282765755680369</v>
       </c>
       <c r="I16" s="236">
-        <v>0.036990720288799676</v>
+        <v>0.0365354731974559</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.0791941167658586</v>
+        <v>-0.079260047871573189</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -23239,28 +23239,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>12177.096023937125</v>
+        <v>12177.100061622214</v>
       </c>
       <c r="C17" s="231">
-        <v>2313.376996570405</v>
+        <v>2326.4056944474542</v>
       </c>
       <c r="D17" s="231">
-        <v>-12066.728727311114</v>
+        <v>-12009.813854068801</v>
       </c>
       <c r="E17" s="231">
-        <v>-13101.852959358934</v>
+        <v>-13018.263279750761</v>
       </c>
       <c r="F17" s="231">
-        <v>-6808.0356189613231</v>
+        <v>-6718.595207176244</v>
       </c>
       <c r="G17" s="231">
-        <v>1739.0501011143788</v>
+        <v>1833.5088785580301</v>
       </c>
       <c r="H17" s="231">
-        <v>5355.7798265246965</v>
+        <v>5421.91942444419</v>
       </c>
       <c r="I17" s="231">
-        <v>10050.050194054522</v>
+        <v>10058.417115094126</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -23272,28 +23272,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.095955178906394781</v>
+        <v>0.095955210723241272</v>
       </c>
       <c r="C18" s="236">
-        <v>0.018229346565674875</v>
+        <v>0.018332012343562486</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.10324223790707095</v>
+        <v>-0.10258355355032749</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.053647131839511142</v>
+        <v>-0.05294234387549835</v>
       </c>
       <c r="G18" s="236">
-        <v>0.013703666559875012</v>
+        <v>0.01444799910608042</v>
       </c>
       <c r="H18" s="236">
-        <v>0.042203396477058994</v>
+        <v>0.042724574674117353</v>
       </c>
       <c r="I18" s="236">
-        <v>0.0791941167658586</v>
+        <v>0.079260047871573189</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -23305,31 +23305,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.9172595352753765</v>
+        <v>1.9172598394205636</v>
       </c>
       <c r="C19" s="236">
-        <v>0.3051546742575576</v>
+        <v>0.30607219068606267</v>
       </c>
       <c r="D19" s="236">
-        <v>0.39171455688957851</v>
+        <v>0.3935709633820666</v>
       </c>
       <c r="E19" s="236">
-        <v>0.950285108426215</v>
+        <v>0.95156624460791439</v>
       </c>
       <c r="F19" s="237">
-        <v>1.4961201805610602</v>
+        <v>1.4965813738475879</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6498327203180225</v>
+        <v>1.6502142653632297</v>
       </c>
       <c r="H19" s="236">
-        <v>1.3070329674834034</v>
+        <v>1.3046288835771853</v>
       </c>
       <c r="I19" s="236">
-        <v>2.0868870313335677</v>
+        <v>2.073510645154256</v>
       </c>
       <c r="J19" s="236">
-        <v>0.22892868031964211</v>
+        <v>0.22828674393891787</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -23338,28 +23338,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.9172595352753765</v>
+        <v>1.9172598394205636</v>
       </c>
       <c r="C20" s="236">
-        <v>1.0842113616146822</v>
+        <v>1.0846856312170512</v>
       </c>
       <c r="D20" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="E20" s="236">
-        <v>0.81785952132283679</v>
+        <v>0.8190215755989404</v>
       </c>
       <c r="F20" s="237">
-        <v>0.91954460199717114</v>
+        <v>0.9206015829429911</v>
       </c>
       <c r="G20" s="236">
-        <v>1.0177868811895607</v>
+        <v>1.0187529988710609</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0488884094437179</v>
+        <v>1.0494921422050083</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0882588873695225</v>
+        <v>1.0883323651260912</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -23402,28 +23402,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -23433,28 +23433,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -23825,31 +23825,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>20.4877519957954</v>
+        <v>20.4877365426246</v>
       </c>
       <c r="C51" s="246">
-        <v>23.436919506776203</v>
+        <v>23.5399038233813</v>
       </c>
       <c r="D51" s="246">
-        <v>51.6501084470271</v>
+        <v>52.038251640814295</v>
       </c>
       <c r="E51" s="246">
-        <v>129.874616183492</v>
+        <v>130.286866962896</v>
       </c>
       <c r="F51" s="246">
-        <v>107.105862335571</v>
+        <v>107.39297785020901</v>
       </c>
       <c r="G51" s="246">
-        <v>181.03671023401302</v>
+        <v>181.405016639407</v>
       </c>
       <c r="H51" s="246">
-        <v>283.274931446217</v>
+        <v>283.564262154047</v>
       </c>
       <c r="I51" s="246">
-        <v>424.596243789464</v>
+        <v>422.887552380783</v>
       </c>
       <c r="J51" s="246">
-        <v>15.536856061644357</v>
+        <v>15.3974320058378</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -23860,31 +23860,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>20.4877519957954</v>
+        <v>20.4877365426246</v>
       </c>
       <c r="C52" s="248">
-        <v>23.436919506776203</v>
+        <v>23.5399038233813</v>
       </c>
       <c r="D52" s="248">
-        <v>51.6501084470271</v>
+        <v>52.038251640814295</v>
       </c>
       <c r="E52" s="248">
-        <v>129.874616183492</v>
+        <v>130.286866962896</v>
       </c>
       <c r="F52" s="248">
-        <v>107.105862335571</v>
+        <v>107.39297785020901</v>
       </c>
       <c r="G52" s="248">
-        <v>181.03671023401302</v>
+        <v>181.405016639407</v>
       </c>
       <c r="H52" s="248">
-        <v>283.274931446217</v>
+        <v>283.564262154047</v>
       </c>
       <c r="I52" s="248">
-        <v>424.596243789464</v>
+        <v>422.887552380783</v>
       </c>
       <c r="J52" s="248">
-        <v>15.536856061644357</v>
+        <v>15.3974320058378</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -23965,31 +23965,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>142.5559822729814</v>
+        <v>142.55596681981061</v>
       </c>
       <c r="C55" s="248">
-        <v>23.436919506776203</v>
+        <v>23.5399038233813</v>
       </c>
       <c r="D55" s="248">
-        <v>51.6501084470271</v>
+        <v>52.038251640814295</v>
       </c>
       <c r="E55" s="248">
-        <v>129.874616183492</v>
+        <v>130.286866962896</v>
       </c>
       <c r="F55" s="248">
-        <v>107.105862335571</v>
+        <v>107.39297785020901</v>
       </c>
       <c r="G55" s="248">
-        <v>287.968479956827</v>
+        <v>288.336786362221</v>
       </c>
       <c r="H55" s="248">
-        <v>283.274931446217</v>
+        <v>283.564262154047</v>
       </c>
       <c r="I55" s="248">
-        <v>424.596243789464</v>
+        <v>422.887552380783</v>
       </c>
       <c r="J55" s="248">
-        <v>15.536856061644357</v>
+        <v>15.397432005837572</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -24000,31 +24000,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2142.5559822729774</v>
+        <v>2142.5559668198066</v>
       </c>
       <c r="C56" s="248">
-        <v>23.436919506776203</v>
+        <v>23.5399038233813</v>
       </c>
       <c r="D56" s="248">
-        <v>51.6501084470271</v>
+        <v>52.038251640814295</v>
       </c>
       <c r="E56" s="248">
-        <v>129.874616183492</v>
+        <v>130.286866962896</v>
       </c>
       <c r="F56" s="248">
-        <v>107.105862335571</v>
+        <v>107.39297785020901</v>
       </c>
       <c r="G56" s="248">
-        <v>2039.9684799568281</v>
+        <v>2040.3367863622223</v>
       </c>
       <c r="H56" s="248">
-        <v>283.274931446217</v>
+        <v>283.564262154047</v>
       </c>
       <c r="I56" s="248">
-        <v>424.596243789464</v>
+        <v>422.887552380783</v>
       </c>
       <c r="J56" s="248">
-        <v>15.536856061647086</v>
+        <v>15.397432005840528</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -24140,19 +24140,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -24164,7 +24164,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -24175,31 +24175,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>414.323237222317</v>
+        <v>415.025848960073</v>
       </c>
       <c r="F61" s="246">
-        <v>292.263841377285</v>
+        <v>292.395099962784</v>
       </c>
       <c r="G61" s="246">
-        <v>346.80067955387904</v>
+        <v>346.3891057808</v>
       </c>
       <c r="H61" s="246">
-        <v>255.99946266020902</v>
+        <v>254.470282941391</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.505835573675995</v>
+        <v>30.386909795527117</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -24210,31 +24210,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>1104.5693022451799</v>
+        <v>1104.57523514931</v>
       </c>
       <c r="C62" s="246">
-        <v>1920.0630553169399</v>
+        <v>1929.16261208423</v>
       </c>
       <c r="D62" s="246">
-        <v>4596.76507176199</v>
+        <v>4628.64864117998</v>
       </c>
       <c r="E62" s="246">
-        <v>9059.02261955126</v>
+        <v>9083.12504585074</v>
       </c>
       <c r="F62" s="246">
-        <v>6445.17084326546</v>
+        <v>6461.01571684645</v>
       </c>
       <c r="G62" s="246">
-        <v>10576.5063206662</v>
+        <v>10586.0041544146</v>
       </c>
       <c r="H62" s="246">
-        <v>14764.3863191684</v>
+        <v>14737.8606163822</v>
       </c>
       <c r="I62" s="246">
-        <v>8588.67898091504</v>
+        <v>8532.61499544383</v>
       </c>
       <c r="J62" s="246">
-        <v>745.83748710952932</v>
+        <v>737.99298264866229</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -24245,31 +24245,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>150.002533537941</v>
+        <v>150.25690870034597</v>
       </c>
       <c r="F63" s="246">
-        <v>105.811870369703</v>
+        <v>105.859391528558</v>
       </c>
       <c r="G63" s="246">
-        <v>125.556512143797</v>
+        <v>125.40750503255401</v>
       </c>
       <c r="H63" s="246">
-        <v>92.6826316593434</v>
+        <v>92.1290039323654</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>11.044402564579627</v>
+        <v>11.001346403537809</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -24280,31 +24280,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>1166.2338788118304</v>
+        <v>1166.2397505610625</v>
       </c>
       <c r="C64" s="248">
-        <v>1976.4642070356356</v>
+        <v>1985.6709213223976</v>
       </c>
       <c r="D64" s="248">
-        <v>4695.6013932012793</v>
+        <v>4727.8216609326983</v>
       </c>
       <c r="E64" s="248">
-        <v>9209.0251530892019</v>
+        <v>9233.3819545510851</v>
       </c>
       <c r="F64" s="248">
-        <v>6550.9827136351623</v>
+        <v>6566.8751083750085</v>
       </c>
       <c r="G64" s="248">
-        <v>10702.062832809996</v>
+        <v>10711.411659447154</v>
       </c>
       <c r="H64" s="248">
-        <v>14857.068950827745</v>
+        <v>14829.989620314567</v>
       </c>
       <c r="I64" s="248">
-        <v>8588.67898091504</v>
+        <v>8532.61499544383</v>
       </c>
       <c r="J64" s="248">
-        <v>756.88188967411406</v>
+        <v>748.99432905219146</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -24315,31 +24315,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1336.5581152259833</v>
+        <v>1336.5638180587664</v>
       </c>
       <c r="C65" s="248">
-        <v>2132.2502941902667</v>
+        <v>2141.75298914691</v>
       </c>
       <c r="D65" s="248">
-        <v>4968.5980132451286</v>
+        <v>5001.7482781699073</v>
       </c>
       <c r="E65" s="248">
-        <v>9623.34839031152</v>
+        <v>9648.40780351116</v>
       </c>
       <c r="F65" s="248">
-        <v>6843.246555012448</v>
+        <v>6859.2702083377926</v>
       </c>
       <c r="G65" s="248">
-        <v>11048.863512363876</v>
+        <v>11057.800765227956</v>
       </c>
       <c r="H65" s="248">
-        <v>15113.068413487952</v>
+        <v>15084.459903255958</v>
       </c>
       <c r="I65" s="248">
-        <v>8588.67898091504</v>
+        <v>8532.61499544383</v>
       </c>
       <c r="J65" s="248">
-        <v>787.38772524779779</v>
+        <v>779.38123884772358</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -24350,19 +24350,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -24374,7 +24374,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -24385,19 +24385,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -24420,19 +24420,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -24444,7 +24444,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -24455,31 +24455,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>2549.6812215050095</v>
+        <v>2549.68625329803</v>
       </c>
       <c r="C69" s="248">
-        <v>3350.95661539678</v>
+        <v>3362.1828474307704</v>
       </c>
       <c r="D69" s="248">
-        <v>7426.4414290116692</v>
+        <v>7464.8354086193249</v>
       </c>
       <c r="E69" s="248">
-        <v>14640.40746756843</v>
+        <v>14665.664088159512</v>
       </c>
       <c r="F69" s="248">
-        <v>16250.69898808872</v>
+        <v>16259.591936166036</v>
       </c>
       <c r="G69" s="248">
-        <v>11048.863512363876</v>
+        <v>11057.800765227956</v>
       </c>
       <c r="H69" s="248">
-        <v>15113.068413487952</v>
+        <v>15084.459903255958</v>
       </c>
       <c r="I69" s="248">
-        <v>8588.67898091504</v>
+        <v>8532.61499544383</v>
       </c>
       <c r="J69" s="248">
-        <v>909.20337166254467</v>
+        <v>901.16380239860155</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -24490,19 +24490,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -24560,22 +24560,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -24595,22 +24595,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -24630,22 +24630,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -24735,31 +24735,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>3526.0586442386743</v>
+        <v>3526.0626973769326</v>
       </c>
       <c r="C77" s="248">
-        <v>4308.4047943998712</v>
+        <v>4321.3264702752267</v>
       </c>
       <c r="D77" s="248">
-        <v>9208.6351827020553</v>
+        <v>9252.1332148735273</v>
       </c>
       <c r="E77" s="248">
-        <v>19656.211844977774</v>
+        <v>19682.474400564228</v>
       </c>
       <c r="F77" s="248">
-        <v>18872.785512139737</v>
+        <v>18878.349128802009</v>
       </c>
       <c r="G77" s="248">
-        <v>19659.8647901235</v>
+        <v>19664.514849376672</v>
       </c>
       <c r="H77" s="248">
-        <v>15113.068413487952</v>
+        <v>15084.459903255958</v>
       </c>
       <c r="I77" s="248">
-        <v>8588.67898091504</v>
+        <v>8532.61499544383</v>
       </c>
       <c r="J77" s="248">
-        <v>1191.2918370154221</v>
+        <v>1183.0643400316476</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -24945,31 +24945,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>25452.614626511651</v>
+        <v>25452.61866419674</v>
       </c>
       <c r="C83" s="248">
-        <v>4331.8417139066478</v>
+        <v>4344.8663740986085</v>
       </c>
       <c r="D83" s="248">
-        <v>9260.28529114908</v>
+        <v>9304.17146651434</v>
       </c>
       <c r="E83" s="248">
-        <v>19786.086461161267</v>
+        <v>19812.761267527123</v>
       </c>
       <c r="F83" s="248">
-        <v>18979.891374475308</v>
+        <v>18985.742106652218</v>
       </c>
       <c r="G83" s="248">
-        <v>21699.833270080329</v>
+        <v>21704.851635738894</v>
       </c>
       <c r="H83" s="248">
-        <v>15396.34334493417</v>
+        <v>15368.024165410005</v>
       </c>
       <c r="I83" s="248">
-        <v>9013.2752247045046</v>
+        <v>8955.5025478246134</v>
       </c>
       <c r="J83" s="248">
-        <v>2983.8286930770846</v>
+        <v>2975.4617720374808</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -25325,31 +25325,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>12177.096023937127</v>
+        <v>12177.100061622215</v>
       </c>
       <c r="C97" s="248">
-        <v>-9863.719027366722</v>
+        <v>-9850.6943671747613</v>
       </c>
       <c r="D97" s="248">
-        <v>-14380.10572388151</v>
+        <v>-14336.219548516252</v>
       </c>
       <c r="E97" s="248">
-        <v>-1035.1242320478223</v>
+        <v>-1008.4494256819673</v>
       </c>
       <c r="F97" s="248">
-        <v>6293.817340397608</v>
+        <v>6299.6680725745182</v>
       </c>
       <c r="G97" s="248">
-        <v>8547.0857200757073</v>
+        <v>8552.1040857342741</v>
       </c>
       <c r="H97" s="248">
-        <v>3616.72972541032</v>
+        <v>3588.4105458861554</v>
       </c>
       <c r="I97" s="248">
-        <v>4694.2703675298344</v>
+        <v>4636.4976906499442</v>
       </c>
       <c r="J97" s="248">
-        <v>3595.9498059454854</v>
+        <v>3587.5828849059035</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -25539,31 +25539,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>25072.18419970166</v>
+        <v>25072.183781156797</v>
       </c>
       <c r="C9" s="231">
-        <v>3638.79628885829</v>
+        <v>3652.0168422778147</v>
       </c>
       <c r="D9" s="231">
-        <v>7692.8810865016912</v>
+        <v>7739.084473069579</v>
       </c>
       <c r="E9" s="231">
-        <v>17167.542075794452</v>
+        <v>17201.555130502969</v>
       </c>
       <c r="F9" s="231">
-        <v>17597.599457580658</v>
+        <v>17611.448900361771</v>
       </c>
       <c r="G9" s="231">
-        <v>20588.559434478881</v>
+        <v>20612.889857078964</v>
       </c>
       <c r="H9" s="231">
-        <v>16959.888808798387</v>
+        <v>16942.825216893041</v>
       </c>
       <c r="I9" s="231">
-        <v>15032.940472577804</v>
+        <v>14930.761650114608</v>
       </c>
       <c r="J9" s="231">
-        <v>3153.6081757081993</v>
+        <v>3141.2341485444922</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -25589,28 +25589,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>25072.18419970166</v>
+        <v>25072.183781156797</v>
       </c>
       <c r="C11" s="231">
-        <v>28710.980488559951</v>
+        <v>28724.200623434612</v>
       </c>
       <c r="D11" s="231">
-        <v>36403.861575061645</v>
+        <v>36463.285096504187</v>
       </c>
       <c r="E11" s="231">
-        <v>53571.4036508561</v>
+        <v>53664.840227007153</v>
       </c>
       <c r="F11" s="231">
-        <v>71169.003108436751</v>
+        <v>71276.289127368917</v>
       </c>
       <c r="G11" s="231">
-        <v>91757.562542915635</v>
+        <v>91889.178984447877</v>
       </c>
       <c r="H11" s="231">
-        <v>108717.45135171403</v>
+        <v>108832.00420134093</v>
       </c>
       <c r="I11" s="231">
-        <v>123750.39182429183</v>
+        <v>123762.76585145554</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -25727,31 +25727,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>11771.883174222354</v>
+        <v>11771.88275567749</v>
       </c>
       <c r="C15" s="231">
-        <v>-10561.49499532536</v>
+        <v>-10548.274441905835</v>
       </c>
       <c r="D15" s="231">
-        <v>-15948.610513490205</v>
+        <v>-15902.407126922317</v>
       </c>
       <c r="E15" s="231">
-        <v>-3683.0155948905558</v>
+        <v>-3649.0025401820385</v>
       </c>
       <c r="F15" s="231">
-        <v>4897.3299973146586</v>
+        <v>4911.1794400957715</v>
       </c>
       <c r="G15" s="231">
-        <v>7418.21815423577</v>
+        <v>7442.548576835854</v>
       </c>
       <c r="H15" s="231">
-        <v>5146.3729331936374</v>
+        <v>5129.3093412882918</v>
       </c>
       <c r="I15" s="231">
-        <v>10695.641945044861</v>
+        <v>10593.463122581665</v>
       </c>
       <c r="J15" s="231">
-        <v>-9736.32510030517</v>
+        <v>-9748.6991274688771</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -25760,31 +25760,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.092762112890234755</v>
+        <v>0.09276210959211284</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.083224287613671427</v>
+        <v>-0.0831201100194307</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.12567460847168097</v>
+        <v>-0.12531052706709256</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.0290220607300838</v>
+        <v>-0.028754038802417874</v>
       </c>
       <c r="F16" s="237">
-        <v>0.03859082453913712</v>
+        <v>0.038699957764103343</v>
       </c>
       <c r="G16" s="236">
-        <v>0.058455353292534262</v>
+        <v>0.058647076347757766</v>
       </c>
       <c r="H16" s="236">
-        <v>0.040553275966034447</v>
+        <v>0.040418815335121747</v>
       </c>
       <c r="I16" s="236">
-        <v>0.084281361856559739</v>
+        <v>0.0834761955697351</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.076721971729064239</v>
+        <v>-0.076819478719889644</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -25793,28 +25793,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>11771.883174222354</v>
+        <v>11771.88275567749</v>
       </c>
       <c r="C17" s="231">
-        <v>1210.3881788969957</v>
+        <v>1223.608313771656</v>
       </c>
       <c r="D17" s="231">
-        <v>-14738.222334593207</v>
+        <v>-14678.798813150665</v>
       </c>
       <c r="E17" s="231">
-        <v>-18421.237929483759</v>
+        <v>-18327.801353332703</v>
       </c>
       <c r="F17" s="231">
-        <v>-13523.90793216911</v>
+        <v>-13416.621913236944</v>
       </c>
       <c r="G17" s="231">
-        <v>-6105.6897779333376</v>
+        <v>-5974.0733364010957</v>
       </c>
       <c r="H17" s="231">
-        <v>-959.31684473968926</v>
+        <v>-844.763995112793</v>
       </c>
       <c r="I17" s="231">
-        <v>9736.32510030517</v>
+        <v>9748.6991274688771</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -25826,28 +25826,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.092762112890234755</v>
+        <v>0.09276210959211284</v>
       </c>
       <c r="C18" s="236">
-        <v>0.00953782527656335</v>
+        <v>0.00964199957268215</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.14515884392520137</v>
+        <v>-0.14442256629682831</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.10656801938606432</v>
+        <v>-0.10572260853272507</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.048112666093530043</v>
+        <v>-0.047075532184967336</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.0075593901274955012</v>
+        <v>-0.0066567168498454961</v>
       </c>
       <c r="I18" s="236">
-        <v>0.076721971729064239</v>
+        <v>0.076819478719889644</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -25859,31 +25859,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.8850839655186022</v>
+        <v>1.8850839340497756</v>
       </c>
       <c r="C19" s="236">
-        <v>0.256248003370973</v>
+        <v>0.25717900916197745</v>
       </c>
       <c r="D19" s="236">
-        <v>0.32539745023974409</v>
+        <v>0.3273517849048167</v>
       </c>
       <c r="E19" s="236">
-        <v>0.82336129071172437</v>
+        <v>0.82499256864902082</v>
       </c>
       <c r="F19" s="237">
-        <v>1.3856083536366233</v>
+        <v>1.3866988378050453</v>
       </c>
       <c r="G19" s="236">
-        <v>1.5632517788558655</v>
+        <v>1.5650991434823678</v>
       </c>
       <c r="H19" s="236">
-        <v>1.4356343181305615</v>
+        <v>1.4341899054692484</v>
       </c>
       <c r="I19" s="236">
-        <v>3.4659685924659067</v>
+        <v>3.4424104209878381</v>
       </c>
       <c r="J19" s="236">
-        <v>0.244656671852343</v>
+        <v>0.24369669580756906</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -25892,28 +25892,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.8850839655186022</v>
+        <v>1.8850839340497756</v>
       </c>
       <c r="C20" s="236">
-        <v>1.0440131676171824</v>
+        <v>1.0444938894404</v>
       </c>
       <c r="D20" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="E20" s="236">
-        <v>0.74412332253530844</v>
+        <v>0.7454211854015681</v>
       </c>
       <c r="F20" s="237">
-        <v>0.84031830095336912</v>
+        <v>0.84158506599443283</v>
       </c>
       <c r="G20" s="236">
-        <v>0.93760998502363724</v>
+        <v>0.93895488659200865</v>
       </c>
       <c r="H20" s="236">
-        <v>0.99125323566225665</v>
+        <v>0.9922976943157219</v>
       </c>
       <c r="I20" s="236">
-        <v>1.085395823340602</v>
+        <v>1.085504354046674</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -25956,28 +25956,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -25987,28 +25987,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -26379,31 +26379,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>19.9422832175532</v>
+        <v>19.942265968602</v>
       </c>
       <c r="C51" s="246">
-        <v>22.574854772439803</v>
+        <v>22.6779699966886</v>
       </c>
       <c r="D51" s="246">
-        <v>49.5722713745156</v>
+        <v>49.9619814837093</v>
       </c>
       <c r="E51" s="246">
-        <v>126.36143499617</v>
+        <v>126.794024542292</v>
       </c>
       <c r="F51" s="246">
-        <v>104.625010492326</v>
+        <v>104.92025923355601</v>
       </c>
       <c r="G51" s="246">
-        <v>176.571153749957</v>
+        <v>176.94367580184</v>
       </c>
       <c r="H51" s="246">
-        <v>277.474929061154</v>
+        <v>277.830903156304</v>
       </c>
       <c r="I51" s="246">
-        <v>444.157935487303</v>
+        <v>442.35187585950604</v>
       </c>
       <c r="J51" s="246">
-        <v>15.720126848581458</v>
+        <v>15.577043957502156</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -26414,31 +26414,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>19.9422832175532</v>
+        <v>19.942265968602</v>
       </c>
       <c r="C52" s="248">
-        <v>22.574854772439803</v>
+        <v>22.6779699966886</v>
       </c>
       <c r="D52" s="248">
-        <v>49.5722713745156</v>
+        <v>49.9619814837093</v>
       </c>
       <c r="E52" s="248">
-        <v>126.36143499617</v>
+        <v>126.794024542292</v>
       </c>
       <c r="F52" s="248">
-        <v>104.625010492326</v>
+        <v>104.92025923355601</v>
       </c>
       <c r="G52" s="248">
-        <v>176.571153749957</v>
+        <v>176.94367580184</v>
       </c>
       <c r="H52" s="248">
-        <v>277.474929061154</v>
+        <v>277.830903156304</v>
       </c>
       <c r="I52" s="248">
-        <v>444.157935487303</v>
+        <v>442.35187585950604</v>
       </c>
       <c r="J52" s="248">
-        <v>15.720126848581458</v>
+        <v>15.577043957502156</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -26519,31 +26519,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>142.0105134947392</v>
+        <v>142.010496245788</v>
       </c>
       <c r="C55" s="248">
-        <v>22.574854772439803</v>
+        <v>22.6779699966886</v>
       </c>
       <c r="D55" s="248">
-        <v>49.5722713745156</v>
+        <v>49.9619814837093</v>
       </c>
       <c r="E55" s="248">
-        <v>126.36143499617</v>
+        <v>126.794024542292</v>
       </c>
       <c r="F55" s="248">
-        <v>104.625010492326</v>
+        <v>104.92025923355601</v>
       </c>
       <c r="G55" s="248">
-        <v>283.502923472771</v>
+        <v>283.875445524654</v>
       </c>
       <c r="H55" s="248">
-        <v>277.474929061154</v>
+        <v>277.830903156304</v>
       </c>
       <c r="I55" s="248">
-        <v>444.157935487303</v>
+        <v>442.35187585950604</v>
       </c>
       <c r="J55" s="248">
-        <v>15.720126848581458</v>
+        <v>15.577043957502156</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -26554,31 +26554,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2142.0105134947353</v>
+        <v>2142.010496245784</v>
       </c>
       <c r="C56" s="248">
-        <v>22.574854772439803</v>
+        <v>22.6779699966886</v>
       </c>
       <c r="D56" s="248">
-        <v>49.5722713745156</v>
+        <v>49.9619814837093</v>
       </c>
       <c r="E56" s="248">
-        <v>126.36143499617</v>
+        <v>126.794024542292</v>
       </c>
       <c r="F56" s="248">
-        <v>104.625010492326</v>
+        <v>104.92025923355601</v>
       </c>
       <c r="G56" s="248">
-        <v>2035.5029234727722</v>
+        <v>2035.8754455246553</v>
       </c>
       <c r="H56" s="248">
-        <v>277.474929061154</v>
+        <v>277.830903156304</v>
       </c>
       <c r="I56" s="248">
-        <v>444.157935487303</v>
+        <v>442.35187585950604</v>
       </c>
       <c r="J56" s="248">
-        <v>15.720126848584187</v>
+        <v>15.577043957504429</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -26694,19 +26694,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -26729,31 +26729,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>410.85783514502</v>
+        <v>411.692421277617</v>
       </c>
       <c r="F61" s="246">
-        <v>290.964964295707</v>
+        <v>291.148726000783</v>
       </c>
       <c r="G61" s="246">
-        <v>347.342088908273</v>
+        <v>346.923907798853</v>
       </c>
       <c r="H61" s="246">
-        <v>260.130035750008</v>
+        <v>258.427017228849</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.598132288357647</v>
+        <v>30.47517513447292</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -26764,31 +26764,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>724.684344213431</v>
+        <v>724.68582268339</v>
       </c>
       <c r="C62" s="246">
-        <v>1227.87969500292</v>
+        <v>1237.1750140901302</v>
       </c>
       <c r="D62" s="246">
-        <v>3031.43870418711</v>
+        <v>3065.6379178923203</v>
       </c>
       <c r="E62" s="246">
-        <v>6448.71143955235</v>
+        <v>6479.95202072082</v>
       </c>
       <c r="F62" s="246">
-        <v>5067.1289037284705</v>
+        <v>5090.89284321786</v>
       </c>
       <c r="G62" s="246">
-        <v>9468.960619112</v>
+        <v>9497.77529362696</v>
       </c>
       <c r="H62" s="246">
-        <v>16328.1057701881</v>
+        <v>16313.0057874338</v>
       </c>
       <c r="I62" s="246">
-        <v>14588.782537090501</v>
+        <v>14488.4097742551</v>
       </c>
       <c r="J62" s="246">
-        <v>915.30798692510871</v>
+        <v>903.46552607961348</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -26799,31 +26799,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>148.74791143465902</v>
+        <v>149.050066909174</v>
       </c>
       <c r="F63" s="246">
-        <v>105.34162193686801</v>
+        <v>105.408151445358</v>
       </c>
       <c r="G63" s="246">
-        <v>125.75252522620299</v>
+        <v>125.601125979781</v>
       </c>
       <c r="H63" s="246">
-        <v>94.178073799126</v>
+        <v>93.561509074085592</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>11.077817878507972</v>
+        <v>11.033302188962693</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -26834,31 +26834,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>786.34892078008158</v>
+        <v>786.35033809514255</v>
       </c>
       <c r="C64" s="248">
-        <v>1284.2808467216157</v>
+        <v>1293.6833233282978</v>
       </c>
       <c r="D64" s="248">
-        <v>3130.2750256264</v>
+        <v>3164.8109376450384</v>
       </c>
       <c r="E64" s="248">
-        <v>6597.4593509870092</v>
+        <v>6629.0020876299941</v>
       </c>
       <c r="F64" s="248">
-        <v>5172.4705256653378</v>
+        <v>5196.3009946632183</v>
       </c>
       <c r="G64" s="248">
-        <v>9594.7131443382041</v>
+        <v>9623.3764196067423</v>
       </c>
       <c r="H64" s="248">
-        <v>16422.283843987225</v>
+        <v>16406.567296507885</v>
       </c>
       <c r="I64" s="248">
-        <v>14588.782537090501</v>
+        <v>14488.4097742551</v>
       </c>
       <c r="J64" s="248">
-        <v>926.38580480362</v>
+        <v>914.49882826858084</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -26869,31 +26869,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>956.67315719423459</v>
+        <v>956.67440559284648</v>
       </c>
       <c r="C65" s="248">
-        <v>1440.0669338762466</v>
+        <v>1449.7653911528098</v>
       </c>
       <c r="D65" s="248">
-        <v>3403.27164567025</v>
+        <v>3438.7375548822474</v>
       </c>
       <c r="E65" s="248">
-        <v>7008.3171861320288</v>
+        <v>7040.6945089076116</v>
       </c>
       <c r="F65" s="248">
-        <v>5463.4354899610453</v>
+        <v>5487.4497206640008</v>
       </c>
       <c r="G65" s="248">
-        <v>9942.0552332464777</v>
+        <v>9970.3003274055936</v>
       </c>
       <c r="H65" s="248">
-        <v>16682.413879737232</v>
+        <v>16664.994313736734</v>
       </c>
       <c r="I65" s="248">
-        <v>14588.782537090501</v>
+        <v>14488.4097742551</v>
       </c>
       <c r="J65" s="248">
-        <v>956.9839370919799</v>
+        <v>944.97400340304739</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -26904,19 +26904,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -26939,19 +26939,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -26974,19 +26974,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -27009,31 +27009,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>2169.7962634732608</v>
+        <v>2169.79684083211</v>
       </c>
       <c r="C69" s="248">
-        <v>2658.7732550827595</v>
+        <v>2670.1952494366706</v>
       </c>
       <c r="D69" s="248">
-        <v>5861.1150614367889</v>
+        <v>5901.824685331665</v>
       </c>
       <c r="E69" s="248">
-        <v>12025.37626338894</v>
+        <v>12057.950793555963</v>
       </c>
       <c r="F69" s="248">
-        <v>14870.887923037317</v>
+        <v>14887.771448492244</v>
       </c>
       <c r="G69" s="248">
-        <v>9942.0552332464777</v>
+        <v>9970.3003274055936</v>
       </c>
       <c r="H69" s="248">
-        <v>16682.413879737232</v>
+        <v>16664.994313736734</v>
       </c>
       <c r="I69" s="248">
-        <v>14588.782537090501</v>
+        <v>14488.4097742551</v>
       </c>
       <c r="J69" s="248">
-        <v>1078.7995835067268</v>
+        <v>1066.7565669539326</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -27044,19 +27044,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -27068,7 +27068,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -27114,22 +27114,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -27138,7 +27138,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -27149,22 +27149,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -27173,7 +27173,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -27184,22 +27184,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -27208,7 +27208,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -27289,31 +27289,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>3146.1736862069256</v>
+        <v>3146.1732849110126</v>
       </c>
       <c r="C77" s="248">
-        <v>3616.2214340858504</v>
+        <v>3629.338872281126</v>
       </c>
       <c r="D77" s="248">
-        <v>7643.3088151271759</v>
+        <v>7689.12249158587</v>
       </c>
       <c r="E77" s="248">
-        <v>17041.18064079828</v>
+        <v>17074.761105960679</v>
       </c>
       <c r="F77" s="248">
-        <v>17492.974447088334</v>
+        <v>17506.528641128218</v>
       </c>
       <c r="G77" s="248">
-        <v>18553.056511006107</v>
+        <v>18577.014411554312</v>
       </c>
       <c r="H77" s="248">
-        <v>16682.413879737232</v>
+        <v>16664.994313736734</v>
       </c>
       <c r="I77" s="248">
-        <v>14588.782537090501</v>
+        <v>14488.4097742551</v>
       </c>
       <c r="J77" s="248">
-        <v>1360.8880488596333</v>
+        <v>1348.6571045869787</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -27499,31 +27499,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>25072.18419970166</v>
+        <v>25072.183781156797</v>
       </c>
       <c r="C83" s="248">
-        <v>3638.79628885829</v>
+        <v>3652.0168422778147</v>
       </c>
       <c r="D83" s="248">
-        <v>7692.8810865016912</v>
+        <v>7739.084473069579</v>
       </c>
       <c r="E83" s="248">
-        <v>17167.542075794452</v>
+        <v>17201.555130502969</v>
       </c>
       <c r="F83" s="248">
-        <v>17597.599457580658</v>
+        <v>17611.448900361771</v>
       </c>
       <c r="G83" s="248">
-        <v>20588.559434478881</v>
+        <v>20612.889857078964</v>
       </c>
       <c r="H83" s="248">
-        <v>16959.888808798387</v>
+        <v>16942.825216893041</v>
       </c>
       <c r="I83" s="248">
-        <v>15032.940472577804</v>
+        <v>14930.761650114608</v>
       </c>
       <c r="J83" s="248">
-        <v>3153.6081757081993</v>
+        <v>3141.2341485444922</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -27879,31 +27879,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>11771.883174222354</v>
+        <v>11771.882755677492</v>
       </c>
       <c r="C97" s="248">
-        <v>-10561.494995325358</v>
+        <v>-10548.274441905835</v>
       </c>
       <c r="D97" s="248">
-        <v>-15948.610513490205</v>
+        <v>-15902.407126922317</v>
       </c>
       <c r="E97" s="248">
-        <v>-3683.0155948905572</v>
+        <v>-3649.002540182039</v>
       </c>
       <c r="F97" s="248">
-        <v>4897.3299973146595</v>
+        <v>4911.1794400957733</v>
       </c>
       <c r="G97" s="248">
-        <v>7418.2181542357694</v>
+        <v>7442.5485768358558</v>
       </c>
       <c r="H97" s="248">
-        <v>5146.3729331936393</v>
+        <v>5129.3093412882909</v>
       </c>
       <c r="I97" s="248">
-        <v>10695.641945044863</v>
+        <v>10593.463122581665</v>
       </c>
       <c r="J97" s="248">
-        <v>3909.6748996948627</v>
+        <v>3897.3008725311447</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -28090,31 +28090,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>26391.5778923307</v>
+        <v>26391.589842186073</v>
       </c>
       <c r="C9" s="231">
-        <v>5715.3729867536977</v>
+        <v>5727.9816339478884</v>
       </c>
       <c r="D9" s="231">
-        <v>10807.987342907276</v>
+        <v>10848.840187888978</v>
       </c>
       <c r="E9" s="231">
-        <v>21582.561738528762</v>
+        <v>21602.907206425632</v>
       </c>
       <c r="F9" s="231">
-        <v>20257.52584020004</v>
+        <v>20254.027992626936</v>
       </c>
       <c r="G9" s="231">
-        <v>23234.353958551</v>
+        <v>23223.272694685704</v>
       </c>
       <c r="H9" s="231">
-        <v>13168.242740713675</v>
+        <v>13130.550421547272</v>
       </c>
       <c r="I9" s="231">
-        <v>2972.4827149655553</v>
+        <v>2954.8322242452437</v>
       </c>
       <c r="J9" s="231">
-        <v>2773.8947850493278</v>
+        <v>2769.9977964463033</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -28140,28 +28140,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>26391.5778923307</v>
+        <v>26391.589842186073</v>
       </c>
       <c r="C11" s="231">
-        <v>32106.950879084397</v>
+        <v>32119.571476133962</v>
       </c>
       <c r="D11" s="231">
-        <v>42914.938221991673</v>
+        <v>42968.41166402294</v>
       </c>
       <c r="E11" s="231">
-        <v>64497.499960520436</v>
+        <v>64571.318870448573</v>
       </c>
       <c r="F11" s="231">
-        <v>84755.025800720468</v>
+        <v>84825.346863075509</v>
       </c>
       <c r="G11" s="231">
-        <v>107989.37975927147</v>
+        <v>108048.61955776121</v>
       </c>
       <c r="H11" s="231">
-        <v>121157.62249998514</v>
+        <v>121179.16997930848</v>
       </c>
       <c r="I11" s="231">
-        <v>124130.1052149507</v>
+        <v>124134.00220355373</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -28278,31 +28278,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>13116.059289756175</v>
+        <v>13116.071239611547</v>
       </c>
       <c r="C15" s="231">
-        <v>-8480.1877343409942</v>
+        <v>-8467.5790871468016</v>
       </c>
       <c r="D15" s="231">
-        <v>-12822.546279517515</v>
+        <v>-12781.693434535813</v>
       </c>
       <c r="E15" s="231">
-        <v>781.77723267736292</v>
+        <v>802.122700574233</v>
       </c>
       <c r="F15" s="231">
-        <v>7585.84021999252</v>
+        <v>7582.3423724194163</v>
       </c>
       <c r="G15" s="231">
-        <v>10102.076245684491</v>
+        <v>10090.994981819194</v>
       </c>
       <c r="H15" s="231">
-        <v>1448.5553437392155</v>
+        <v>1410.8630245728127</v>
       </c>
       <c r="I15" s="231">
-        <v>-1318.883909931465</v>
+        <v>-1336.5344006517767</v>
       </c>
       <c r="J15" s="231">
-        <v>-10412.690408059789</v>
+        <v>-10416.587396662813</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -28311,31 +28311,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.10335418339655307</v>
+        <v>0.10335427756108195</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.066823644127379678</v>
+        <v>-0.06672428833722184</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.10104130901719026</v>
+        <v>-0.10071938973189033</v>
       </c>
       <c r="E16" s="236">
-        <v>0.006160382908949779</v>
+        <v>0.0063207046316446514</v>
       </c>
       <c r="F16" s="237">
-        <v>0.059776210521280015</v>
+        <v>0.05974864757942551</v>
       </c>
       <c r="G16" s="236">
-        <v>0.079604080609630035</v>
+        <v>0.07951676055773807</v>
       </c>
       <c r="H16" s="236">
-        <v>0.011414575929357745</v>
+        <v>0.011117561499817283</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.010392768627714372</v>
+        <v>-0.010531854005009899</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.0820517115934863</v>
+        <v>-0.082082419755585417</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -28344,28 +28344,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>13116.059289756175</v>
+        <v>13116.071239611547</v>
       </c>
       <c r="C17" s="231">
-        <v>4635.8715554151786</v>
+        <v>4648.4921524647434</v>
       </c>
       <c r="D17" s="231">
-        <v>-8186.67472410234</v>
+        <v>-8133.2012820710734</v>
       </c>
       <c r="E17" s="231">
-        <v>-7404.89749142497</v>
+        <v>-7331.0785814968331</v>
       </c>
       <c r="F17" s="231">
-        <v>180.94272856754833</v>
+        <v>251.26379092258867</v>
       </c>
       <c r="G17" s="231">
-        <v>10283.018974252045</v>
+        <v>10342.258772741785</v>
       </c>
       <c r="H17" s="231">
-        <v>11731.574317991253</v>
+        <v>11753.121797314598</v>
       </c>
       <c r="I17" s="231">
-        <v>10412.690408059789</v>
+        <v>10416.587396662813</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -28377,28 +28377,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.10335418339655307</v>
+        <v>0.10335427756108195</v>
       </c>
       <c r="C18" s="236">
-        <v>0.036530539269173372</v>
+        <v>0.0366299892238601</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.058350386839067084</v>
+        <v>-0.057768695876385542</v>
       </c>
       <c r="F18" s="237">
-        <v>0.0014258236822129191</v>
+        <v>0.0019799517030400036</v>
       </c>
       <c r="G18" s="236">
-        <v>0.081029904291843</v>
+        <v>0.081496712260778092</v>
       </c>
       <c r="H18" s="236">
-        <v>0.092444480221200678</v>
+        <v>0.092614273760595361</v>
       </c>
       <c r="I18" s="236">
-        <v>0.0820517115934863</v>
+        <v>0.082082419755585417</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -28410,31 +28410,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.9879884682781863</v>
+        <v>1.9879893684204504</v>
       </c>
       <c r="C19" s="236">
-        <v>0.40261692363166873</v>
+        <v>0.40350513420974438</v>
       </c>
       <c r="D19" s="236">
-        <v>0.45737381624978468</v>
+        <v>0.45910263226530346</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0375840263359992</v>
+        <v>1.0385621369400078</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5986449196542085</v>
+        <v>1.598368883167987</v>
       </c>
       <c r="G19" s="236">
-        <v>1.769255453361823</v>
+        <v>1.7684116344822969</v>
       </c>
       <c r="H19" s="236">
-        <v>1.1236001690721864</v>
+        <v>1.1203840151006963</v>
       </c>
       <c r="I19" s="236">
-        <v>0.69266575773792938</v>
+        <v>0.68855273448377319</v>
       </c>
       <c r="J19" s="236">
-        <v>0.21035732484395397</v>
+        <v>0.21006179809870826</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -28443,28 +28443,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.9879884682781863</v>
+        <v>1.9879893684204504</v>
       </c>
       <c r="C20" s="236">
-        <v>1.1687546201150127</v>
+        <v>1.1692140340645292</v>
       </c>
       <c r="D20" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="E20" s="236">
-        <v>0.897014595426058</v>
+        <v>0.89804124978730482</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0021394583540821</v>
+        <v>1.0029709313041944</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1052441099190817</v>
+        <v>1.1058504143399381</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1072100702977017</v>
+        <v>1.107406983918191</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0915663658529531</v>
+        <v>1.0916006349102441</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -28507,28 +28507,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.0392531548037166</v>
+        <v>-0.038846164468473721</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.04583933846486369</v>
+        <v>-0.045429985926631396</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.054285143763750883</v>
+        <v>-0.05387151383472473</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056665347097952748</v>
+        <v>-0.056251647578101423</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.095085487670294955</v>
+        <v>-0.094637000047821968</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.1161367831951176</v>
+        <v>-0.11566852749441044</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064510769748016908</v>
+        <v>-0.064089400508030248</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -28538,28 +28538,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90010019046152667</v>
+        <v>0.90113598636578118</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88459261738097739</v>
+        <v>0.88562322355000089</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86481726285841054</v>
+        <v>0.86584729837259788</v>
       </c>
       <c r="F24" s="236">
-        <v>0.85911501936840806</v>
+        <v>0.86014358535849722</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76391348864384567</v>
+        <v>0.76502703268479555</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71181811127155</v>
+        <v>0.71298004126930925</v>
       </c>
       <c r="I24" s="236">
-        <v>0.83979615804420338</v>
+        <v>0.84084257202114909</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -28930,31 +28930,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>21.375811451966403</v>
+        <v>21.3757983594201</v>
       </c>
       <c r="C51" s="246">
-        <v>24.9417965656563</v>
+        <v>25.0445608185018</v>
       </c>
       <c r="D51" s="246">
-        <v>56.340600572702094</v>
+        <v>56.725559329829395</v>
       </c>
       <c r="E51" s="246">
-        <v>141.834696013471</v>
+        <v>142.222935380026</v>
       </c>
       <c r="F51" s="246">
-        <v>115.58443106559301</v>
+        <v>115.843818299925</v>
       </c>
       <c r="G51" s="246">
-        <v>195.040274742121</v>
+        <v>195.36159309565898</v>
       </c>
       <c r="H51" s="246">
-        <v>318.805085332324</v>
+        <v>318.811544511809</v>
       </c>
       <c r="I51" s="246">
-        <v>348.250568488445</v>
+        <v>346.911566295874</v>
       </c>
       <c r="J51" s="246">
-        <v>14.826735767721175</v>
+        <v>14.702623908955729</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -28965,31 +28965,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>21.375811451966403</v>
+        <v>21.3757983594201</v>
       </c>
       <c r="C52" s="248">
-        <v>24.9417965656563</v>
+        <v>25.0445608185018</v>
       </c>
       <c r="D52" s="248">
-        <v>56.340600572702094</v>
+        <v>56.725559329829395</v>
       </c>
       <c r="E52" s="248">
-        <v>141.834696013471</v>
+        <v>142.222935380026</v>
       </c>
       <c r="F52" s="248">
-        <v>115.58443106559301</v>
+        <v>115.843818299925</v>
       </c>
       <c r="G52" s="248">
-        <v>195.040274742121</v>
+        <v>195.36159309565898</v>
       </c>
       <c r="H52" s="248">
-        <v>318.805085332324</v>
+        <v>318.811544511809</v>
       </c>
       <c r="I52" s="248">
-        <v>348.250568488445</v>
+        <v>346.911566295874</v>
       </c>
       <c r="J52" s="248">
-        <v>14.826735767721175</v>
+        <v>14.702623908955729</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -29070,31 +29070,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>143.44404172915242</v>
+        <v>143.44402863660608</v>
       </c>
       <c r="C55" s="248">
-        <v>24.9417965656563</v>
+        <v>25.0445608185018</v>
       </c>
       <c r="D55" s="248">
-        <v>56.340600572702094</v>
+        <v>56.725559329829395</v>
       </c>
       <c r="E55" s="248">
-        <v>141.834696013471</v>
+        <v>142.222935380026</v>
       </c>
       <c r="F55" s="248">
-        <v>115.58443106559301</v>
+        <v>115.843818299925</v>
       </c>
       <c r="G55" s="248">
-        <v>301.972044464935</v>
+        <v>302.29336281847304</v>
       </c>
       <c r="H55" s="248">
-        <v>318.805085332324</v>
+        <v>318.811544511809</v>
       </c>
       <c r="I55" s="248">
-        <v>348.250568488445</v>
+        <v>346.911566295874</v>
       </c>
       <c r="J55" s="248">
-        <v>14.826735767721402</v>
+        <v>14.702623908955502</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -29105,31 +29105,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2143.4440417291485</v>
+        <v>2143.4440286366021</v>
       </c>
       <c r="C56" s="248">
-        <v>24.9417965656563</v>
+        <v>25.0445608185018</v>
       </c>
       <c r="D56" s="248">
-        <v>56.340600572702094</v>
+        <v>56.725559329829395</v>
       </c>
       <c r="E56" s="248">
-        <v>141.834696013471</v>
+        <v>142.222935380026</v>
       </c>
       <c r="F56" s="248">
-        <v>115.58443106559301</v>
+        <v>115.843818299925</v>
       </c>
       <c r="G56" s="248">
-        <v>2053.9720444649361</v>
+        <v>2054.2933628184742</v>
       </c>
       <c r="H56" s="248">
-        <v>318.805085332324</v>
+        <v>318.811544511809</v>
       </c>
       <c r="I56" s="248">
-        <v>348.250568488445</v>
+        <v>346.911566295874</v>
       </c>
       <c r="J56" s="248">
-        <v>14.826735767724131</v>
+        <v>14.702623908958231</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -29245,19 +29245,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="246">
-        <v>490.491900055189</v>
+        <v>490.491625873167</v>
       </c>
       <c r="C60" s="246">
-        <v>492.794161144094</v>
+        <v>493.49838600230504</v>
       </c>
       <c r="D60" s="246">
-        <v>993.99884813731</v>
+        <v>996.141392256366</v>
       </c>
       <c r="E60" s="246">
-        <v>2029.66594067208</v>
+        <v>2029.74651819437</v>
       </c>
       <c r="F60" s="246">
-        <v>2084.33772306675</v>
+        <v>2081.42416816954</v>
       </c>
       <c r="G60" s="246">
         <v>0</v>
@@ -29269,7 +29269,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>23.7114269245767</v>
+        <v>23.697909504251584</v>
       </c>
       <c r="K60" s="246">
         <v>6115</v>
@@ -29280,31 +29280,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>170.324236414153</v>
+        <v>170.324067497704</v>
       </c>
       <c r="C61" s="246">
-        <v>155.78608715463102</v>
+        <v>156.082067824512</v>
       </c>
       <c r="D61" s="246">
-        <v>272.99662004385</v>
+        <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>415.17520265902704</v>
+        <v>415.846068590588</v>
       </c>
       <c r="F61" s="246">
-        <v>293.676938396775</v>
+        <v>293.75512985213504</v>
       </c>
       <c r="G61" s="246">
-        <v>348.464078133397</v>
+        <v>347.978285142485</v>
       </c>
       <c r="H61" s="246">
-        <v>252.124627060926</v>
+        <v>250.752016813848</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.452210137241082</v>
+        <v>30.335747041518971</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -29315,31 +29315,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>2042.64450860806</v>
+        <v>2042.65835132185</v>
       </c>
       <c r="C62" s="246">
-        <v>3302.0894511051097</v>
+        <v>3310.77321493839</v>
       </c>
       <c r="D62" s="246">
-        <v>6139.77663139451</v>
+        <v>6168.6300548656</v>
       </c>
       <c r="E62" s="246">
-        <v>10842.3774041345</v>
+        <v>10860.217742508401</v>
       </c>
       <c r="F62" s="246">
-        <v>7712.4020423599795</v>
+        <v>7718.99834414671</v>
       </c>
       <c r="G62" s="246">
-        <v>12094.757825418601</v>
+        <v>12088.304107408401</v>
       </c>
       <c r="H62" s="246">
-        <v>12506.0332510142</v>
+        <v>12470.2040258723</v>
       </c>
       <c r="I62" s="246">
-        <v>2624.2321464771103</v>
+        <v>2607.92065794937</v>
       </c>
       <c r="J62" s="246">
-        <v>536.6867394879373</v>
+        <v>533.293500988977</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -29350,31 +29350,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="246">
-        <v>61.6645765666505</v>
+        <v>61.664515411752504</v>
       </c>
       <c r="C63" s="246">
-        <v>56.401151718695594</v>
+        <v>56.5083092381678</v>
       </c>
       <c r="D63" s="246">
-        <v>98.83632143928989</v>
+        <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>150.310981055512</v>
+        <v>150.55386289355</v>
       </c>
       <c r="F63" s="246">
-        <v>106.32347125040499</v>
+        <v>106.35177986395</v>
       </c>
       <c r="G63" s="246">
-        <v>126.158732774443</v>
+        <v>125.982855167625</v>
       </c>
       <c r="H63" s="246">
-        <v>91.2797773062249</v>
+        <v>90.7828343493147</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>11.024987888779151</v>
+        <v>10.982823322921604</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -29385,31 +29385,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>2104.3090851747106</v>
+        <v>2104.322866733602</v>
       </c>
       <c r="C64" s="248">
-        <v>3358.4906028238056</v>
+        <v>3367.2815241765579</v>
       </c>
       <c r="D64" s="248">
-        <v>6238.6129528338</v>
+        <v>6267.8030746183185</v>
       </c>
       <c r="E64" s="248">
-        <v>10992.688385190011</v>
+        <v>11010.771605401949</v>
       </c>
       <c r="F64" s="248">
-        <v>7818.725513610384</v>
+        <v>7825.35012401066</v>
       </c>
       <c r="G64" s="248">
-        <v>12220.916558193043</v>
+        <v>12214.286962576027</v>
       </c>
       <c r="H64" s="248">
-        <v>12597.313028320425</v>
+        <v>12560.986860221616</v>
       </c>
       <c r="I64" s="248">
-        <v>2624.2321464771103</v>
+        <v>2607.92065794937</v>
       </c>
       <c r="J64" s="248">
-        <v>547.71172737671441</v>
+        <v>544.27632431190432</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -29420,31 +29420,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>2274.6333215888635</v>
+        <v>2274.6469342313062</v>
       </c>
       <c r="C65" s="248">
-        <v>3514.2766899784365</v>
+        <v>3523.3635920010697</v>
       </c>
       <c r="D65" s="248">
-        <v>6511.609572877649</v>
+        <v>6541.7296918555276</v>
       </c>
       <c r="E65" s="248">
-        <v>11407.86358784904</v>
+        <v>11426.61767399254</v>
       </c>
       <c r="F65" s="248">
-        <v>8112.40245200716</v>
+        <v>8119.1052538627946</v>
       </c>
       <c r="G65" s="248">
-        <v>12569.380636326439</v>
+        <v>12562.265247718511</v>
       </c>
       <c r="H65" s="248">
-        <v>12849.437655381349</v>
+        <v>12811.738877035463</v>
       </c>
       <c r="I65" s="248">
-        <v>2624.2321464771103</v>
+        <v>2607.92065794937</v>
       </c>
       <c r="J65" s="248">
-        <v>578.16393751395663</v>
+        <v>574.61207135342556</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -29455,19 +29455,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="246">
-        <v>666.635843231183</v>
+        <v>666.635470585755</v>
       </c>
       <c r="C66" s="246">
-        <v>669.764885244247</v>
+        <v>670.722009168464</v>
       </c>
       <c r="D66" s="246">
-        <v>1350.96065852317</v>
+        <v>1353.8726264992101</v>
       </c>
       <c r="E66" s="246">
-        <v>2758.55333326666</v>
+        <v>2758.66284754104</v>
       </c>
       <c r="F66" s="246">
-        <v>2832.8586780716</v>
+        <v>2828.89881629715</v>
       </c>
       <c r="G66" s="246">
         <v>0</v>
@@ -29479,7 +29479,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="246">
-        <v>32.226601663151087</v>
+        <v>32.208229908392241</v>
       </c>
       <c r="K66" s="246">
         <v>8311.0000000000109</v>
@@ -29490,19 +29490,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="246">
-        <v>43.3140843875391</v>
+        <v>43.3140601752265</v>
       </c>
       <c r="C67" s="246">
-        <v>43.5173911721685</v>
+        <v>43.5795794670882</v>
       </c>
       <c r="D67" s="246">
-        <v>87.7774943571786</v>
+        <v>87.9666969449611</v>
       </c>
       <c r="E67" s="246">
-        <v>179.234604736373</v>
+        <v>179.241720331146</v>
       </c>
       <c r="F67" s="246">
-        <v>184.062529919222</v>
+        <v>183.80524134285398</v>
       </c>
       <c r="G67" s="246">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="246">
-        <v>2.0938954275177366</v>
+        <v>2.0927017387232354</v>
       </c>
       <c r="K67" s="246">
         <v>539.999999999999</v>
@@ -29525,19 +29525,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>709.94992761872209</v>
+        <v>709.94953076098147</v>
       </c>
       <c r="C68" s="248">
-        <v>713.28227641641558</v>
+        <v>714.30158863555221</v>
       </c>
       <c r="D68" s="248">
-        <v>1438.7381528803487</v>
+        <v>1441.8393234441712</v>
       </c>
       <c r="E68" s="248">
-        <v>2937.7879380030331</v>
+        <v>2937.9045678721859</v>
       </c>
       <c r="F68" s="248">
-        <v>3016.921207990822</v>
+        <v>3012.7040576400041</v>
       </c>
       <c r="G68" s="248">
         <v>0</v>
@@ -29549,7 +29549,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="248">
-        <v>34.320497090668141</v>
+        <v>34.300931647114339</v>
       </c>
       <c r="K68" s="248">
         <v>8851.00000000001</v>
@@ -29560,31 +29560,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>3487.7564278678892</v>
+        <v>3487.7693694705704</v>
       </c>
       <c r="C69" s="248">
-        <v>4732.98301118495</v>
+        <v>4743.79345028493</v>
       </c>
       <c r="D69" s="248">
-        <v>8969.4529886441887</v>
+        <v>9004.8168223049452</v>
       </c>
       <c r="E69" s="248">
-        <v>16424.922665105951</v>
+        <v>16443.873958640892</v>
       </c>
       <c r="F69" s="248">
-        <v>17519.85488508343</v>
+        <v>17519.426981691035</v>
       </c>
       <c r="G69" s="248">
-        <v>12569.380636326439</v>
+        <v>12562.265247718511</v>
       </c>
       <c r="H69" s="248">
-        <v>12849.437655381349</v>
+        <v>12811.738877035463</v>
       </c>
       <c r="I69" s="248">
-        <v>2624.2321464771103</v>
+        <v>2607.92065794937</v>
       </c>
       <c r="J69" s="248">
-        <v>699.97958392871078</v>
+        <v>696.3946349042817</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -29595,19 +29595,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="246">
-        <v>165.14332442152102</v>
+        <v>165.143198890004</v>
       </c>
       <c r="C70" s="246">
-        <v>166.166830435557</v>
+        <v>166.442257542281</v>
       </c>
       <c r="D70" s="246">
-        <v>336.003382964663</v>
+        <v>336.84329276958204</v>
       </c>
       <c r="E70" s="246">
-        <v>689.926362539542</v>
+        <v>689.96195996992</v>
       </c>
       <c r="F70" s="246">
-        <v>713.670885385802</v>
+        <v>712.52538380771</v>
       </c>
       <c r="G70" s="246">
         <v>0</v>
@@ -29619,7 +29619,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="246">
-        <v>8.0892142529150988</v>
+        <v>8.08390702050292</v>
       </c>
       <c r="K70" s="246">
         <v>2079</v>
@@ -29665,22 +29665,22 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>533.461830263411</v>
+        <v>533.46132289029993</v>
       </c>
       <c r="C72" s="246">
-        <v>495.12745758917004</v>
+        <v>495.958921051995</v>
       </c>
       <c r="D72" s="246">
-        <v>886.12290071498694</v>
+        <v>888.555065867532</v>
       </c>
       <c r="E72" s="246">
-        <v>1420.15222535819</v>
+        <v>1420.55145101156</v>
       </c>
       <c r="F72" s="246">
-        <v>1038.4971484264001</v>
+        <v>1037.17735746564</v>
       </c>
       <c r="G72" s="246">
-        <v>745.53680833786507</v>
+        <v>743.247972089623</v>
       </c>
       <c r="H72" s="246">
         <v>0</v>
@@ -29689,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>53.101629309976488</v>
+        <v>53.047909623350279</v>
       </c>
       <c r="K72" s="246">
         <v>5172</v>
@@ -29700,22 +29700,22 @@
         <v>74</v>
       </c>
       <c r="B73" s="246">
-        <v>281.35245250753803</v>
+        <v>281.352106757404</v>
       </c>
       <c r="C73" s="246">
-        <v>269.848487752477</v>
+        <v>270.43704102429297</v>
       </c>
       <c r="D73" s="246">
-        <v>507.79792077781997</v>
+        <v>509.629898384174</v>
       </c>
       <c r="E73" s="246">
-        <v>903.53798146889108</v>
+        <v>904.10909338051692</v>
       </c>
       <c r="F73" s="246">
-        <v>768.506544372512</v>
+        <v>767.64250549631993</v>
       </c>
       <c r="G73" s="246">
-        <v>651.37428337752</v>
+        <v>649.375926014852</v>
       </c>
       <c r="H73" s="246">
         <v>0</v>
@@ -29724,7 +29724,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="246">
-        <v>118.5823297432421</v>
+        <v>118.45342894244004</v>
       </c>
       <c r="K73" s="246">
         <v>3501</v>
@@ -29735,22 +29735,22 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>814.814282770949</v>
+        <v>814.81342964770386</v>
       </c>
       <c r="C74" s="248">
-        <v>764.975945341647</v>
+        <v>766.3959620762879</v>
       </c>
       <c r="D74" s="248">
-        <v>1393.9208214928069</v>
+        <v>1398.1849642517059</v>
       </c>
       <c r="E74" s="248">
-        <v>2323.6902068270806</v>
+        <v>2324.6605443920766</v>
       </c>
       <c r="F74" s="248">
-        <v>1807.003692798912</v>
+        <v>1804.81986296196</v>
       </c>
       <c r="G74" s="248">
-        <v>1396.9110917153853</v>
+        <v>1392.6238981044749</v>
       </c>
       <c r="H74" s="248">
         <v>0</v>
@@ -29759,7 +29759,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="248">
-        <v>171.68395905321813</v>
+        <v>171.50133856579123</v>
       </c>
       <c r="K74" s="248">
         <v>8673</v>
@@ -29840,31 +29840,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>4464.1338506015545</v>
+        <v>4464.145813549474</v>
       </c>
       <c r="C77" s="248">
-        <v>5690.431190188041</v>
+        <v>5702.9370731293866</v>
       </c>
       <c r="D77" s="248">
-        <v>10751.646742334575</v>
+        <v>10792.114628559148</v>
       </c>
       <c r="E77" s="248">
-        <v>21440.727042515293</v>
+        <v>21460.684271045608</v>
       </c>
       <c r="F77" s="248">
-        <v>20141.941409134448</v>
+        <v>20138.184174327009</v>
       </c>
       <c r="G77" s="248">
-        <v>21180.381914086065</v>
+        <v>21168.979331867231</v>
       </c>
       <c r="H77" s="248">
-        <v>12849.437655381349</v>
+        <v>12811.738877035463</v>
       </c>
       <c r="I77" s="248">
-        <v>2624.2321464771103</v>
+        <v>2607.92065794937</v>
       </c>
       <c r="J77" s="248">
-        <v>982.06804928160273</v>
+        <v>978.2951725373423</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -30050,31 +30050,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>26391.5778923307</v>
+        <v>26391.589842186073</v>
       </c>
       <c r="C83" s="248">
-        <v>5715.3729867536977</v>
+        <v>5727.9816339478884</v>
       </c>
       <c r="D83" s="248">
-        <v>10807.987342907276</v>
+        <v>10848.840187888978</v>
       </c>
       <c r="E83" s="248">
-        <v>21582.561738528762</v>
+        <v>21602.907206425632</v>
       </c>
       <c r="F83" s="248">
-        <v>20257.52584020004</v>
+        <v>20254.027992626936</v>
       </c>
       <c r="G83" s="248">
-        <v>23234.353958551</v>
+        <v>23223.272694685704</v>
       </c>
       <c r="H83" s="248">
-        <v>13168.242740713675</v>
+        <v>13130.550421547272</v>
       </c>
       <c r="I83" s="248">
-        <v>2972.4827149655553</v>
+        <v>2954.8322242452437</v>
       </c>
       <c r="J83" s="248">
-        <v>2773.8947850493278</v>
+        <v>2769.9977964463033</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -30430,31 +30430,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>13116.059289756176</v>
+        <v>13116.071239611549</v>
       </c>
       <c r="C97" s="248">
-        <v>-8480.1877343409924</v>
+        <v>-8467.5790871468016</v>
       </c>
       <c r="D97" s="248">
-        <v>-12822.546279517517</v>
+        <v>-12781.693434535815</v>
       </c>
       <c r="E97" s="248">
-        <v>781.7772326773628</v>
+        <v>802.12270057423416</v>
       </c>
       <c r="F97" s="248">
-        <v>7585.84021999252</v>
+        <v>7582.3423724194154</v>
       </c>
       <c r="G97" s="248">
-        <v>10102.076245684491</v>
+        <v>10090.994981819196</v>
       </c>
       <c r="H97" s="248">
-        <v>1448.5553437392152</v>
+        <v>1410.863024572812</v>
       </c>
       <c r="I97" s="248">
-        <v>-1318.8839099314646</v>
+        <v>-1336.5344006517762</v>
       </c>
       <c r="J97" s="248">
-        <v>3233.3095919402367</v>
+        <v>3229.4126033372158</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Liquidity_GAP.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 02/10/21 4:47:47 AM</t>
+    <t>Printed on: 03/14/21 4:46:41 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -9964,31 +9964,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27443.350390452339</v>
+        <v>27443.346326590217</v>
       </c>
       <c r="C9" s="231">
-        <v>5559.8989425688478</v>
+        <v>5559.8815036478672</v>
       </c>
       <c r="D9" s="231">
-        <v>11637.251411571251</v>
+        <v>11637.171583286678</v>
       </c>
       <c r="E9" s="231">
-        <v>23450.038934367843</v>
+        <v>23449.927996953305</v>
       </c>
       <c r="F9" s="231">
-        <v>20396.753990412439</v>
+        <v>20396.723453801656</v>
       </c>
       <c r="G9" s="231">
-        <v>22124.10482147475</v>
+        <v>22124.1971899787</v>
       </c>
       <c r="H9" s="231">
-        <v>10951.82814008712</v>
+        <v>10952.173691723354</v>
       </c>
       <c r="I9" s="231">
-        <v>2618.3537316289339</v>
+        <v>2618.5736395004542</v>
       </c>
       <c r="J9" s="231">
-        <v>2722.4196374365129</v>
+        <v>2722.0046145177912</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -10014,28 +10014,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27443.350390452339</v>
+        <v>27443.346326590217</v>
       </c>
       <c r="C11" s="231">
-        <v>33003.249333021187</v>
+        <v>33003.227830238087</v>
       </c>
       <c r="D11" s="231">
-        <v>44640.500744592442</v>
+        <v>44640.399413524763</v>
       </c>
       <c r="E11" s="231">
-        <v>68090.539678960282</v>
+        <v>68090.327410478072</v>
       </c>
       <c r="F11" s="231">
-        <v>88487.293669372724</v>
+        <v>88487.050864279736</v>
       </c>
       <c r="G11" s="231">
-        <v>110611.39849084747</v>
+        <v>110611.24805425844</v>
       </c>
       <c r="H11" s="231">
-        <v>121563.22663093459</v>
+        <v>121563.42174598179</v>
       </c>
       <c r="I11" s="231">
-        <v>124181.58036256352</v>
+        <v>124181.99538548224</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -10152,31 +10152,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>14405.712166236492</v>
+        <v>14405.70810237437</v>
       </c>
       <c r="C15" s="231">
-        <v>-8482.5125383947816</v>
+        <v>-8482.529977315764</v>
       </c>
       <c r="D15" s="231">
-        <v>-11688.446561874942</v>
+        <v>-11688.526390159515</v>
       </c>
       <c r="E15" s="231">
-        <v>2451.5276697613626</v>
+        <v>2451.4167323468246</v>
       </c>
       <c r="F15" s="231">
-        <v>7592.638151959809</v>
+        <v>7592.6076153490267</v>
       </c>
       <c r="G15" s="231">
-        <v>8911.00561851806</v>
+        <v>8911.097987022009</v>
       </c>
       <c r="H15" s="231">
-        <v>-794.29486998441826</v>
+        <v>-793.94931834818453</v>
       </c>
       <c r="I15" s="231">
-        <v>-1669.762328946209</v>
+        <v>-1669.5424210746887</v>
       </c>
       <c r="J15" s="231">
-        <v>-10725.867307275359</v>
+        <v>-10726.282330194081</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -10185,31 +10185,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.11351661229146826</v>
+        <v>0.11351658026834746</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.066841963518839281</v>
+        <v>-0.0668421009370529</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.09210463469926039</v>
+        <v>-0.092105263743928578</v>
       </c>
       <c r="E16" s="236">
-        <v>0.019317970038465</v>
+        <v>0.019317095854715565</v>
       </c>
       <c r="F16" s="237">
-        <v>0.059829778036624592</v>
+        <v>0.059829537408978631</v>
       </c>
       <c r="G16" s="236">
-        <v>0.070218477104882882</v>
+        <v>0.070219204966131932</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.0062590215437213804</v>
+        <v>-0.0062562986064125976</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.013157680837059578</v>
+        <v>-0.013155947969131695</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.084519536872560017</v>
+        <v>-0.084522807241647846</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -10218,28 +10218,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>14405.712166236492</v>
+        <v>14405.70810237437</v>
       </c>
       <c r="C17" s="231">
-        <v>5923.19962784171</v>
+        <v>5923.17812505861</v>
       </c>
       <c r="D17" s="231">
-        <v>-5765.2469340332318</v>
+        <v>-5765.3482651009108</v>
       </c>
       <c r="E17" s="231">
-        <v>-3313.7192642718728</v>
+        <v>-3313.9315327540826</v>
       </c>
       <c r="F17" s="231">
-        <v>4278.9188876879343</v>
+        <v>4278.6760825949459</v>
       </c>
       <c r="G17" s="231">
-        <v>13189.924506205993</v>
+        <v>13189.774069616964</v>
       </c>
       <c r="H17" s="231">
-        <v>12395.62963622158</v>
+        <v>12395.824751268781</v>
       </c>
       <c r="I17" s="231">
-        <v>10725.867307275359</v>
+        <v>10726.282330194081</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -10251,28 +10251,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.11351661229146826</v>
+        <v>0.11351658026834746</v>
       </c>
       <c r="C18" s="236">
-        <v>0.046674648772628988</v>
+        <v>0.046674479331294594</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.026112015888166425</v>
+        <v>-0.026113688557918444</v>
       </c>
       <c r="F18" s="237">
-        <v>0.033717762148458147</v>
+        <v>0.033715848851060208</v>
       </c>
       <c r="G18" s="236">
-        <v>0.10393623925334103</v>
+        <v>0.1039350538171922</v>
       </c>
       <c r="H18" s="236">
-        <v>0.0976772177096197</v>
+        <v>0.097678755210779636</v>
       </c>
       <c r="I18" s="236">
-        <v>0.084519536872560017</v>
+        <v>0.084522807241647846</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -10284,31 +10284,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.1049326510287432</v>
+        <v>2.10493233932642</v>
       </c>
       <c r="C19" s="236">
-        <v>0.39593619301827437</v>
+        <v>0.39593495114318727</v>
       </c>
       <c r="D19" s="236">
-        <v>0.4989026019636803</v>
+        <v>0.49889917963159564</v>
       </c>
       <c r="E19" s="236">
-        <v>1.116747689341838</v>
+        <v>1.1167424062332814</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5929841816299417</v>
+        <v>1.5929817967240907</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6744069261603705</v>
+        <v>1.6744139168370109</v>
       </c>
       <c r="H19" s="236">
-        <v>0.932378124313583</v>
+        <v>0.932407542670256</v>
       </c>
       <c r="I19" s="236">
-        <v>0.61060701124720662</v>
+        <v>0.61065829434412233</v>
       </c>
       <c r="J19" s="236">
-        <v>0.20243616518808896</v>
+        <v>0.20240530453494945</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -10317,28 +10317,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.1049326510287432</v>
+        <v>2.10493233932642</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2187292745887688</v>
+        <v>1.218728480543583</v>
       </c>
       <c r="D20" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E20" s="236">
-        <v>0.9535921342324083</v>
+        <v>0.95358916146180117</v>
       </c>
       <c r="F20" s="237">
-        <v>1.05081346004814</v>
+        <v>1.0508105766639917</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1353903196772139</v>
+        <v>1.1353887754941621</v>
       </c>
       <c r="H20" s="236">
-        <v>1.113546784737067</v>
+        <v>1.1135485720352452</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0945379216121847</v>
+        <v>1.0945415796291109</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -10381,28 +10381,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -10412,28 +10412,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -10804,31 +10804,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>30.361179307558302</v>
+        <v>30.3616729591724</v>
       </c>
       <c r="C51" s="246">
-        <v>33.3885689945305</v>
+        <v>33.3888330149009</v>
       </c>
       <c r="D51" s="246">
-        <v>73.574551068723309</v>
+        <v>73.5744688108294</v>
       </c>
       <c r="E51" s="246">
-        <v>144.520442205046</v>
+        <v>144.519694743406</v>
       </c>
       <c r="F51" s="246">
-        <v>119.714746970513</v>
+        <v>119.712487974551</v>
       </c>
       <c r="G51" s="246">
-        <v>203.609162999983</v>
+        <v>203.60276873323002</v>
       </c>
       <c r="H51" s="246">
-        <v>299.003682758186</v>
+        <v>299.004211184722</v>
       </c>
       <c r="I51" s="246">
-        <v>318.612956977444</v>
+        <v>318.62899819139403</v>
       </c>
       <c r="J51" s="246">
-        <v>14.214708718015572</v>
+        <v>14.206864387794212</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -10839,31 +10839,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>30.361179307558302</v>
+        <v>30.3616729591724</v>
       </c>
       <c r="C52" s="248">
-        <v>33.3885689945305</v>
+        <v>33.3888330149009</v>
       </c>
       <c r="D52" s="248">
-        <v>73.574551068723309</v>
+        <v>73.5744688108294</v>
       </c>
       <c r="E52" s="248">
-        <v>144.520442205046</v>
+        <v>144.519694743406</v>
       </c>
       <c r="F52" s="248">
-        <v>119.714746970513</v>
+        <v>119.712487974551</v>
       </c>
       <c r="G52" s="248">
-        <v>203.609162999983</v>
+        <v>203.60276873323002</v>
       </c>
       <c r="H52" s="248">
-        <v>299.003682758186</v>
+        <v>299.004211184722</v>
       </c>
       <c r="I52" s="248">
-        <v>318.612956977444</v>
+        <v>318.62899819139403</v>
       </c>
       <c r="J52" s="248">
-        <v>14.214708718015572</v>
+        <v>14.206864387794212</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -10944,31 +10944,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>152.42940958474432</v>
+        <v>152.4299032363584</v>
       </c>
       <c r="C55" s="248">
-        <v>33.3885689945305</v>
+        <v>33.3888330149009</v>
       </c>
       <c r="D55" s="248">
-        <v>73.574551068723309</v>
+        <v>73.5744688108294</v>
       </c>
       <c r="E55" s="248">
-        <v>144.520442205046</v>
+        <v>144.519694743406</v>
       </c>
       <c r="F55" s="248">
-        <v>119.714746970513</v>
+        <v>119.712487974551</v>
       </c>
       <c r="G55" s="248">
-        <v>310.54093272279704</v>
+        <v>310.53453845604406</v>
       </c>
       <c r="H55" s="248">
-        <v>299.003682758186</v>
+        <v>299.004211184722</v>
       </c>
       <c r="I55" s="248">
-        <v>318.612956977444</v>
+        <v>318.62899819139403</v>
       </c>
       <c r="J55" s="248">
-        <v>14.214708718015572</v>
+        <v>14.206864387794212</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -10979,31 +10979,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2152.4294095847404</v>
+        <v>2152.4299032363542</v>
       </c>
       <c r="C56" s="248">
-        <v>33.3885689945305</v>
+        <v>33.3888330149009</v>
       </c>
       <c r="D56" s="248">
-        <v>73.574551068723309</v>
+        <v>73.5744688108294</v>
       </c>
       <c r="E56" s="248">
-        <v>144.520442205046</v>
+        <v>144.519694743406</v>
       </c>
       <c r="F56" s="248">
-        <v>119.714746970513</v>
+        <v>119.712487974551</v>
       </c>
       <c r="G56" s="248">
-        <v>2062.5409327227981</v>
+        <v>2062.5345384560451</v>
       </c>
       <c r="H56" s="248">
-        <v>299.003682758186</v>
+        <v>299.004211184722</v>
       </c>
       <c r="I56" s="248">
-        <v>318.612956977444</v>
+        <v>318.62899819139403</v>
       </c>
       <c r="J56" s="248">
-        <v>14.2147087180183</v>
+        <v>14.206864387796486</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -11189,31 +11189,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>3085.43351863998</v>
+        <v>3085.4289611262398</v>
       </c>
       <c r="C62" s="246">
-        <v>3134.34651538332</v>
+        <v>3134.32881244197</v>
       </c>
       <c r="D62" s="246">
-        <v>6940.19228680898</v>
+        <v>6940.1125407823</v>
       </c>
       <c r="E62" s="246">
-        <v>12691.5493769222</v>
+        <v>12691.4391869693</v>
       </c>
       <c r="F62" s="246">
-        <v>7854.4926816984707</v>
+        <v>7854.4644040836492</v>
       </c>
       <c r="G62" s="246">
-        <v>10985.8075358464</v>
+        <v>10985.906298617101</v>
       </c>
       <c r="H62" s="246">
-        <v>10322.923079350101</v>
+        <v>10323.2681025598</v>
       </c>
       <c r="I62" s="246">
-        <v>2299.74077465149</v>
+        <v>2299.94464130906</v>
       </c>
       <c r="J62" s="246">
-        <v>486.51423069906741</v>
+        <v>486.10705211057211</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -11259,31 +11259,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>3147.0980340517322</v>
+        <v>3147.093476537992</v>
       </c>
       <c r="C64" s="248">
-        <v>3190.8548246214878</v>
+        <v>3190.8371216801384</v>
       </c>
       <c r="D64" s="248">
-        <v>7039.3653065616982</v>
+        <v>7039.2855605350187</v>
       </c>
       <c r="E64" s="248">
-        <v>12845.692340862997</v>
+        <v>12845.582150910099</v>
       </c>
       <c r="F64" s="248">
-        <v>7961.737772261904</v>
+        <v>7961.7094946470825</v>
       </c>
       <c r="G64" s="248">
-        <v>11110.482913607588</v>
+        <v>11110.58167637829</v>
       </c>
       <c r="H64" s="248">
-        <v>10410.61363873713</v>
+        <v>10410.958661946828</v>
       </c>
       <c r="I64" s="248">
-        <v>2299.74077465149</v>
+        <v>2299.94464130906</v>
       </c>
       <c r="J64" s="248">
-        <v>497.4143946439799</v>
+        <v>497.00721605548461</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -11294,31 +11294,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>3317.4221015494363</v>
+        <v>3317.4175440356962</v>
       </c>
       <c r="C65" s="248">
-        <v>3346.9368924459995</v>
+        <v>3346.91918950465</v>
       </c>
       <c r="D65" s="248">
-        <v>7313.2919237989072</v>
+        <v>7313.2121777722277</v>
       </c>
       <c r="E65" s="248">
-        <v>13271.451895109731</v>
+        <v>13271.34170515683</v>
       </c>
       <c r="F65" s="248">
-        <v>8257.9603229777113</v>
+        <v>8257.9320453628916</v>
       </c>
       <c r="G65" s="248">
-        <v>11454.849804603236</v>
+        <v>11454.948567373936</v>
       </c>
       <c r="H65" s="248">
-        <v>10652.824457328934</v>
+        <v>10653.169480538632</v>
       </c>
       <c r="I65" s="248">
-        <v>2299.74077465149</v>
+        <v>2299.94464130906</v>
       </c>
       <c r="J65" s="248">
-        <v>527.52182753455418</v>
+        <v>527.11464894606615</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -11434,31 +11434,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4530.5445367887005</v>
+        <v>4530.53997927496</v>
       </c>
       <c r="C69" s="248">
-        <v>4567.3667507298605</v>
+        <v>4567.34904778851</v>
       </c>
       <c r="D69" s="248">
-        <v>9776.3790542483257</v>
+        <v>9776.2993082216453</v>
       </c>
       <c r="E69" s="248">
-        <v>18288.708179758083</v>
+        <v>18288.597989805185</v>
       </c>
       <c r="F69" s="248">
-        <v>17658.282050805956</v>
+        <v>17658.253773191136</v>
       </c>
       <c r="G69" s="248">
-        <v>11454.849804603236</v>
+        <v>11454.948567373936</v>
       </c>
       <c r="H69" s="248">
-        <v>10652.824457328934</v>
+        <v>10653.169480538632</v>
       </c>
       <c r="I69" s="248">
-        <v>2299.74077465149</v>
+        <v>2299.94464130906</v>
       </c>
       <c r="J69" s="248">
-        <v>649.30439108541759</v>
+        <v>648.89721249694412</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -11714,31 +11714,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5506.9209808676042</v>
+        <v>5506.916423353864</v>
       </c>
       <c r="C77" s="248">
-        <v>5526.5103735743178</v>
+        <v>5526.492670632967</v>
       </c>
       <c r="D77" s="248">
-        <v>11563.676860502528</v>
+        <v>11563.597114475848</v>
       </c>
       <c r="E77" s="248">
-        <v>23305.5184921628</v>
+        <v>23305.4083022099</v>
       </c>
       <c r="F77" s="248">
-        <v>20277.039243441926</v>
+        <v>20277.010965827107</v>
       </c>
       <c r="G77" s="248">
-        <v>20061.563888751949</v>
+        <v>20061.662651522656</v>
       </c>
       <c r="H77" s="248">
-        <v>10652.824457328934</v>
+        <v>10653.169480538632</v>
       </c>
       <c r="I77" s="248">
-        <v>2299.74077465149</v>
+        <v>2299.94464130906</v>
       </c>
       <c r="J77" s="248">
-        <v>931.20492871847819</v>
+        <v>930.79775012999016</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -11924,31 +11924,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>27443.350390452339</v>
+        <v>27443.346326590217</v>
       </c>
       <c r="C83" s="248">
-        <v>5559.8989425688478</v>
+        <v>5559.8815036478672</v>
       </c>
       <c r="D83" s="248">
-        <v>11637.251411571251</v>
+        <v>11637.171583286678</v>
       </c>
       <c r="E83" s="248">
-        <v>23450.038934367843</v>
+        <v>23449.927996953305</v>
       </c>
       <c r="F83" s="248">
-        <v>20396.753990412439</v>
+        <v>20396.723453801656</v>
       </c>
       <c r="G83" s="248">
-        <v>22124.10482147475</v>
+        <v>22124.1971899787</v>
       </c>
       <c r="H83" s="248">
-        <v>10951.82814008712</v>
+        <v>10952.173691723354</v>
       </c>
       <c r="I83" s="248">
-        <v>2618.3537316289339</v>
+        <v>2618.5736395004542</v>
       </c>
       <c r="J83" s="248">
-        <v>2722.4196374365129</v>
+        <v>2722.0046145177912</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -12304,31 +12304,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>14405.712166236493</v>
+        <v>14405.70810237437</v>
       </c>
       <c r="C97" s="248">
-        <v>-8482.5125383947834</v>
+        <v>-8482.5299773157622</v>
       </c>
       <c r="D97" s="248">
-        <v>-11688.446561874944</v>
+        <v>-11688.526390159515</v>
       </c>
       <c r="E97" s="248">
-        <v>2451.5276697613635</v>
+        <v>2451.4167323468255</v>
       </c>
       <c r="F97" s="248">
-        <v>7592.6381519598108</v>
+        <v>7592.6076153490285</v>
       </c>
       <c r="G97" s="248">
-        <v>8911.00561851806</v>
+        <v>8911.09798702201</v>
       </c>
       <c r="H97" s="248">
-        <v>-794.29486998441814</v>
+        <v>-793.94931834818419</v>
       </c>
       <c r="I97" s="248">
-        <v>-1669.7623289462085</v>
+        <v>-1669.5424210746885</v>
       </c>
       <c r="J97" s="248">
-        <v>2920.1326927246555</v>
+        <v>2919.7176698059448</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -12769,31 +12769,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27383.938659975447</v>
+        <v>27383.934572969869</v>
       </c>
       <c r="C9" s="231">
-        <v>5565.160900021282</v>
+        <v>5565.1434790224148</v>
       </c>
       <c r="D9" s="231">
-        <v>11984.949110051399</v>
+        <v>11984.870200287051</v>
       </c>
       <c r="E9" s="231">
-        <v>23962.411488007067</v>
+        <v>23962.307973972784</v>
       </c>
       <c r="F9" s="231">
-        <v>20617.912346775789</v>
+        <v>20617.888718794555</v>
       </c>
       <c r="G9" s="231">
-        <v>22612.853560297357</v>
+        <v>22612.971810751184</v>
       </c>
       <c r="H9" s="231">
-        <v>10261.055923701317</v>
+        <v>10261.393610865525</v>
       </c>
       <c r="I9" s="231">
-        <v>1827.993725040863</v>
+        <v>1828.152495106016</v>
       </c>
       <c r="J9" s="231">
-        <v>2687.7242861294944</v>
+        <v>2687.3371382306213</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -12819,28 +12819,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27383.938659975447</v>
+        <v>27383.934572969869</v>
       </c>
       <c r="C11" s="231">
-        <v>32949.099559996728</v>
+        <v>32949.078051992285</v>
       </c>
       <c r="D11" s="231">
-        <v>44934.048670048127</v>
+        <v>44933.948252279333</v>
       </c>
       <c r="E11" s="231">
-        <v>68896.4601580552</v>
+        <v>68896.256226252124</v>
       </c>
       <c r="F11" s="231">
-        <v>89514.372504830986</v>
+        <v>89514.144945046675</v>
       </c>
       <c r="G11" s="231">
-        <v>112127.22606512834</v>
+        <v>112127.11675579786</v>
       </c>
       <c r="H11" s="231">
-        <v>122388.28198882967</v>
+        <v>122388.5103666634</v>
       </c>
       <c r="I11" s="231">
-        <v>124216.27571387054</v>
+        <v>124216.66286176941</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -12957,31 +12957,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>14476.637884473952</v>
+        <v>14476.633797468374</v>
       </c>
       <c r="C15" s="231">
-        <v>-8373.6531480777485</v>
+        <v>-8373.6705690766139</v>
       </c>
       <c r="D15" s="231">
-        <v>-11032.718392103394</v>
+        <v>-11032.797301867742</v>
       </c>
       <c r="E15" s="231">
-        <v>2828.1545854052674</v>
+        <v>2828.0510713709846</v>
       </c>
       <c r="F15" s="231">
-        <v>7725.8578734714793</v>
+        <v>7725.8342454902449</v>
       </c>
       <c r="G15" s="231">
-        <v>9296.3542064560079</v>
+        <v>9296.4724569098344</v>
       </c>
       <c r="H15" s="231">
-        <v>-1579.1583188588229</v>
+        <v>-1578.8206316946144</v>
       </c>
       <c r="I15" s="231">
-        <v>-2507.8756676454195</v>
+        <v>-2507.7168975802665</v>
       </c>
       <c r="J15" s="231">
-        <v>-10833.599023121351</v>
+        <v>-10833.986171020224</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -12990,31 +12990,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.11407550498387717</v>
+        <v>0.11407547277838658</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.065984154542628654</v>
+        <v>-0.0659842918196165</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.086937514909722236</v>
+        <v>-0.086938136716476558</v>
       </c>
       <c r="E16" s="236">
-        <v>0.022285779687049003</v>
+        <v>0.022284963999330075</v>
       </c>
       <c r="F16" s="237">
-        <v>0.060879545746954207</v>
+        <v>0.060879359559117469</v>
       </c>
       <c r="G16" s="236">
-        <v>0.073255013289226539</v>
+        <v>0.073255945099522726</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.012443723750699919</v>
+        <v>-0.012441062785212554</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.01976199069883864</v>
+        <v>-0.019760739595129119</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.08536845980521772</v>
+        <v>-0.085371510519922311</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -13023,28 +13023,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>14476.637884473952</v>
+        <v>14476.633797468374</v>
       </c>
       <c r="C17" s="231">
-        <v>6102.9847363962035</v>
+        <v>6102.96322839176</v>
       </c>
       <c r="D17" s="231">
-        <v>-4929.73365570719</v>
+        <v>-4929.834073475984</v>
       </c>
       <c r="E17" s="231">
-        <v>-2101.5790703019156</v>
+        <v>-2101.7830021049886</v>
       </c>
       <c r="F17" s="231">
-        <v>5624.2788031695673</v>
+        <v>5624.0512433852564</v>
       </c>
       <c r="G17" s="231">
-        <v>14920.63300962557</v>
+        <v>14920.523700295089</v>
       </c>
       <c r="H17" s="231">
-        <v>13341.474690766758</v>
+        <v>13341.703068600487</v>
       </c>
       <c r="I17" s="231">
-        <v>10833.599023121351</v>
+        <v>10833.986171020224</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -13056,28 +13056,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.11407550498387717</v>
+        <v>0.11407547277838658</v>
       </c>
       <c r="C18" s="236">
-        <v>0.048091350441248515</v>
+        <v>0.048091180958770081</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.016560384781424662</v>
+        <v>-0.016561991758376315</v>
       </c>
       <c r="F18" s="237">
-        <v>0.044319160965529576</v>
+        <v>0.044317367800741157</v>
       </c>
       <c r="G18" s="236">
-        <v>0.11757417425475608</v>
+        <v>0.11757331290026386</v>
       </c>
       <c r="H18" s="236">
-        <v>0.10513045050405624</v>
+        <v>0.1051322501150514</v>
       </c>
       <c r="I18" s="236">
-        <v>0.08536845980521772</v>
+        <v>0.085371510519922311</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -13089,31 +13089,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.1215852281021541</v>
+        <v>2.1215849114592205</v>
       </c>
       <c r="C19" s="236">
-        <v>0.39925641312219506</v>
+        <v>0.3992551633028914</v>
       </c>
       <c r="D19" s="236">
-        <v>0.52068477872179841</v>
+        <v>0.52068135049587849</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1338185013288591</v>
+        <v>1.1338136034024848</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5992728226109718</v>
+        <v>1.5992709898556663</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6981079606161158</v>
+        <v>1.6981168406115774</v>
       </c>
       <c r="H19" s="236">
-        <v>0.86662755533743019</v>
+        <v>0.86665607569671521</v>
       </c>
       <c r="I19" s="236">
-        <v>0.42159796790104226</v>
+        <v>0.42163458571647294</v>
       </c>
       <c r="J19" s="236">
-        <v>0.19877671916110767</v>
+        <v>0.19874808676396591</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -13122,28 +13122,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.1215852281021541</v>
+        <v>2.1215849114592205</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2273321401065842</v>
+        <v>1.2273313389476612</v>
       </c>
       <c r="D20" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="E20" s="236">
-        <v>0.97039947732158593</v>
+        <v>0.9703966049633449</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0670434202060997</v>
+        <v>1.0670407076118675</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1534940433629459</v>
+        <v>1.1534929188576315</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1223463118392807</v>
+        <v>1.122348406149416</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0955489792560635</v>
+        <v>1.0955523937803116</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -13186,28 +13186,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -13217,28 +13217,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -13609,31 +13609,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>33.143267013582296</v>
+        <v>33.1437599000236</v>
       </c>
       <c r="C51" s="246">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D51" s="246">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E51" s="246">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F51" s="246">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G51" s="246">
-        <v>223.275762864114</v>
+        <v>223.269206914738</v>
       </c>
       <c r="H51" s="246">
-        <v>300.438623471273</v>
+        <v>300.440448590323</v>
       </c>
       <c r="I51" s="246">
-        <v>245.57759921162298</v>
+        <v>245.592937387846</v>
       </c>
       <c r="J51" s="246">
-        <v>13.361689755736279</v>
+        <v>13.354105161668713</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -13644,31 +13644,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>33.143267013582296</v>
+        <v>33.1437599000236</v>
       </c>
       <c r="C52" s="248">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D52" s="248">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E52" s="248">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F52" s="248">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G52" s="248">
-        <v>223.275762864114</v>
+        <v>223.269206914738</v>
       </c>
       <c r="H52" s="248">
-        <v>300.438623471273</v>
+        <v>300.440448590323</v>
       </c>
       <c r="I52" s="248">
-        <v>245.57759921162298</v>
+        <v>245.592937387846</v>
       </c>
       <c r="J52" s="248">
-        <v>13.361689755736279</v>
+        <v>13.354105161668713</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -13749,31 +13749,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>155.21149729076831</v>
+        <v>155.2119901772096</v>
       </c>
       <c r="C55" s="248">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D55" s="248">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E55" s="248">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F55" s="248">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G55" s="248">
-        <v>330.207532586928</v>
+        <v>330.200976637552</v>
       </c>
       <c r="H55" s="248">
-        <v>300.438623471273</v>
+        <v>300.440448590323</v>
       </c>
       <c r="I55" s="248">
-        <v>245.57759921162298</v>
+        <v>245.592937387846</v>
       </c>
       <c r="J55" s="248">
-        <v>13.361689755736052</v>
+        <v>13.354105161668713</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -13784,31 +13784,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2155.2114972907643</v>
+        <v>2155.2119901772057</v>
       </c>
       <c r="C56" s="248">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D56" s="248">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E56" s="248">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F56" s="248">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G56" s="248">
-        <v>2082.2075325869291</v>
+        <v>2082.2009766375531</v>
       </c>
       <c r="H56" s="248">
-        <v>300.438623471273</v>
+        <v>300.440448590323</v>
       </c>
       <c r="I56" s="248">
-        <v>245.57759921162298</v>
+        <v>245.592937387846</v>
       </c>
       <c r="J56" s="248">
-        <v>13.361689755739462</v>
+        <v>13.354105161670304</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -13994,31 +13994,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>3023.23970045706</v>
+        <v>3023.2351205650402</v>
       </c>
       <c r="C62" s="246">
-        <v>3134.55094309792</v>
+        <v>3134.53326451276</v>
       </c>
       <c r="D62" s="246">
-        <v>7276.24134550082</v>
+        <v>7276.1625642507406</v>
       </c>
       <c r="E62" s="246">
-        <v>13183.7867042888</v>
+        <v>13183.6841726592</v>
       </c>
       <c r="F62" s="246">
-        <v>8061.28887801824</v>
+        <v>8061.26791234261</v>
       </c>
       <c r="G62" s="246">
-        <v>11454.0317661738</v>
+        <v>11454.156572577</v>
       </c>
       <c r="H62" s="246">
-        <v>9632.74210753029</v>
+        <v>9633.07796957545</v>
       </c>
       <c r="I62" s="246">
-        <v>1582.4161258292402</v>
+        <v>1582.55955771817</v>
       </c>
       <c r="J62" s="246">
-        <v>452.7024291038324</v>
+        <v>452.3228657990403</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -14064,31 +14064,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>3084.9042158688121</v>
+        <v>3084.8996359767925</v>
       </c>
       <c r="C64" s="248">
-        <v>3191.0592523360883</v>
+        <v>3191.0415737509279</v>
       </c>
       <c r="D64" s="248">
-        <v>7375.4143652535386</v>
+        <v>7375.3355840034583</v>
       </c>
       <c r="E64" s="248">
-        <v>13338.12501901925</v>
+        <v>13338.02248738965</v>
       </c>
       <c r="F64" s="248">
-        <v>8168.6572708753356</v>
+        <v>8168.636305199705</v>
       </c>
       <c r="G64" s="248">
-        <v>11578.93518326063</v>
+        <v>11579.059989663829</v>
       </c>
       <c r="H64" s="248">
-        <v>9719.8940898382134</v>
+        <v>9720.2299518833734</v>
       </c>
       <c r="I64" s="248">
-        <v>1582.4161258292402</v>
+        <v>1582.55955771817</v>
       </c>
       <c r="J64" s="248">
-        <v>463.59447771889245</v>
+        <v>463.21491441409307</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -14099,31 +14099,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>3255.2282833665163</v>
+        <v>3255.2237034744967</v>
       </c>
       <c r="C65" s="248">
-        <v>3347.1413201606</v>
+        <v>3347.1236415754397</v>
       </c>
       <c r="D65" s="248">
-        <v>7649.3409824907485</v>
+        <v>7649.2622012406682</v>
       </c>
       <c r="E65" s="248">
-        <v>13764.424153296093</v>
+        <v>13764.321621666493</v>
       </c>
       <c r="F65" s="248">
-        <v>8465.2203958752052</v>
+        <v>8465.1994301995746</v>
       </c>
       <c r="G65" s="248">
-        <v>11923.931943561714</v>
+        <v>11924.056749964913</v>
       </c>
       <c r="H65" s="248">
-        <v>9960.6173002300438</v>
+        <v>9960.953162275202</v>
       </c>
       <c r="I65" s="248">
-        <v>1582.4161258292402</v>
+        <v>1582.55955771817</v>
       </c>
       <c r="J65" s="248">
-        <v>493.67949518984096</v>
+        <v>493.29993188504886</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -14239,31 +14239,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4468.3507186057805</v>
+        <v>4468.34613871376</v>
       </c>
       <c r="C69" s="248">
-        <v>4567.57117844446</v>
+        <v>4567.5534998593</v>
       </c>
       <c r="D69" s="248">
-        <v>10112.428112940166</v>
+        <v>10112.349331690086</v>
       </c>
       <c r="E69" s="248">
-        <v>18781.680437944447</v>
+        <v>18781.577906314847</v>
       </c>
       <c r="F69" s="248">
-        <v>17865.542123703446</v>
+        <v>17865.521158027816</v>
       </c>
       <c r="G69" s="248">
-        <v>11923.931943561714</v>
+        <v>11924.056749964913</v>
       </c>
       <c r="H69" s="248">
-        <v>9960.6173002300438</v>
+        <v>9960.953162275202</v>
       </c>
       <c r="I69" s="248">
-        <v>1582.4161258292402</v>
+        <v>1582.55955771817</v>
       </c>
       <c r="J69" s="248">
-        <v>615.46205874071165</v>
+        <v>615.08249543592683</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -14519,31 +14519,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5444.7271626846841</v>
+        <v>5444.7225827926641</v>
       </c>
       <c r="C77" s="248">
-        <v>5526.7148012889165</v>
+        <v>5526.6971227037575</v>
       </c>
       <c r="D77" s="248">
-        <v>11899.725919194369</v>
+        <v>11899.64713794429</v>
       </c>
       <c r="E77" s="248">
-        <v>23798.490750349159</v>
+        <v>23798.38821871956</v>
       </c>
       <c r="F77" s="248">
-        <v>20484.299316339417</v>
+        <v>20484.27835066379</v>
       </c>
       <c r="G77" s="248">
-        <v>20530.646027710431</v>
+        <v>20530.770834113631</v>
       </c>
       <c r="H77" s="248">
-        <v>9960.6173002300438</v>
+        <v>9960.953162275202</v>
       </c>
       <c r="I77" s="248">
-        <v>1582.4161258292402</v>
+        <v>1582.55955771817</v>
       </c>
       <c r="J77" s="248">
-        <v>897.3625963737577</v>
+        <v>896.98303306897287</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -14729,31 +14729,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>27383.938659975447</v>
+        <v>27383.934572969869</v>
       </c>
       <c r="C83" s="248">
-        <v>5565.160900021282</v>
+        <v>5565.1434790224148</v>
       </c>
       <c r="D83" s="248">
-        <v>11984.949110051399</v>
+        <v>11984.870200287051</v>
       </c>
       <c r="E83" s="248">
-        <v>23962.411488007067</v>
+        <v>23962.307973972784</v>
       </c>
       <c r="F83" s="248">
-        <v>20617.912346775789</v>
+        <v>20617.888718794555</v>
       </c>
       <c r="G83" s="248">
-        <v>22612.853560297357</v>
+        <v>22612.971810751184</v>
       </c>
       <c r="H83" s="248">
-        <v>10261.055923701317</v>
+        <v>10261.393610865525</v>
       </c>
       <c r="I83" s="248">
-        <v>1827.993725040863</v>
+        <v>1828.152495106016</v>
       </c>
       <c r="J83" s="248">
-        <v>2687.7242861294944</v>
+        <v>2687.3371382306213</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -15109,31 +15109,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>14476.637884473952</v>
+        <v>14476.633797468374</v>
       </c>
       <c r="C97" s="248">
-        <v>-8373.6531480777485</v>
+        <v>-8373.6705690766157</v>
       </c>
       <c r="D97" s="248">
-        <v>-11032.718392103394</v>
+        <v>-11032.797301867744</v>
       </c>
       <c r="E97" s="248">
-        <v>2828.1545854052642</v>
+        <v>2828.0510713709818</v>
       </c>
       <c r="F97" s="248">
-        <v>7725.85787347148</v>
+        <v>7725.8342454902458</v>
       </c>
       <c r="G97" s="248">
-        <v>9296.35420645601</v>
+        <v>9296.4724569098362</v>
       </c>
       <c r="H97" s="248">
-        <v>-1579.1583188588229</v>
+        <v>-1578.820631694613</v>
       </c>
       <c r="I97" s="248">
-        <v>-2507.8756676454191</v>
+        <v>-2507.716897580266</v>
       </c>
       <c r="J97" s="248">
-        <v>2812.4009768787073</v>
+        <v>2812.0138289798306</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -15323,31 +15323,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27383.938659975447</v>
+        <v>27383.934572969869</v>
       </c>
       <c r="C9" s="231">
-        <v>5565.160900021282</v>
+        <v>5565.1434790224148</v>
       </c>
       <c r="D9" s="231">
-        <v>11984.949110051399</v>
+        <v>11984.870200287051</v>
       </c>
       <c r="E9" s="231">
-        <v>23962.411488007067</v>
+        <v>23962.307973972784</v>
       </c>
       <c r="F9" s="231">
-        <v>20617.912346775789</v>
+        <v>20617.888718794555</v>
       </c>
       <c r="G9" s="231">
-        <v>22612.853560297357</v>
+        <v>22612.971810751184</v>
       </c>
       <c r="H9" s="231">
-        <v>10257.192745290709</v>
+        <v>10257.530108850704</v>
       </c>
       <c r="I9" s="231">
-        <v>1831.8095978802562</v>
+        <v>1831.968727970047</v>
       </c>
       <c r="J9" s="231">
-        <v>2687.7715917007154</v>
+        <v>2687.3844073814253</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -15373,28 +15373,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27383.938659975447</v>
+        <v>27383.934572969869</v>
       </c>
       <c r="C11" s="231">
-        <v>32949.099559996728</v>
+        <v>32949.078051992285</v>
       </c>
       <c r="D11" s="231">
-        <v>44934.048670048127</v>
+        <v>44933.948252279333</v>
       </c>
       <c r="E11" s="231">
-        <v>68896.4601580552</v>
+        <v>68896.256226252124</v>
       </c>
       <c r="F11" s="231">
-        <v>89514.372504830986</v>
+        <v>89514.144945046675</v>
       </c>
       <c r="G11" s="231">
-        <v>112127.22606512834</v>
+        <v>112127.11675579786</v>
       </c>
       <c r="H11" s="231">
-        <v>122384.41881041905</v>
+        <v>122384.64686464856</v>
       </c>
       <c r="I11" s="231">
-        <v>124216.22840829931</v>
+        <v>124216.6155926186</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -15511,31 +15511,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>14476.637884473952</v>
+        <v>14476.633797468374</v>
       </c>
       <c r="C15" s="231">
-        <v>-8373.6531480777485</v>
+        <v>-8373.6705690766139</v>
       </c>
       <c r="D15" s="231">
-        <v>-11032.718392103394</v>
+        <v>-11032.797301867742</v>
       </c>
       <c r="E15" s="231">
-        <v>2828.1545854052674</v>
+        <v>2828.0510713709846</v>
       </c>
       <c r="F15" s="231">
-        <v>7725.8578734714793</v>
+        <v>7725.8342454902449</v>
       </c>
       <c r="G15" s="231">
-        <v>9296.3542064560079</v>
+        <v>9296.4724569098344</v>
       </c>
       <c r="H15" s="231">
-        <v>-1583.0216038546805</v>
+        <v>-1582.6842402946859</v>
       </c>
       <c r="I15" s="231">
-        <v>-2509.0995272500454</v>
+        <v>-2508.9403971602546</v>
       </c>
       <c r="J15" s="231">
-        <v>-10828.511878520847</v>
+        <v>-10828.899062840137</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -15544,31 +15544,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.11407550498387717</v>
+        <v>0.11407547277838658</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.065984154542628654</v>
+        <v>-0.0659842918196165</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.086937514909722236</v>
+        <v>-0.086938136716476558</v>
       </c>
       <c r="E16" s="236">
-        <v>0.022285779687049003</v>
+        <v>0.022284963999330075</v>
       </c>
       <c r="F16" s="237">
-        <v>0.060879545746954207</v>
+        <v>0.060879359559117469</v>
       </c>
       <c r="G16" s="236">
-        <v>0.073255013289226539</v>
+        <v>0.073255945099522726</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.0124741663293094</v>
+        <v>-0.012471507913814265</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.019771634678576285</v>
+        <v>-0.019770380737882606</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.085328373246870426</v>
+        <v>-0.0853314242485669</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -15577,28 +15577,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>14476.637884473952</v>
+        <v>14476.633797468374</v>
       </c>
       <c r="C17" s="231">
-        <v>6102.9847363962035</v>
+        <v>6102.96322839176</v>
       </c>
       <c r="D17" s="231">
-        <v>-4929.73365570719</v>
+        <v>-4929.834073475984</v>
       </c>
       <c r="E17" s="231">
-        <v>-2101.5790703019156</v>
+        <v>-2101.7830021049886</v>
       </c>
       <c r="F17" s="231">
-        <v>5624.2788031695673</v>
+        <v>5624.0512433852564</v>
       </c>
       <c r="G17" s="231">
-        <v>14920.63300962557</v>
+        <v>14920.523700295089</v>
       </c>
       <c r="H17" s="231">
-        <v>13337.611405770891</v>
+        <v>13337.839460000396</v>
       </c>
       <c r="I17" s="231">
-        <v>10828.511878520847</v>
+        <v>10828.899062840137</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -15610,28 +15610,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.11407550498387717</v>
+        <v>0.11407547277838658</v>
       </c>
       <c r="C18" s="236">
-        <v>0.048091350441248515</v>
+        <v>0.048091180958770081</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.016560384781424662</v>
+        <v>-0.016561991758376315</v>
       </c>
       <c r="F18" s="237">
-        <v>0.044319160965529576</v>
+        <v>0.044317367800741157</v>
       </c>
       <c r="G18" s="236">
-        <v>0.11757417425475608</v>
+        <v>0.11757331290026386</v>
       </c>
       <c r="H18" s="236">
-        <v>0.1051000079254467</v>
+        <v>0.10510180498644955</v>
       </c>
       <c r="I18" s="236">
-        <v>0.085328373246870426</v>
+        <v>0.0853314242485669</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -15643,31 +15643,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.1215852281021541</v>
+        <v>2.1215849114592205</v>
       </c>
       <c r="C19" s="236">
-        <v>0.39925641312219506</v>
+        <v>0.3992551633028914</v>
       </c>
       <c r="D19" s="236">
-        <v>0.52068477872179841</v>
+        <v>0.52068135049587849</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1338185013288591</v>
+        <v>1.1338136034024848</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5992728226109718</v>
+        <v>1.5992709898556663</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6981079606161158</v>
+        <v>1.6981168406115774</v>
       </c>
       <c r="H19" s="236">
-        <v>0.86630127148256053</v>
+        <v>0.86632976451064647</v>
       </c>
       <c r="I19" s="236">
-        <v>0.4219875480174376</v>
+        <v>0.42202420625772868</v>
       </c>
       <c r="J19" s="236">
-        <v>0.19885433726085183</v>
+        <v>0.1988256914929421</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -15676,28 +15676,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.1215852281021541</v>
+        <v>2.1215849114592205</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2273321401065842</v>
+        <v>1.2273313389476612</v>
       </c>
       <c r="D20" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="E20" s="236">
-        <v>0.97039947732158593</v>
+        <v>0.9703966049633449</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0670434202060997</v>
+        <v>1.0670407076118675</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1534940433629459</v>
+        <v>1.1534929188576315</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1223108839516778</v>
+        <v>1.1223129752942394</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0954998672689296</v>
+        <v>1.0955032819626118</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -15740,28 +15740,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -15771,28 +15771,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -16163,31 +16163,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>33.143267013582296</v>
+        <v>33.1437599000236</v>
       </c>
       <c r="C51" s="246">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D51" s="246">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E51" s="246">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F51" s="246">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G51" s="246">
-        <v>223.275762864114</v>
+        <v>223.269206914738</v>
       </c>
       <c r="H51" s="246">
-        <v>299.825775501227</v>
+        <v>299.827559650391</v>
       </c>
       <c r="I51" s="246">
-        <v>246.181884563676</v>
+        <v>246.197270229117</v>
       </c>
       <c r="J51" s="246">
-        <v>13.370252373729272</v>
+        <v>13.362661260329787</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -16198,31 +16198,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>33.143267013582296</v>
+        <v>33.1437599000236</v>
       </c>
       <c r="C52" s="248">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D52" s="248">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E52" s="248">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F52" s="248">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G52" s="248">
-        <v>223.275762864114</v>
+        <v>223.269206914738</v>
       </c>
       <c r="H52" s="248">
-        <v>299.825775501227</v>
+        <v>299.827559650391</v>
       </c>
       <c r="I52" s="248">
-        <v>246.181884563676</v>
+        <v>246.197270229117</v>
       </c>
       <c r="J52" s="248">
-        <v>13.370252373729272</v>
+        <v>13.362661260329787</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -16303,31 +16303,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>155.21149729076831</v>
+        <v>155.2119901772096</v>
       </c>
       <c r="C55" s="248">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D55" s="248">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E55" s="248">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F55" s="248">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G55" s="248">
-        <v>330.207532586928</v>
+        <v>330.200976637552</v>
       </c>
       <c r="H55" s="248">
-        <v>299.825775501227</v>
+        <v>299.827559650391</v>
       </c>
       <c r="I55" s="248">
-        <v>246.181884563676</v>
+        <v>246.197270229117</v>
       </c>
       <c r="J55" s="248">
-        <v>13.370252373729045</v>
+        <v>13.36266126032956</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -16338,31 +16338,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2155.2114972907643</v>
+        <v>2155.2119901772057</v>
       </c>
       <c r="C56" s="248">
-        <v>38.4460987323651</v>
+        <v>38.4463563186574</v>
       </c>
       <c r="D56" s="248">
-        <v>85.223190857030389</v>
+        <v>85.223062342759292</v>
       </c>
       <c r="E56" s="248">
-        <v>163.92073765790403</v>
+        <v>163.91975525322002</v>
       </c>
       <c r="F56" s="248">
-        <v>133.61303043637201</v>
+        <v>133.610368130764</v>
       </c>
       <c r="G56" s="248">
-        <v>2082.2075325869291</v>
+        <v>2082.2009766375531</v>
       </c>
       <c r="H56" s="248">
-        <v>299.825775501227</v>
+        <v>299.827559650391</v>
       </c>
       <c r="I56" s="248">
-        <v>246.181884563676</v>
+        <v>246.197270229117</v>
       </c>
       <c r="J56" s="248">
-        <v>13.370252373732</v>
+        <v>13.362661260332061</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -16548,31 +16548,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>3023.23970045706</v>
+        <v>3023.2351205650402</v>
       </c>
       <c r="C62" s="246">
-        <v>3134.55094309792</v>
+        <v>3134.53326451276</v>
       </c>
       <c r="D62" s="246">
-        <v>7276.24134550082</v>
+        <v>7276.1625642507406</v>
       </c>
       <c r="E62" s="246">
-        <v>13183.7867042888</v>
+        <v>13183.6841726592</v>
       </c>
       <c r="F62" s="246">
-        <v>8061.28887801824</v>
+        <v>8061.26791234261</v>
       </c>
       <c r="G62" s="246">
-        <v>11454.0317661738</v>
+        <v>11454.156572577</v>
       </c>
       <c r="H62" s="246">
-        <v>9629.49177708973</v>
+        <v>9629.82735650056</v>
       </c>
       <c r="I62" s="246">
-        <v>1585.62771331658</v>
+        <v>1585.77145774093</v>
       </c>
       <c r="J62" s="246">
-        <v>452.74117205705261</v>
+        <v>452.361578851167</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -16618,31 +16618,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>3084.9042158688121</v>
+        <v>3084.8996359767925</v>
       </c>
       <c r="C64" s="248">
-        <v>3191.0592523360883</v>
+        <v>3191.0415737509279</v>
       </c>
       <c r="D64" s="248">
-        <v>7375.4143652535386</v>
+        <v>7375.3355840034583</v>
       </c>
       <c r="E64" s="248">
-        <v>13338.12501901925</v>
+        <v>13338.02248738965</v>
       </c>
       <c r="F64" s="248">
-        <v>8168.6572708753356</v>
+        <v>8168.636305199705</v>
       </c>
       <c r="G64" s="248">
-        <v>11578.93518326063</v>
+        <v>11579.059989663829</v>
       </c>
       <c r="H64" s="248">
-        <v>9716.6437593976534</v>
+        <v>9716.9793388084836</v>
       </c>
       <c r="I64" s="248">
-        <v>1585.62771331658</v>
+        <v>1585.77145774093</v>
       </c>
       <c r="J64" s="248">
-        <v>463.63322067211266</v>
+        <v>463.25362746621977</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -16653,31 +16653,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>3255.2282833665163</v>
+        <v>3255.2237034744967</v>
       </c>
       <c r="C65" s="248">
-        <v>3347.1413201606</v>
+        <v>3347.1236415754397</v>
       </c>
       <c r="D65" s="248">
-        <v>7649.3409824907485</v>
+        <v>7649.2622012406682</v>
       </c>
       <c r="E65" s="248">
-        <v>13764.424153296093</v>
+        <v>13764.321621666493</v>
       </c>
       <c r="F65" s="248">
-        <v>8465.2203958752052</v>
+        <v>8465.1994301995746</v>
       </c>
       <c r="G65" s="248">
-        <v>11923.931943561714</v>
+        <v>11924.056749964913</v>
       </c>
       <c r="H65" s="248">
-        <v>9957.366969789482</v>
+        <v>9957.702549200314</v>
       </c>
       <c r="I65" s="248">
-        <v>1585.62771331658</v>
+        <v>1585.77145774093</v>
       </c>
       <c r="J65" s="248">
-        <v>493.71823814306117</v>
+        <v>493.33864493717556</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -16793,31 +16793,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4468.3507186057805</v>
+        <v>4468.34613871376</v>
       </c>
       <c r="C69" s="248">
-        <v>4567.57117844446</v>
+        <v>4567.5534998593</v>
       </c>
       <c r="D69" s="248">
-        <v>10112.428112940166</v>
+        <v>10112.349331690086</v>
       </c>
       <c r="E69" s="248">
-        <v>18781.680437944447</v>
+        <v>18781.577906314847</v>
       </c>
       <c r="F69" s="248">
-        <v>17865.542123703446</v>
+        <v>17865.521158027816</v>
       </c>
       <c r="G69" s="248">
-        <v>11923.931943561714</v>
+        <v>11924.056749964913</v>
       </c>
       <c r="H69" s="248">
-        <v>9957.366969789482</v>
+        <v>9957.702549200314</v>
       </c>
       <c r="I69" s="248">
-        <v>1585.62771331658</v>
+        <v>1585.77145774093</v>
       </c>
       <c r="J69" s="248">
-        <v>615.50080169393914</v>
+        <v>615.121208488039</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -17073,31 +17073,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5444.7271626846841</v>
+        <v>5444.7225827926641</v>
       </c>
       <c r="C77" s="248">
-        <v>5526.7148012889165</v>
+        <v>5526.6971227037575</v>
       </c>
       <c r="D77" s="248">
-        <v>11899.725919194369</v>
+        <v>11899.64713794429</v>
       </c>
       <c r="E77" s="248">
-        <v>23798.490750349159</v>
+        <v>23798.38821871956</v>
       </c>
       <c r="F77" s="248">
-        <v>20484.299316339417</v>
+        <v>20484.27835066379</v>
       </c>
       <c r="G77" s="248">
-        <v>20530.646027710431</v>
+        <v>20530.770834113631</v>
       </c>
       <c r="H77" s="248">
-        <v>9957.366969789482</v>
+        <v>9957.702549200314</v>
       </c>
       <c r="I77" s="248">
-        <v>1585.62771331658</v>
+        <v>1585.77145774093</v>
       </c>
       <c r="J77" s="248">
-        <v>897.40133932698518</v>
+        <v>897.021746121085</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -17283,31 +17283,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>27383.938659975447</v>
+        <v>27383.934572969869</v>
       </c>
       <c r="C83" s="248">
-        <v>5565.160900021282</v>
+        <v>5565.1434790224148</v>
       </c>
       <c r="D83" s="248">
-        <v>11984.949110051399</v>
+        <v>11984.870200287051</v>
       </c>
       <c r="E83" s="248">
-        <v>23962.411488007067</v>
+        <v>23962.307973972784</v>
       </c>
       <c r="F83" s="248">
-        <v>20617.912346775789</v>
+        <v>20617.888718794555</v>
       </c>
       <c r="G83" s="248">
-        <v>22612.853560297357</v>
+        <v>22612.971810751184</v>
       </c>
       <c r="H83" s="248">
-        <v>10257.192745290709</v>
+        <v>10257.530108850704</v>
       </c>
       <c r="I83" s="248">
-        <v>1831.8095978802562</v>
+        <v>1831.968727970047</v>
       </c>
       <c r="J83" s="248">
-        <v>2687.7715917007154</v>
+        <v>2687.3844073814253</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -17663,31 +17663,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>14476.637884473952</v>
+        <v>14476.633797468374</v>
       </c>
       <c r="C97" s="248">
-        <v>-8373.6531480777485</v>
+        <v>-8373.6705690766157</v>
       </c>
       <c r="D97" s="248">
-        <v>-11032.718392103394</v>
+        <v>-11032.797301867744</v>
       </c>
       <c r="E97" s="248">
-        <v>2828.1545854052642</v>
+        <v>2828.0510713709818</v>
       </c>
       <c r="F97" s="248">
-        <v>7725.85787347148</v>
+        <v>7725.8342454902458</v>
       </c>
       <c r="G97" s="248">
-        <v>9296.35420645601</v>
+        <v>9296.4724569098362</v>
       </c>
       <c r="H97" s="248">
-        <v>-1583.0216038546805</v>
+        <v>-1582.6842402946857</v>
       </c>
       <c r="I97" s="248">
-        <v>-2509.099527250045</v>
+        <v>-2508.9403971602546</v>
       </c>
       <c r="J97" s="248">
-        <v>2817.4881214791894</v>
+        <v>2817.1009371598921</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -17877,31 +17877,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>26966.9741641543</v>
+        <v>26966.970088215337</v>
       </c>
       <c r="C9" s="231">
-        <v>6100.4652923296353</v>
+        <v>6100.4480620583963</v>
       </c>
       <c r="D9" s="231">
-        <v>11056.712754360082</v>
+        <v>11056.630977337549</v>
       </c>
       <c r="E9" s="231">
-        <v>22383.961989233452</v>
+        <v>22383.839678780736</v>
       </c>
       <c r="F9" s="231">
-        <v>20133.973274308857</v>
+        <v>20133.927583484608</v>
       </c>
       <c r="G9" s="231">
-        <v>22234.066141304258</v>
+        <v>22234.145980116245</v>
       </c>
       <c r="H9" s="231">
-        <v>11946.45536936057</v>
+        <v>11946.820503442168</v>
       </c>
       <c r="I9" s="231">
-        <v>3320.8388916912809</v>
+        <v>3321.1112798520262</v>
       </c>
       <c r="J9" s="231">
-        <v>2760.5521232575993</v>
+        <v>2760.1058467129769</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -17927,28 +17927,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>26966.9741641543</v>
+        <v>26966.970088215337</v>
       </c>
       <c r="C11" s="231">
-        <v>33067.439456483939</v>
+        <v>33067.418150273734</v>
       </c>
       <c r="D11" s="231">
-        <v>44124.152210844019</v>
+        <v>44124.049127611281</v>
       </c>
       <c r="E11" s="231">
-        <v>66508.114200077471</v>
+        <v>66507.888806392017</v>
       </c>
       <c r="F11" s="231">
-        <v>86642.087474386324</v>
+        <v>86641.816389876622</v>
       </c>
       <c r="G11" s="231">
-        <v>108876.15361569058</v>
+        <v>108875.96236999286</v>
       </c>
       <c r="H11" s="231">
-        <v>120822.60898505115</v>
+        <v>120822.78287343503</v>
       </c>
       <c r="I11" s="231">
-        <v>124143.44787674243</v>
+        <v>124143.89415328705</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -18065,31 +18065,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>13737.888752910854</v>
+        <v>13737.884676971891</v>
       </c>
       <c r="C15" s="231">
-        <v>-8048.3454846014547</v>
+        <v>-8048.3627148726937</v>
       </c>
       <c r="D15" s="231">
-        <v>-12526.053859991314</v>
+        <v>-12526.135637013847</v>
       </c>
       <c r="E15" s="231">
-        <v>1604.6215465271926</v>
+        <v>1604.4992360744764</v>
       </c>
       <c r="F15" s="231">
-        <v>7450.8752549062865</v>
+        <v>7450.8295640820379</v>
       </c>
       <c r="G15" s="231">
-        <v>9097.8939509280081</v>
+        <v>9097.9737897399955</v>
       </c>
       <c r="H15" s="231">
-        <v>206.82188092408251</v>
+        <v>207.18701500568022</v>
       </c>
       <c r="I15" s="231">
-        <v>-972.85909491958319</v>
+        <v>-972.58670675883786</v>
       </c>
       <c r="J15" s="231">
-        <v>-10550.842946684061</v>
+        <v>-10551.289223228683</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -18098,31 +18098,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.10825418231821575</v>
+        <v>0.10825415019992977</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.063420739177657545</v>
+        <v>-0.063420874951716985</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.098704956975282976</v>
+        <v>-0.098705601375952245</v>
       </c>
       <c r="E16" s="236">
-        <v>0.012644373278440335</v>
+        <v>0.012643409475465517</v>
       </c>
       <c r="F16" s="237">
-        <v>0.058712690339991526</v>
+        <v>0.0587123302975638</v>
       </c>
       <c r="G16" s="236">
-        <v>0.07169115198045771</v>
+        <v>0.071691781108081651</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0016297506849593587</v>
+        <v>0.0016326279313944414</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.0076661026832848689</v>
+        <v>-0.0076639562721335626</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.083140349765839214</v>
+        <v>-0.083143866412632231</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -18131,28 +18131,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>13737.888752910854</v>
+        <v>13737.884676971891</v>
       </c>
       <c r="C17" s="231">
-        <v>5689.5432683094041</v>
+        <v>5689.5219620991993</v>
       </c>
       <c r="D17" s="231">
-        <v>-6836.5105916819084</v>
+        <v>-6836.6136749146463</v>
       </c>
       <c r="E17" s="231">
-        <v>-5231.8890451547195</v>
+        <v>-5232.1144388401735</v>
       </c>
       <c r="F17" s="231">
-        <v>2218.9862097515579</v>
+        <v>2218.7151252418553</v>
       </c>
       <c r="G17" s="231">
-        <v>11316.880160679561</v>
+        <v>11316.688914981845</v>
       </c>
       <c r="H17" s="231">
-        <v>11523.702041603639</v>
+        <v>11523.875929987524</v>
       </c>
       <c r="I17" s="231">
-        <v>10550.842946684061</v>
+        <v>10551.289223228683</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -18164,28 +18164,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.10825418231821575</v>
+        <v>0.10825415019992977</v>
       </c>
       <c r="C18" s="236">
-        <v>0.044833443140558239</v>
+        <v>0.04483327524821281</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.041227140556284424</v>
+        <v>-0.041228916652273941</v>
       </c>
       <c r="F18" s="237">
-        <v>0.017485549783707033</v>
+        <v>0.017483413645289783</v>
       </c>
       <c r="G18" s="236">
-        <v>0.0891767017641647</v>
+        <v>0.089175194753371392</v>
       </c>
       <c r="H18" s="236">
-        <v>0.090806452449124039</v>
+        <v>0.090807822684765824</v>
       </c>
       <c r="I18" s="236">
-        <v>0.083140349765839214</v>
+        <v>0.083143866412632231</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -18197,31 +18197,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.0384609612721203</v>
+        <v>2.0384606531677552</v>
       </c>
       <c r="C19" s="236">
-        <v>0.43116452601628757</v>
+        <v>0.43116330822692633</v>
       </c>
       <c r="D19" s="236">
-        <v>0.46884714313508369</v>
+        <v>0.46884367547482692</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0772219672203518</v>
+        <v>1.0772160810637121</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5874649272210903</v>
+        <v>1.5874613247239577</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6925833354706827</v>
+        <v>1.6925894132542891</v>
       </c>
       <c r="H19" s="236">
-        <v>1.0176174052731546</v>
+        <v>1.0176485079546784</v>
       </c>
       <c r="I19" s="236">
-        <v>0.77342162910543033</v>
+        <v>0.773485068164627</v>
       </c>
       <c r="J19" s="236">
-        <v>0.20738263035188378</v>
+        <v>0.20734910444852972</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -18230,28 +18230,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.0384609612721203</v>
+        <v>2.0384606531677552</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2078152108256921</v>
+        <v>1.2078144325989775</v>
       </c>
       <c r="D20" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="E20" s="236">
-        <v>0.92707152483294</v>
+        <v>0.92706838301979178</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0262841115347785</v>
+        <v>1.0262809005118991</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1160000455097514</v>
+        <v>1.1159980852071483</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1054329120378683</v>
+        <v>1.1054345029813528</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0928831850733634</v>
+        <v>1.0928871138198244</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -18294,28 +18294,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -18325,28 +18325,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -18717,31 +18717,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>25.8255783530774</v>
+        <v>25.8260804652412</v>
       </c>
       <c r="C51" s="246">
-        <v>30.779366860738598</v>
+        <v>30.779637630240398</v>
       </c>
       <c r="D51" s="246">
-        <v>66.6351742861643</v>
+        <v>66.6351189736093</v>
       </c>
       <c r="E51" s="246">
-        <v>134.277093408795</v>
+        <v>134.276267690477</v>
       </c>
       <c r="F51" s="246">
-        <v>112.114795616056</v>
+        <v>112.112439798946</v>
       </c>
       <c r="G51" s="246">
-        <v>191.90582316084</v>
+        <v>191.89926370142902</v>
       </c>
       <c r="H51" s="246">
-        <v>295.65000735557703</v>
+        <v>295.650026108173</v>
       </c>
       <c r="I51" s="246">
-        <v>365.04860581389096</v>
+        <v>365.065785557206</v>
       </c>
       <c r="J51" s="246">
-        <v>14.763555144860675</v>
+        <v>14.755380074677987</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -18752,31 +18752,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>25.8255783530774</v>
+        <v>25.8260804652412</v>
       </c>
       <c r="C52" s="248">
-        <v>30.779366860738598</v>
+        <v>30.779637630240398</v>
       </c>
       <c r="D52" s="248">
-        <v>66.6351742861643</v>
+        <v>66.6351189736093</v>
       </c>
       <c r="E52" s="248">
-        <v>134.277093408795</v>
+        <v>134.276267690477</v>
       </c>
       <c r="F52" s="248">
-        <v>112.114795616056</v>
+        <v>112.112439798946</v>
       </c>
       <c r="G52" s="248">
-        <v>191.90582316084</v>
+        <v>191.89926370142902</v>
       </c>
       <c r="H52" s="248">
-        <v>295.65000735557703</v>
+        <v>295.650026108173</v>
       </c>
       <c r="I52" s="248">
-        <v>365.04860581389096</v>
+        <v>365.065785557206</v>
       </c>
       <c r="J52" s="248">
-        <v>14.763555144860675</v>
+        <v>14.755380074677987</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -18857,31 +18857,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>147.89380863026341</v>
+        <v>147.89431074242719</v>
       </c>
       <c r="C55" s="248">
-        <v>30.779366860738598</v>
+        <v>30.779637630240398</v>
       </c>
       <c r="D55" s="248">
-        <v>66.6351742861643</v>
+        <v>66.6351189736093</v>
       </c>
       <c r="E55" s="248">
-        <v>134.277093408795</v>
+        <v>134.276267690477</v>
       </c>
       <c r="F55" s="248">
-        <v>112.114795616056</v>
+        <v>112.112439798946</v>
       </c>
       <c r="G55" s="248">
-        <v>298.837592883654</v>
+        <v>298.831033424243</v>
       </c>
       <c r="H55" s="248">
-        <v>295.65000735557703</v>
+        <v>295.650026108173</v>
       </c>
       <c r="I55" s="248">
-        <v>365.04860581389096</v>
+        <v>365.065785557206</v>
       </c>
       <c r="J55" s="248">
-        <v>14.763555144860675</v>
+        <v>14.755380074677987</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -18892,31 +18892,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2147.8938086302592</v>
+        <v>2147.8943107424234</v>
       </c>
       <c r="C56" s="248">
-        <v>30.779366860738598</v>
+        <v>30.779637630240398</v>
       </c>
       <c r="D56" s="248">
-        <v>66.6351742861643</v>
+        <v>66.6351189736093</v>
       </c>
       <c r="E56" s="248">
-        <v>134.277093408795</v>
+        <v>134.276267690477</v>
       </c>
       <c r="F56" s="248">
-        <v>112.114795616056</v>
+        <v>112.112439798946</v>
       </c>
       <c r="G56" s="248">
-        <v>2050.8375928836549</v>
+        <v>2050.8310334242442</v>
       </c>
       <c r="H56" s="248">
-        <v>295.65000735557703</v>
+        <v>295.650026108173</v>
       </c>
       <c r="I56" s="248">
-        <v>365.04860581389096</v>
+        <v>365.065785557206</v>
       </c>
       <c r="J56" s="248">
-        <v>14.763555144863858</v>
+        <v>14.755380074680943</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -19102,31 +19102,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>2613.5928932964202</v>
+        <v>2613.58831524529</v>
       </c>
       <c r="C62" s="246">
-        <v>3677.5220672779</v>
+        <v>3677.50456623716</v>
       </c>
       <c r="D62" s="246">
-        <v>6366.59300638037</v>
+        <v>6366.5112846703905</v>
       </c>
       <c r="E62" s="246">
-        <v>11640.757785859802</v>
+        <v>11640.6363011254</v>
       </c>
       <c r="F62" s="246">
-        <v>7601.0675394353193</v>
+        <v>7601.02420442818</v>
       </c>
       <c r="G62" s="246">
-        <v>11106.4556385178</v>
+        <v>11106.5420367892</v>
       </c>
       <c r="H62" s="246">
-        <v>11315.2531275742</v>
+        <v>11315.618242903202</v>
       </c>
       <c r="I62" s="246">
-        <v>2955.79028587739</v>
+        <v>2956.04549429482</v>
       </c>
       <c r="J62" s="246">
-        <v>523.96765578079794</v>
+        <v>523.52955430636212</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -19172,31 +19172,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>2675.2574087081725</v>
+        <v>2675.2528306570421</v>
       </c>
       <c r="C64" s="248">
-        <v>3734.0303765160679</v>
+        <v>3734.0128754753277</v>
       </c>
       <c r="D64" s="248">
-        <v>6465.7660261330884</v>
+        <v>6465.6843044231091</v>
       </c>
       <c r="E64" s="248">
-        <v>11793.56054241568</v>
+        <v>11793.439057681278</v>
       </c>
       <c r="F64" s="248">
-        <v>7707.8459707843822</v>
+        <v>7707.8026357772424</v>
       </c>
       <c r="G64" s="248">
-        <v>11231.401225673943</v>
+        <v>11231.487623945341</v>
       </c>
       <c r="H64" s="248">
-        <v>11404.445732106733</v>
+        <v>11404.810847435734</v>
       </c>
       <c r="I64" s="248">
-        <v>2955.79028587739</v>
+        <v>2956.04549429482</v>
       </c>
       <c r="J64" s="248">
-        <v>534.90243178454693</v>
+        <v>534.46433031010383</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -19207,31 +19207,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>2845.5814762058767</v>
+        <v>2845.5768981547462</v>
       </c>
       <c r="C65" s="248">
-        <v>3890.1124443405797</v>
+        <v>3890.0949432998395</v>
       </c>
       <c r="D65" s="248">
-        <v>6739.6926433702974</v>
+        <v>6739.6109216603181</v>
       </c>
       <c r="E65" s="248">
-        <v>12215.618298771589</v>
+        <v>12215.496814037189</v>
       </c>
       <c r="F65" s="248">
-        <v>8002.7795582285853</v>
+        <v>8002.7362232214455</v>
       </c>
       <c r="G65" s="248">
-        <v>11576.514464271886</v>
+        <v>11576.600862543284</v>
       </c>
       <c r="H65" s="248">
-        <v>11650.805362004994</v>
+        <v>11651.170477333995</v>
       </c>
       <c r="I65" s="248">
-        <v>2955.79028587739</v>
+        <v>2956.04549429482</v>
       </c>
       <c r="J65" s="248">
-        <v>565.10546692879871</v>
+        <v>564.6673654543556</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -19347,31 +19347,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>4058.7039114451404</v>
+        <v>4058.69933339401</v>
       </c>
       <c r="C69" s="248">
-        <v>5110.54230262444</v>
+        <v>5110.5248015837</v>
       </c>
       <c r="D69" s="248">
-        <v>9202.779773819715</v>
+        <v>9202.6980521097357</v>
       </c>
       <c r="E69" s="248">
-        <v>17232.874583419944</v>
+        <v>17232.753098685545</v>
       </c>
       <c r="F69" s="248">
-        <v>17403.101286056826</v>
+        <v>17403.05795104969</v>
       </c>
       <c r="G69" s="248">
-        <v>11576.514464271886</v>
+        <v>11576.600862543284</v>
       </c>
       <c r="H69" s="248">
-        <v>11650.805362004994</v>
+        <v>11651.170477333995</v>
       </c>
       <c r="I69" s="248">
-        <v>2955.79028587739</v>
+        <v>2956.04549429482</v>
       </c>
       <c r="J69" s="248">
-        <v>686.88803047967667</v>
+        <v>686.44992900524812</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -19627,31 +19627,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>5035.0803555240436</v>
+        <v>5035.0757774729136</v>
       </c>
       <c r="C77" s="248">
-        <v>6069.6859254688961</v>
+        <v>6069.6684244281569</v>
       </c>
       <c r="D77" s="248">
-        <v>10990.077580073918</v>
+        <v>10989.99585836394</v>
       </c>
       <c r="E77" s="248">
-        <v>22249.684895824659</v>
+        <v>22249.563411090257</v>
       </c>
       <c r="F77" s="248">
-        <v>20021.8584786928</v>
+        <v>20021.815143685661</v>
       </c>
       <c r="G77" s="248">
-        <v>20183.228548420604</v>
+        <v>20183.314946692</v>
       </c>
       <c r="H77" s="248">
-        <v>11650.805362004994</v>
+        <v>11651.170477333995</v>
       </c>
       <c r="I77" s="248">
-        <v>2955.79028587739</v>
+        <v>2956.04549429482</v>
       </c>
       <c r="J77" s="248">
-        <v>968.78856811272271</v>
+        <v>968.35046663830872</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -19837,31 +19837,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>26966.9741641543</v>
+        <v>26966.970088215337</v>
       </c>
       <c r="C83" s="248">
-        <v>6100.4652923296353</v>
+        <v>6100.4480620583963</v>
       </c>
       <c r="D83" s="248">
-        <v>11056.712754360082</v>
+        <v>11056.630977337549</v>
       </c>
       <c r="E83" s="248">
-        <v>22383.961989233452</v>
+        <v>22383.839678780736</v>
       </c>
       <c r="F83" s="248">
-        <v>20133.973274308857</v>
+        <v>20133.927583484608</v>
       </c>
       <c r="G83" s="248">
-        <v>22234.066141304258</v>
+        <v>22234.145980116245</v>
       </c>
       <c r="H83" s="248">
-        <v>11946.45536936057</v>
+        <v>11946.820503442168</v>
       </c>
       <c r="I83" s="248">
-        <v>3320.8388916912809</v>
+        <v>3321.1112798520262</v>
       </c>
       <c r="J83" s="248">
-        <v>2760.5521232575993</v>
+        <v>2760.1058467129769</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -20217,31 +20217,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>13737.888752910856</v>
+        <v>13737.884676971889</v>
       </c>
       <c r="C97" s="248">
-        <v>-8048.3454846014547</v>
+        <v>-8048.3627148726937</v>
       </c>
       <c r="D97" s="248">
-        <v>-12526.053859991314</v>
+        <v>-12526.135637013847</v>
       </c>
       <c r="E97" s="248">
-        <v>1604.6215465271921</v>
+        <v>1604.4992360744736</v>
       </c>
       <c r="F97" s="248">
-        <v>7450.8752549062856</v>
+        <v>7450.8295640820379</v>
       </c>
       <c r="G97" s="248">
-        <v>9097.8939509280081</v>
+        <v>9097.9737897399937</v>
       </c>
       <c r="H97" s="248">
-        <v>206.82188092408143</v>
+        <v>207.1870150056798</v>
       </c>
       <c r="I97" s="248">
-        <v>-972.8590949195833</v>
+        <v>-972.58670675883809</v>
       </c>
       <c r="J97" s="248">
-        <v>3095.1570533159611</v>
+        <v>3094.7107767713351</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -20431,31 +20431,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>26226.704604506089</v>
+        <v>26226.700484412358</v>
       </c>
       <c r="C9" s="231">
-        <v>5763.1531526586805</v>
+        <v>5763.1357860654189</v>
       </c>
       <c r="D9" s="231">
-        <v>11913.640132157949</v>
+        <v>11913.560505497106</v>
       </c>
       <c r="E9" s="231">
-        <v>22832.213488198016</v>
+        <v>22832.093431849647</v>
       </c>
       <c r="F9" s="231">
-        <v>19691.74775526287</v>
+        <v>19691.692586068697</v>
       </c>
       <c r="G9" s="231">
-        <v>21365.121391786986</v>
+        <v>21365.167927398266</v>
       </c>
       <c r="H9" s="231">
-        <v>12063.485392668115</v>
+        <v>12063.834682230079</v>
       </c>
       <c r="I9" s="231">
-        <v>4259.6076373800415</v>
+        <v>4259.9565381749262</v>
       </c>
       <c r="J9" s="231">
-        <v>2788.3264453812881</v>
+        <v>2787.8580583035509</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -20481,28 +20481,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>26226.704604506089</v>
+        <v>26226.700484412358</v>
       </c>
       <c r="C11" s="231">
-        <v>31989.857757164769</v>
+        <v>31989.836270477776</v>
       </c>
       <c r="D11" s="231">
-        <v>43903.497889322716</v>
+        <v>43903.396775974878</v>
       </c>
       <c r="E11" s="231">
-        <v>66735.711377520725</v>
+        <v>66735.490207824521</v>
       </c>
       <c r="F11" s="231">
-        <v>86427.4591327836</v>
+        <v>86427.182793893211</v>
       </c>
       <c r="G11" s="231">
-        <v>107792.58052457059</v>
+        <v>107792.35072129147</v>
       </c>
       <c r="H11" s="231">
-        <v>119856.0659172387</v>
+        <v>119856.18540352155</v>
       </c>
       <c r="I11" s="231">
-        <v>124115.67355461874</v>
+        <v>124116.14194169648</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -20619,31 +20619,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>12973.205657041062</v>
+        <v>12973.201536947332</v>
       </c>
       <c r="C15" s="231">
-        <v>-8403.372022666199</v>
+        <v>-8403.38938925946</v>
       </c>
       <c r="D15" s="231">
-        <v>-11708.392718626246</v>
+        <v>-11708.472345287089</v>
       </c>
       <c r="E15" s="231">
-        <v>2039.2700178689665</v>
+        <v>2039.1499615205976</v>
       </c>
       <c r="F15" s="231">
-        <v>7007.6657119385709</v>
+        <v>7007.6105427443981</v>
       </c>
       <c r="G15" s="231">
-        <v>8216.4132146249667</v>
+        <v>8216.4597502362467</v>
       </c>
       <c r="H15" s="231">
-        <v>304.368624771565</v>
+        <v>304.71791433352882</v>
       </c>
       <c r="I15" s="231">
-        <v>-45.233710744380915</v>
+        <v>-44.88480994949623</v>
       </c>
       <c r="J15" s="231">
-        <v>-10383.92477420831</v>
+        <v>-10384.393161286047</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -20652,31 +20652,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.10222850073316098</v>
+        <v>0.10222846826693666</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.066218338450058284</v>
+        <v>-0.066218475298331483</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.0922618098612041</v>
+        <v>-0.09226243731708289</v>
       </c>
       <c r="E16" s="236">
-        <v>0.016069391176550513</v>
+        <v>0.016068445135855428</v>
       </c>
       <c r="F16" s="237">
-        <v>0.055220211434931672</v>
+        <v>0.055219776703211848</v>
       </c>
       <c r="G16" s="236">
-        <v>0.064745108228463757</v>
+        <v>0.064745474927789856</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0023984163207744825</v>
+        <v>0.0024011687128343371</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.00035644038599556285</v>
+        <v>-0.00035369105740950814</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.081825039196623484</v>
+        <v>-0.081828730073804173</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -20685,28 +20685,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>12973.205657041062</v>
+        <v>12973.201536947332</v>
       </c>
       <c r="C17" s="231">
-        <v>4569.8336343748633</v>
+        <v>4569.81214768787</v>
       </c>
       <c r="D17" s="231">
-        <v>-7138.5590842513848</v>
+        <v>-7138.6601975992235</v>
       </c>
       <c r="E17" s="231">
-        <v>-5099.2890663824219</v>
+        <v>-5099.5102360786259</v>
       </c>
       <c r="F17" s="231">
-        <v>1908.3766455561417</v>
+        <v>1908.1003066657577</v>
       </c>
       <c r="G17" s="231">
-        <v>10124.789860181118</v>
+        <v>10124.560056902003</v>
       </c>
       <c r="H17" s="231">
-        <v>10429.158484952684</v>
+        <v>10429.277971235541</v>
       </c>
       <c r="I17" s="231">
-        <v>10383.92477420831</v>
+        <v>10384.393161286047</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -20718,28 +20718,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.10222850073316098</v>
+        <v>0.10222846826693666</v>
       </c>
       <c r="C18" s="236">
-        <v>0.036010162283102679</v>
+        <v>0.036009992968605159</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.040182256401550945</v>
+        <v>-0.040183999212622334</v>
       </c>
       <c r="F18" s="237">
-        <v>0.015037955033380677</v>
+        <v>0.0150357774905894</v>
       </c>
       <c r="G18" s="236">
-        <v>0.0797830632618445</v>
+        <v>0.079781252418379245</v>
       </c>
       <c r="H18" s="236">
-        <v>0.082181479582619</v>
+        <v>0.08218242113121367</v>
       </c>
       <c r="I18" s="236">
-        <v>0.081825039196623484</v>
+        <v>0.081828730073804173</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -20751,31 +20751,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.9788513741514595</v>
+        <v>1.9788510632830807</v>
       </c>
       <c r="C19" s="236">
-        <v>0.40681487388995619</v>
+        <v>0.40681364800054104</v>
       </c>
       <c r="D19" s="236">
-        <v>0.50434440623354082</v>
+        <v>0.50434103536951114</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0980751003713807</v>
+        <v>1.0980693264727242</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5524771668933459</v>
+        <v>1.5524728174107438</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6248836846874468</v>
+        <v>1.6248872238648822</v>
       </c>
       <c r="H19" s="236">
-        <v>1.0258836297639733</v>
+        <v>1.0259133334882291</v>
       </c>
       <c r="I19" s="236">
-        <v>0.98949236288020481</v>
+        <v>0.989573411347888</v>
       </c>
       <c r="J19" s="236">
-        <v>0.21168184533517898</v>
+        <v>0.21164628671502142</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -20784,28 +20784,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.9788513741514595</v>
+        <v>1.9788510632830807</v>
       </c>
       <c r="C20" s="236">
-        <v>1.1666604527374098</v>
+        <v>1.1666596691244233</v>
       </c>
       <c r="D20" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="E20" s="236">
-        <v>0.92901386462209989</v>
+        <v>0.92901078576506879</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0225792399703881</v>
+        <v>1.0225759704260171</v>
       </c>
       <c r="G20" s="236">
-        <v>1.10366559734081</v>
+        <v>1.10366324443329</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0953070751031351</v>
+        <v>1.0953081670309401</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0913019001779112</v>
+        <v>1.0913060185272969</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -20848,28 +20848,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -20879,28 +20879,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -21271,31 +21271,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>21.5964162734842</v>
+        <v>21.5969297022022</v>
       </c>
       <c r="C51" s="246">
-        <v>25.0958277683644</v>
+        <v>25.096142626342</v>
       </c>
       <c r="D51" s="246">
-        <v>55.5901748151269</v>
+        <v>55.5903422149847</v>
       </c>
       <c r="E51" s="246">
-        <v>134.468345013708</v>
+        <v>134.46751934143902</v>
       </c>
       <c r="F51" s="246">
-        <v>110.401059968312</v>
+        <v>110.398574875788</v>
       </c>
       <c r="G51" s="246">
-        <v>187.02380198817198</v>
+        <v>187.016695241752</v>
       </c>
       <c r="H51" s="246">
-        <v>289.608626693992</v>
+        <v>289.60801929995597</v>
       </c>
       <c r="I51" s="246">
-        <v>398.06821734806095</v>
+        <v>398.086589716146</v>
       </c>
       <c r="J51" s="246">
-        <v>15.147530130779614</v>
+        <v>15.139186981390139</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -21306,31 +21306,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>21.5964162734842</v>
+        <v>21.5969297022022</v>
       </c>
       <c r="C52" s="248">
-        <v>25.0958277683644</v>
+        <v>25.096142626342</v>
       </c>
       <c r="D52" s="248">
-        <v>55.5901748151269</v>
+        <v>55.5903422149847</v>
       </c>
       <c r="E52" s="248">
-        <v>134.468345013708</v>
+        <v>134.46751934143902</v>
       </c>
       <c r="F52" s="248">
-        <v>110.401059968312</v>
+        <v>110.398574875788</v>
       </c>
       <c r="G52" s="248">
-        <v>187.02380198817198</v>
+        <v>187.016695241752</v>
       </c>
       <c r="H52" s="248">
-        <v>289.608626693992</v>
+        <v>289.60801929995597</v>
       </c>
       <c r="I52" s="248">
-        <v>398.06821734806095</v>
+        <v>398.086589716146</v>
       </c>
       <c r="J52" s="248">
-        <v>15.147530130779614</v>
+        <v>15.139186981390139</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -21411,31 +21411,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>143.6646465506702</v>
+        <v>143.66515997938819</v>
       </c>
       <c r="C55" s="248">
-        <v>25.0958277683644</v>
+        <v>25.096142626342</v>
       </c>
       <c r="D55" s="248">
-        <v>55.5901748151269</v>
+        <v>55.5903422149847</v>
       </c>
       <c r="E55" s="248">
-        <v>134.468345013708</v>
+        <v>134.46751934143902</v>
       </c>
       <c r="F55" s="248">
-        <v>110.401059968312</v>
+        <v>110.398574875788</v>
       </c>
       <c r="G55" s="248">
-        <v>293.95557171098596</v>
+        <v>293.94846496456597</v>
       </c>
       <c r="H55" s="248">
-        <v>289.608626693992</v>
+        <v>289.60801929995597</v>
       </c>
       <c r="I55" s="248">
-        <v>398.06821734806095</v>
+        <v>398.086589716146</v>
       </c>
       <c r="J55" s="248">
-        <v>15.147530130779614</v>
+        <v>15.139186981390139</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -21446,31 +21446,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2143.664646550666</v>
+        <v>2143.6651599793845</v>
       </c>
       <c r="C56" s="248">
-        <v>25.0958277683644</v>
+        <v>25.096142626342</v>
       </c>
       <c r="D56" s="248">
-        <v>55.5901748151269</v>
+        <v>55.5903422149847</v>
       </c>
       <c r="E56" s="248">
-        <v>134.468345013708</v>
+        <v>134.46751934143902</v>
       </c>
       <c r="F56" s="248">
-        <v>110.401059968312</v>
+        <v>110.398574875788</v>
       </c>
       <c r="G56" s="248">
-        <v>2045.955571710987</v>
+        <v>2045.9484649645672</v>
       </c>
       <c r="H56" s="248">
-        <v>289.608626693992</v>
+        <v>289.60801929995597</v>
       </c>
       <c r="I56" s="248">
-        <v>398.06821734806095</v>
+        <v>398.086589716146</v>
       </c>
       <c r="J56" s="248">
-        <v>15.147530130782798</v>
+        <v>15.139186981392413</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -21656,31 +21656,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>1877.5524957278</v>
+        <v>1877.5478622053502</v>
       </c>
       <c r="C62" s="246">
-        <v>3345.89346669932</v>
+        <v>3345.87578524808</v>
       </c>
       <c r="D62" s="246">
-        <v>7234.56538364927</v>
+        <v>7234.48558958857</v>
       </c>
       <c r="E62" s="246">
-        <v>12093.6905738193</v>
+        <v>12093.571343143201</v>
       </c>
       <c r="F62" s="246">
-        <v>7162.2942147920894</v>
+        <v>7162.24153069044</v>
       </c>
       <c r="G62" s="246">
-        <v>10241.4759821893</v>
+        <v>10241.529624547</v>
       </c>
       <c r="H62" s="246">
-        <v>11432.7573494137</v>
+        <v>11433.1072463697</v>
       </c>
       <c r="I62" s="246">
-        <v>3861.53942003198</v>
+        <v>3861.86994845878</v>
       </c>
       <c r="J62" s="246">
-        <v>551.2311136772405</v>
+        <v>550.77106974888011</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -21726,31 +21726,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>1939.2170111395526</v>
+        <v>1939.2123776171027</v>
       </c>
       <c r="C64" s="248">
-        <v>3402.4017759374879</v>
+        <v>3402.3840944862477</v>
       </c>
       <c r="D64" s="248">
-        <v>7333.7384034019888</v>
+        <v>7333.6586093412889</v>
       </c>
       <c r="E64" s="248">
-        <v>12245.198168125617</v>
+        <v>12245.078937449516</v>
       </c>
       <c r="F64" s="248">
-        <v>7268.6105491907474</v>
+        <v>7268.5578650890984</v>
       </c>
       <c r="G64" s="248">
-        <v>10366.665296511172</v>
+        <v>10366.718938868871</v>
       </c>
       <c r="H64" s="248">
-        <v>11523.429757753502</v>
+        <v>11523.779654709502</v>
       </c>
       <c r="I64" s="248">
-        <v>3861.53942003198</v>
+        <v>3861.86994845878</v>
       </c>
       <c r="J64" s="248">
-        <v>562.1996179079506</v>
+        <v>561.73957397959748</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -21761,31 +21761,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>2109.5410786372568</v>
+        <v>2109.5364451148066</v>
       </c>
       <c r="C65" s="248">
-        <v>3558.4838437619997</v>
+        <v>3558.4661623107595</v>
       </c>
       <c r="D65" s="248">
-        <v>7607.6650206391978</v>
+        <v>7607.5852265784979</v>
       </c>
       <c r="E65" s="248">
-        <v>12663.678546131241</v>
+        <v>12663.559315455141</v>
       </c>
       <c r="F65" s="248">
-        <v>7562.267774830344</v>
+        <v>7562.2150907286941</v>
       </c>
       <c r="G65" s="248">
-        <v>10712.451735927281</v>
+        <v>10712.505378284981</v>
       </c>
       <c r="H65" s="248">
-        <v>11773.876765974123</v>
+        <v>11774.226662930123</v>
       </c>
       <c r="I65" s="248">
-        <v>3861.53942003198</v>
+        <v>3861.86994845878</v>
       </c>
       <c r="J65" s="248">
-        <v>592.49581406657671</v>
+        <v>592.0357701382236</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -21901,31 +21901,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>3322.6635138765205</v>
+        <v>3322.6588803540708</v>
       </c>
       <c r="C69" s="248">
-        <v>4778.91370204586</v>
+        <v>4778.8960205946205</v>
       </c>
       <c r="D69" s="248">
-        <v>10070.752151088616</v>
+        <v>10070.672357027916</v>
       </c>
       <c r="E69" s="248">
-        <v>17680.934830779592</v>
+        <v>17680.815600103495</v>
       </c>
       <c r="F69" s="248">
-        <v>16962.589502658586</v>
+        <v>16962.536818556939</v>
       </c>
       <c r="G69" s="248">
-        <v>10712.451735927281</v>
+        <v>10712.505378284981</v>
       </c>
       <c r="H69" s="248">
-        <v>11773.876765974123</v>
+        <v>11774.226662930123</v>
       </c>
       <c r="I69" s="248">
-        <v>3861.53942003198</v>
+        <v>3861.86994845878</v>
       </c>
       <c r="J69" s="248">
-        <v>714.2783776174474</v>
+        <v>713.81833368909429</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -22181,31 +22181,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>4299.0399579554241</v>
+        <v>4299.0353244329735</v>
       </c>
       <c r="C77" s="248">
-        <v>5738.0573248903165</v>
+        <v>5738.0396434390768</v>
       </c>
       <c r="D77" s="248">
-        <v>11858.049957342821</v>
+        <v>11857.97016328212</v>
       </c>
       <c r="E77" s="248">
-        <v>22697.745143184307</v>
+        <v>22697.625912508207</v>
       </c>
       <c r="F77" s="248">
-        <v>19581.34669529456</v>
+        <v>19581.294011192909</v>
       </c>
       <c r="G77" s="248">
-        <v>19319.165820076</v>
+        <v>19319.2194624337</v>
       </c>
       <c r="H77" s="248">
-        <v>11773.876765974123</v>
+        <v>11774.226662930123</v>
       </c>
       <c r="I77" s="248">
-        <v>3861.53942003198</v>
+        <v>3861.86994845878</v>
       </c>
       <c r="J77" s="248">
-        <v>996.17891525047889</v>
+        <v>995.71887132212578</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -22391,31 +22391,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>26226.704604506089</v>
+        <v>26226.700484412358</v>
       </c>
       <c r="C83" s="248">
-        <v>5763.1531526586805</v>
+        <v>5763.1357860654189</v>
       </c>
       <c r="D83" s="248">
-        <v>11913.640132157949</v>
+        <v>11913.560505497106</v>
       </c>
       <c r="E83" s="248">
-        <v>22832.213488198016</v>
+        <v>22832.093431849647</v>
       </c>
       <c r="F83" s="248">
-        <v>19691.74775526287</v>
+        <v>19691.692586068697</v>
       </c>
       <c r="G83" s="248">
-        <v>21365.121391786986</v>
+        <v>21365.167927398266</v>
       </c>
       <c r="H83" s="248">
-        <v>12063.485392668115</v>
+        <v>12063.834682230079</v>
       </c>
       <c r="I83" s="248">
-        <v>4259.6076373800415</v>
+        <v>4259.9565381749262</v>
       </c>
       <c r="J83" s="248">
-        <v>2788.3264453812881</v>
+        <v>2787.8580583035509</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -22771,31 +22771,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>12973.205657041064</v>
+        <v>12973.20153694733</v>
       </c>
       <c r="C97" s="248">
-        <v>-8403.372022666199</v>
+        <v>-8403.38938925946</v>
       </c>
       <c r="D97" s="248">
-        <v>-11708.392718626246</v>
+        <v>-11708.472345287088</v>
       </c>
       <c r="E97" s="248">
-        <v>2039.2700178689659</v>
+        <v>2039.1499615205973</v>
       </c>
       <c r="F97" s="248">
-        <v>7007.6657119385709</v>
+        <v>7007.6105427443981</v>
       </c>
       <c r="G97" s="248">
-        <v>8216.4132146249649</v>
+        <v>8216.4597502362485</v>
       </c>
       <c r="H97" s="248">
-        <v>304.36862477156518</v>
+        <v>304.71791433352979</v>
       </c>
       <c r="I97" s="248">
-        <v>-45.23371074438095</v>
+        <v>-44.884809949495832</v>
       </c>
       <c r="J97" s="248">
-        <v>3262.0752257917247</v>
+        <v>3261.6068387139676</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -22985,31 +22985,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>25452.61866419674</v>
+        <v>25452.614477766172</v>
       </c>
       <c r="C9" s="231">
-        <v>4344.8663740986085</v>
+        <v>4344.8482993564612</v>
       </c>
       <c r="D9" s="231">
-        <v>9304.17146651434</v>
+        <v>9304.0829809964471</v>
       </c>
       <c r="E9" s="231">
-        <v>19812.761267527123</v>
+        <v>19812.601462504343</v>
       </c>
       <c r="F9" s="231">
-        <v>18985.742106652218</v>
+        <v>18985.623658467663</v>
       </c>
       <c r="G9" s="231">
-        <v>21704.851635738894</v>
+        <v>21704.822084535208</v>
       </c>
       <c r="H9" s="231">
-        <v>15368.024165410005</v>
+        <v>15368.372300223713</v>
       </c>
       <c r="I9" s="231">
-        <v>8955.5025478246134</v>
+        <v>8956.1960085252249</v>
       </c>
       <c r="J9" s="231">
-        <v>2975.4617720374808</v>
+        <v>2974.8387276248104</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -23035,28 +23035,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>25452.61866419674</v>
+        <v>25452.614477766172</v>
       </c>
       <c r="C11" s="231">
-        <v>29797.485038295348</v>
+        <v>29797.462777122633</v>
       </c>
       <c r="D11" s="231">
-        <v>39101.656504809689</v>
+        <v>39101.545758119079</v>
       </c>
       <c r="E11" s="231">
-        <v>58914.417772336812</v>
+        <v>58914.147220623418</v>
       </c>
       <c r="F11" s="231">
-        <v>77900.159878989027</v>
+        <v>77899.770879091084</v>
       </c>
       <c r="G11" s="231">
-        <v>99605.011514727928</v>
+        <v>99604.592963626288</v>
       </c>
       <c r="H11" s="231">
-        <v>114973.03568013794</v>
+        <v>114972.96526385</v>
       </c>
       <c r="I11" s="231">
-        <v>123928.53822796255</v>
+        <v>123929.16127237522</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -23173,31 +23173,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>12177.100061622214</v>
+        <v>12177.095875191646</v>
       </c>
       <c r="C15" s="231">
-        <v>-9850.6943671747613</v>
+        <v>-9850.7124419169086</v>
       </c>
       <c r="D15" s="231">
-        <v>-14336.219548516252</v>
+        <v>-14336.308034034146</v>
       </c>
       <c r="E15" s="231">
-        <v>-1008.4494256819671</v>
+        <v>-1008.6092307047475</v>
       </c>
       <c r="F15" s="231">
-        <v>6299.6680725745173</v>
+        <v>6299.5496243899615</v>
       </c>
       <c r="G15" s="231">
-        <v>8552.1040857342741</v>
+        <v>8552.0745345305877</v>
       </c>
       <c r="H15" s="231">
-        <v>3588.4105458861559</v>
+        <v>3588.7586806998643</v>
       </c>
       <c r="I15" s="231">
-        <v>4636.4976906499442</v>
+        <v>4637.1911513505556</v>
       </c>
       <c r="J15" s="231">
-        <v>-10058.417115094126</v>
+        <v>-10059.040159506796</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -23206,31 +23206,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.095955210723241272</v>
+        <v>0.095955177734284525</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.0776231983796788</v>
+        <v>-0.077623340808145577</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.11296901239138442</v>
+        <v>-0.11296970965481107</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.00794655350250557</v>
+        <v>-0.0079478127616524879</v>
       </c>
       <c r="F16" s="237">
-        <v>0.049641209674829129</v>
+        <v>0.049640276306420289</v>
       </c>
       <c r="G16" s="236">
-        <v>0.067390342981578769</v>
+        <v>0.0673901101189134</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0282765755680369</v>
+        <v>0.028279318860712534</v>
       </c>
       <c r="I16" s="236">
-        <v>0.0365354731974559</v>
+        <v>0.036540937648541848</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.079260047871573189</v>
+        <v>-0.079264957444263331</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -23239,28 +23239,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>12177.100061622214</v>
+        <v>12177.095875191646</v>
       </c>
       <c r="C17" s="231">
-        <v>2326.4056944474542</v>
+        <v>2326.3834332747392</v>
       </c>
       <c r="D17" s="231">
-        <v>-12009.813854068801</v>
+        <v>-12009.924600759412</v>
       </c>
       <c r="E17" s="231">
-        <v>-13018.263279750761</v>
+        <v>-13018.533831464156</v>
       </c>
       <c r="F17" s="231">
-        <v>-6718.595207176244</v>
+        <v>-6718.984207074187</v>
       </c>
       <c r="G17" s="231">
-        <v>1833.5088785580301</v>
+        <v>1833.0903274563898</v>
       </c>
       <c r="H17" s="231">
-        <v>5421.91942444419</v>
+        <v>5421.8490081562486</v>
       </c>
       <c r="I17" s="231">
-        <v>10058.417115094126</v>
+        <v>10059.040159506796</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -23272,28 +23272,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.095955210723241272</v>
+        <v>0.095955177734284525</v>
       </c>
       <c r="C18" s="236">
-        <v>0.018332012343562486</v>
+        <v>0.018331836926138961</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.10258355355032749</v>
+        <v>-0.1025856854903246</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.05294234387549835</v>
+        <v>-0.052945409183904252</v>
       </c>
       <c r="G18" s="236">
-        <v>0.01444799910608042</v>
+        <v>0.014444700935009056</v>
       </c>
       <c r="H18" s="236">
-        <v>0.042724574674117353</v>
+        <v>0.042724019795721546</v>
       </c>
       <c r="I18" s="236">
-        <v>0.079260047871573189</v>
+        <v>0.079264957444263331</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -23305,31 +23305,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.9172598394205636</v>
+        <v>1.9172595240708816</v>
       </c>
       <c r="C19" s="236">
-        <v>0.30607219068606267</v>
+        <v>0.30607091741884374</v>
       </c>
       <c r="D19" s="236">
-        <v>0.3935709633820666</v>
+        <v>0.39356722040176484</v>
       </c>
       <c r="E19" s="236">
-        <v>0.95156624460791439</v>
+        <v>0.95155856950077788</v>
       </c>
       <c r="F19" s="237">
-        <v>1.4965813738475879</v>
+        <v>1.4965720369807025</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6502142653632297</v>
+        <v>1.6502120185928439</v>
       </c>
       <c r="H19" s="236">
-        <v>1.3046288835771853</v>
+        <v>1.3046584375867607</v>
       </c>
       <c r="I19" s="236">
-        <v>2.073510645154256</v>
+        <v>2.0736712054507929</v>
       </c>
       <c r="J19" s="236">
-        <v>0.22828674393891787</v>
+        <v>0.22823894202069645</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -23338,28 +23338,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.9172598394205636</v>
+        <v>1.9172595240708816</v>
       </c>
       <c r="C20" s="236">
-        <v>1.0846856312170512</v>
+        <v>1.0846848208676492</v>
       </c>
       <c r="D20" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="E20" s="236">
-        <v>0.8190215755989404</v>
+        <v>0.81901781441960664</v>
       </c>
       <c r="F20" s="237">
-        <v>0.9206015829429911</v>
+        <v>0.920596985854585</v>
       </c>
       <c r="G20" s="236">
-        <v>1.0187529988710609</v>
+        <v>1.0187487179600556</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0494921422050083</v>
+        <v>1.0494914994339408</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0883323651260912</v>
+        <v>1.0883378366616143</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -23402,28 +23402,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -23433,28 +23433,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -23825,31 +23825,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>20.4877365426246</v>
+        <v>20.4882518700742</v>
       </c>
       <c r="C51" s="246">
-        <v>23.5399038233813</v>
+        <v>23.540225161934902</v>
       </c>
       <c r="D51" s="246">
-        <v>52.038251640814295</v>
+        <v>52.0384508033575</v>
       </c>
       <c r="E51" s="246">
-        <v>130.286866962896</v>
+        <v>130.286035322464</v>
       </c>
       <c r="F51" s="246">
-        <v>107.39297785020901</v>
+        <v>107.39043512407301</v>
       </c>
       <c r="G51" s="246">
-        <v>181.405016639407</v>
+        <v>181.39767400252</v>
       </c>
       <c r="H51" s="246">
-        <v>283.564262154047</v>
+        <v>283.56301132325603</v>
       </c>
       <c r="I51" s="246">
-        <v>422.887552380783</v>
+        <v>422.906996153536</v>
       </c>
       <c r="J51" s="246">
-        <v>15.3974320058378</v>
+        <v>15.388920238784294</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -23860,31 +23860,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>20.4877365426246</v>
+        <v>20.4882518700742</v>
       </c>
       <c r="C52" s="248">
-        <v>23.5399038233813</v>
+        <v>23.540225161934902</v>
       </c>
       <c r="D52" s="248">
-        <v>52.038251640814295</v>
+        <v>52.0384508033575</v>
       </c>
       <c r="E52" s="248">
-        <v>130.286866962896</v>
+        <v>130.286035322464</v>
       </c>
       <c r="F52" s="248">
-        <v>107.39297785020901</v>
+        <v>107.39043512407301</v>
       </c>
       <c r="G52" s="248">
-        <v>181.405016639407</v>
+        <v>181.39767400252</v>
       </c>
       <c r="H52" s="248">
-        <v>283.564262154047</v>
+        <v>283.56301132325603</v>
       </c>
       <c r="I52" s="248">
-        <v>422.887552380783</v>
+        <v>422.906996153536</v>
       </c>
       <c r="J52" s="248">
-        <v>15.3974320058378</v>
+        <v>15.388920238784294</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -23965,31 +23965,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>142.55596681981061</v>
+        <v>142.5564821472602</v>
       </c>
       <c r="C55" s="248">
-        <v>23.5399038233813</v>
+        <v>23.540225161934902</v>
       </c>
       <c r="D55" s="248">
-        <v>52.038251640814295</v>
+        <v>52.0384508033575</v>
       </c>
       <c r="E55" s="248">
-        <v>130.286866962896</v>
+        <v>130.286035322464</v>
       </c>
       <c r="F55" s="248">
-        <v>107.39297785020901</v>
+        <v>107.39043512407301</v>
       </c>
       <c r="G55" s="248">
-        <v>288.336786362221</v>
+        <v>288.329443725334</v>
       </c>
       <c r="H55" s="248">
-        <v>283.564262154047</v>
+        <v>283.56301132325603</v>
       </c>
       <c r="I55" s="248">
-        <v>422.887552380783</v>
+        <v>422.906996153536</v>
       </c>
       <c r="J55" s="248">
-        <v>15.397432005837572</v>
+        <v>15.388920238784294</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -24000,31 +24000,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2142.5559668198066</v>
+        <v>2142.5564821472562</v>
       </c>
       <c r="C56" s="248">
-        <v>23.5399038233813</v>
+        <v>23.540225161934902</v>
       </c>
       <c r="D56" s="248">
-        <v>52.038251640814295</v>
+        <v>52.0384508033575</v>
       </c>
       <c r="E56" s="248">
-        <v>130.286866962896</v>
+        <v>130.286035322464</v>
       </c>
       <c r="F56" s="248">
-        <v>107.39297785020901</v>
+        <v>107.39043512407301</v>
       </c>
       <c r="G56" s="248">
-        <v>2040.3367863622223</v>
+        <v>2040.3294437253351</v>
       </c>
       <c r="H56" s="248">
-        <v>283.564262154047</v>
+        <v>283.56301132325603</v>
       </c>
       <c r="I56" s="248">
-        <v>422.887552380783</v>
+        <v>422.906996153536</v>
       </c>
       <c r="J56" s="248">
-        <v>15.397432005840528</v>
+        <v>15.388920238786341</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -24210,31 +24210,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>1104.57523514931</v>
+        <v>1104.5705333912902</v>
       </c>
       <c r="C62" s="246">
-        <v>1929.16261208423</v>
+        <v>1929.14421600353</v>
       </c>
       <c r="D62" s="246">
-        <v>4628.64864117998</v>
+        <v>4628.55995649954</v>
       </c>
       <c r="E62" s="246">
-        <v>9083.12504585074</v>
+        <v>9082.96607246839</v>
       </c>
       <c r="F62" s="246">
-        <v>6461.01571684645</v>
+        <v>6460.89981138803</v>
       </c>
       <c r="G62" s="246">
-        <v>10586.0041544146</v>
+        <v>10585.9819458478</v>
       </c>
       <c r="H62" s="246">
-        <v>14737.8606163822</v>
+        <v>14738.210002026699</v>
       </c>
       <c r="I62" s="246">
-        <v>8532.61499544383</v>
+        <v>8533.28901237169</v>
       </c>
       <c r="J62" s="246">
-        <v>737.99298264866229</v>
+        <v>737.37845000303059</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -24280,31 +24280,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>1166.2397505610625</v>
+        <v>1166.2350488030427</v>
       </c>
       <c r="C64" s="248">
-        <v>1985.6709213223976</v>
+        <v>1985.6525252416977</v>
       </c>
       <c r="D64" s="248">
-        <v>4727.8216609326983</v>
+        <v>4727.7329762522586</v>
       </c>
       <c r="E64" s="248">
-        <v>9233.3819545510851</v>
+        <v>9233.2229811687357</v>
       </c>
       <c r="F64" s="248">
-        <v>6566.8751083750085</v>
+        <v>6566.759202916588</v>
       </c>
       <c r="G64" s="248">
-        <v>10711.411659447154</v>
+        <v>10711.389450880355</v>
       </c>
       <c r="H64" s="248">
-        <v>14829.989620314567</v>
+        <v>14830.339005959066</v>
       </c>
       <c r="I64" s="248">
-        <v>8532.61499544383</v>
+        <v>8533.28901237169</v>
       </c>
       <c r="J64" s="248">
-        <v>748.99432905219146</v>
+        <v>748.37979640655976</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -24315,31 +24315,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1336.5638180587664</v>
+        <v>1336.5591163007466</v>
       </c>
       <c r="C65" s="248">
-        <v>2141.75298914691</v>
+        <v>2141.7345930662095</v>
       </c>
       <c r="D65" s="248">
-        <v>5001.7482781699073</v>
+        <v>5001.6595934894685</v>
       </c>
       <c r="E65" s="248">
-        <v>9648.40780351116</v>
+        <v>9648.2488301288085</v>
       </c>
       <c r="F65" s="248">
-        <v>6859.2702083377926</v>
+        <v>6859.1543028793712</v>
       </c>
       <c r="G65" s="248">
-        <v>11057.800765227956</v>
+        <v>11057.778556661155</v>
       </c>
       <c r="H65" s="248">
-        <v>15084.459903255958</v>
+        <v>15084.809288900457</v>
       </c>
       <c r="I65" s="248">
-        <v>8532.61499544383</v>
+        <v>8533.28901237169</v>
       </c>
       <c r="J65" s="248">
-        <v>779.38123884772358</v>
+        <v>778.76670620209188</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -24455,31 +24455,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>2549.68625329803</v>
+        <v>2549.6815515400103</v>
       </c>
       <c r="C69" s="248">
-        <v>3362.1828474307704</v>
+        <v>3362.16445135007</v>
       </c>
       <c r="D69" s="248">
-        <v>7464.8354086193249</v>
+        <v>7464.7467239388852</v>
       </c>
       <c r="E69" s="248">
-        <v>14665.664088159512</v>
+        <v>14665.505114777163</v>
       </c>
       <c r="F69" s="248">
-        <v>16259.591936166036</v>
+        <v>16259.476030707616</v>
       </c>
       <c r="G69" s="248">
-        <v>11057.800765227956</v>
+        <v>11057.778556661155</v>
       </c>
       <c r="H69" s="248">
-        <v>15084.459903255958</v>
+        <v>15084.809288900457</v>
       </c>
       <c r="I69" s="248">
-        <v>8532.61499544383</v>
+        <v>8533.28901237169</v>
       </c>
       <c r="J69" s="248">
-        <v>901.16380239860155</v>
+        <v>900.5492697529553</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -24735,31 +24735,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>3526.0626973769326</v>
+        <v>3526.0579956189131</v>
       </c>
       <c r="C77" s="248">
-        <v>4321.3264702752267</v>
+        <v>4321.3080741945259</v>
       </c>
       <c r="D77" s="248">
-        <v>9252.1332148735273</v>
+        <v>9252.0445301930886</v>
       </c>
       <c r="E77" s="248">
-        <v>19682.474400564228</v>
+        <v>19682.315427181878</v>
       </c>
       <c r="F77" s="248">
-        <v>18878.349128802009</v>
+        <v>18878.233223343588</v>
       </c>
       <c r="G77" s="248">
-        <v>19664.514849376672</v>
+        <v>19664.492640809873</v>
       </c>
       <c r="H77" s="248">
-        <v>15084.459903255958</v>
+        <v>15084.809288900457</v>
       </c>
       <c r="I77" s="248">
-        <v>8532.61499544383</v>
+        <v>8533.28901237169</v>
       </c>
       <c r="J77" s="248">
-        <v>1183.0643400316476</v>
+        <v>1182.4498073860013</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -24945,31 +24945,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>25452.61866419674</v>
+        <v>25452.614477766172</v>
       </c>
       <c r="C83" s="248">
-        <v>4344.8663740986085</v>
+        <v>4344.8482993564612</v>
       </c>
       <c r="D83" s="248">
-        <v>9304.17146651434</v>
+        <v>9304.0829809964471</v>
       </c>
       <c r="E83" s="248">
-        <v>19812.761267527123</v>
+        <v>19812.601462504343</v>
       </c>
       <c r="F83" s="248">
-        <v>18985.742106652218</v>
+        <v>18985.623658467663</v>
       </c>
       <c r="G83" s="248">
-        <v>21704.851635738894</v>
+        <v>21704.822084535208</v>
       </c>
       <c r="H83" s="248">
-        <v>15368.024165410005</v>
+        <v>15368.372300223713</v>
       </c>
       <c r="I83" s="248">
-        <v>8955.5025478246134</v>
+        <v>8956.1960085252249</v>
       </c>
       <c r="J83" s="248">
-        <v>2975.4617720374808</v>
+        <v>2974.8387276248104</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -25325,31 +25325,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>12177.100061622215</v>
+        <v>12177.095875191646</v>
       </c>
       <c r="C97" s="248">
-        <v>-9850.6943671747613</v>
+        <v>-9850.7124419169086</v>
       </c>
       <c r="D97" s="248">
-        <v>-14336.219548516252</v>
+        <v>-14336.308034034146</v>
       </c>
       <c r="E97" s="248">
-        <v>-1008.4494256819673</v>
+        <v>-1008.6092307047471</v>
       </c>
       <c r="F97" s="248">
-        <v>6299.6680725745182</v>
+        <v>6299.5496243899615</v>
       </c>
       <c r="G97" s="248">
-        <v>8552.1040857342741</v>
+        <v>8552.0745345305877</v>
       </c>
       <c r="H97" s="248">
-        <v>3588.4105458861554</v>
+        <v>3588.7586806998643</v>
       </c>
       <c r="I97" s="248">
-        <v>4636.4976906499442</v>
+        <v>4637.1911513505547</v>
       </c>
       <c r="J97" s="248">
-        <v>3587.5828849059035</v>
+        <v>3586.9598404932167</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -25539,31 +25539,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>25072.183781156797</v>
+        <v>25072.179562523455</v>
       </c>
       <c r="C9" s="231">
-        <v>3652.0168422778147</v>
+        <v>3651.9984218915533</v>
       </c>
       <c r="D9" s="231">
-        <v>7739.084473069579</v>
+        <v>7738.9909040516968</v>
       </c>
       <c r="E9" s="231">
-        <v>17201.555130502969</v>
+        <v>17201.366448704179</v>
       </c>
       <c r="F9" s="231">
-        <v>17611.448900361771</v>
+        <v>17611.290204907047</v>
       </c>
       <c r="G9" s="231">
-        <v>20612.889857078964</v>
+        <v>20612.728130861644</v>
       </c>
       <c r="H9" s="231">
-        <v>16942.825216893041</v>
+        <v>16943.075644712786</v>
       </c>
       <c r="I9" s="231">
-        <v>14930.761650114608</v>
+        <v>14931.896544176627</v>
       </c>
       <c r="J9" s="231">
-        <v>3141.2341485444922</v>
+        <v>3140.4741381710628</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -25589,28 +25589,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>25072.183781156797</v>
+        <v>25072.179562523455</v>
       </c>
       <c r="C11" s="231">
-        <v>28724.200623434612</v>
+        <v>28724.177984415008</v>
       </c>
       <c r="D11" s="231">
-        <v>36463.285096504187</v>
+        <v>36463.1688884667</v>
       </c>
       <c r="E11" s="231">
-        <v>53664.840227007153</v>
+        <v>53664.535337170877</v>
       </c>
       <c r="F11" s="231">
-        <v>71276.289127368917</v>
+        <v>71275.825542077917</v>
       </c>
       <c r="G11" s="231">
-        <v>91889.178984447877</v>
+        <v>91888.553672939568</v>
       </c>
       <c r="H11" s="231">
-        <v>108832.00420134093</v>
+        <v>108831.62931765235</v>
       </c>
       <c r="I11" s="231">
-        <v>123762.76585145554</v>
+        <v>123763.52586182897</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -25727,31 +25727,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>11771.88275567749</v>
+        <v>11771.878537044149</v>
       </c>
       <c r="C15" s="231">
-        <v>-10548.274441905835</v>
+        <v>-10548.292862292095</v>
       </c>
       <c r="D15" s="231">
-        <v>-15902.407126922317</v>
+        <v>-15902.500695940198</v>
       </c>
       <c r="E15" s="231">
-        <v>-3649.0025401820385</v>
+        <v>-3649.1912219808291</v>
       </c>
       <c r="F15" s="231">
-        <v>4911.1794400957715</v>
+        <v>4911.0207446410477</v>
       </c>
       <c r="G15" s="231">
-        <v>7442.548576835854</v>
+        <v>7442.3868506185336</v>
       </c>
       <c r="H15" s="231">
-        <v>5129.3093412882918</v>
+        <v>5129.5597691080366</v>
       </c>
       <c r="I15" s="231">
-        <v>10593.463122581665</v>
+        <v>10594.598016643684</v>
       </c>
       <c r="J15" s="231">
-        <v>-9748.6991274688771</v>
+        <v>-9749.4591378423065</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -25760,31 +25760,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.09276210959211284</v>
+        <v>0.09276207634939912</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.0831201100194307</v>
+        <v>-0.0831202551715635</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.12531052706709256</v>
+        <v>-0.1253112643883581</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.028754038802417874</v>
+        <v>-0.028755525609758782</v>
       </c>
       <c r="F16" s="237">
-        <v>0.038699957764103343</v>
+        <v>0.038698707248321938</v>
       </c>
       <c r="G16" s="236">
-        <v>0.058647076347757766</v>
+        <v>0.058645801949651168</v>
       </c>
       <c r="H16" s="236">
-        <v>0.040418815335121747</v>
+        <v>0.0404207886993951</v>
       </c>
       <c r="I16" s="236">
-        <v>0.0834761955697351</v>
+        <v>0.083485138503464673</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.076819478719889644</v>
+        <v>-0.076825467580551476</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -25793,28 +25793,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>11771.88275567749</v>
+        <v>11771.878537044149</v>
       </c>
       <c r="C17" s="231">
-        <v>1223.608313771656</v>
+        <v>1223.585674752052</v>
       </c>
       <c r="D17" s="231">
-        <v>-14678.798813150665</v>
+        <v>-14678.91502118815</v>
       </c>
       <c r="E17" s="231">
-        <v>-18327.801353332703</v>
+        <v>-18328.106243168979</v>
       </c>
       <c r="F17" s="231">
-        <v>-13416.621913236944</v>
+        <v>-13417.085498527944</v>
       </c>
       <c r="G17" s="231">
-        <v>-5974.0733364010957</v>
+        <v>-5974.6986479094048</v>
       </c>
       <c r="H17" s="231">
-        <v>-844.763995112793</v>
+        <v>-845.1388788013719</v>
       </c>
       <c r="I17" s="231">
-        <v>9748.6991274688771</v>
+        <v>9749.4591378423065</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -25826,28 +25826,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.09276210959211284</v>
+        <v>0.09276207634939912</v>
       </c>
       <c r="C18" s="236">
-        <v>0.00964199957268215</v>
+        <v>0.0096418211778356213</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.14442256629682831</v>
+        <v>-0.14442496882028127</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.10572260853272507</v>
+        <v>-0.10572626157195945</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.047075532184967336</v>
+        <v>-0.047080459622308231</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.0066567168498454961</v>
+        <v>-0.00665967092291316</v>
       </c>
       <c r="I18" s="236">
-        <v>0.076819478719889644</v>
+        <v>0.076825467580551476</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -25859,31 +25859,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.8850839340497756</v>
+        <v>1.885083616866478</v>
       </c>
       <c r="C19" s="236">
-        <v>0.25717900916197745</v>
+        <v>0.25717771197828637</v>
       </c>
       <c r="D19" s="236">
-        <v>0.3273517849048167</v>
+        <v>0.32734782707425913</v>
       </c>
       <c r="E19" s="236">
-        <v>0.82499256864902082</v>
+        <v>0.82498351940430648</v>
       </c>
       <c r="F19" s="237">
-        <v>1.3866988378050453</v>
+        <v>1.3866863423650691</v>
       </c>
       <c r="G19" s="236">
-        <v>1.5650991434823678</v>
+        <v>1.5650868639055613</v>
       </c>
       <c r="H19" s="236">
-        <v>1.4341899054692484</v>
+        <v>1.4342111038848922</v>
       </c>
       <c r="I19" s="236">
-        <v>3.4424104209878381</v>
+        <v>3.4426720801876405</v>
       </c>
       <c r="J19" s="236">
-        <v>0.24369669580756906</v>
+        <v>0.24363773426314869</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -25892,28 +25892,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.8850839340497756</v>
+        <v>1.885083616866478</v>
       </c>
       <c r="C20" s="236">
-        <v>1.0444938894404</v>
+        <v>1.0444930662210543</v>
       </c>
       <c r="D20" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="E20" s="236">
-        <v>0.7454211854015681</v>
+        <v>0.74541695038768907</v>
       </c>
       <c r="F20" s="237">
-        <v>0.84158506599443283</v>
+        <v>0.841579592274315</v>
       </c>
       <c r="G20" s="236">
-        <v>0.93895488659200865</v>
+        <v>0.93894849694631954</v>
       </c>
       <c r="H20" s="236">
-        <v>0.9922976943157219</v>
+        <v>0.992294276238268</v>
       </c>
       <c r="I20" s="236">
-        <v>1.085504354046674</v>
+        <v>1.0855110199818105</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -25956,28 +25956,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -25987,28 +25987,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -26379,31 +26379,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>19.942265968602</v>
+        <v>19.942781892162</v>
       </c>
       <c r="C51" s="246">
-        <v>22.6779699966886</v>
+        <v>22.6782933808569</v>
       </c>
       <c r="D51" s="246">
-        <v>49.9619814837093</v>
+        <v>49.9621897812681</v>
       </c>
       <c r="E51" s="246">
-        <v>126.794024542292</v>
+        <v>126.793197884037</v>
       </c>
       <c r="F51" s="246">
-        <v>104.92025923355601</v>
+        <v>104.917678099093</v>
       </c>
       <c r="G51" s="246">
-        <v>176.94367580184</v>
+        <v>176.936157964097</v>
       </c>
       <c r="H51" s="246">
-        <v>277.830903156304</v>
+        <v>277.82915670715204</v>
       </c>
       <c r="I51" s="246">
-        <v>442.35187585950604</v>
+        <v>442.37214307392804</v>
       </c>
       <c r="J51" s="246">
-        <v>15.577043957502156</v>
+        <v>15.568401217405835</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -26414,31 +26414,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>19.942265968602</v>
+        <v>19.942781892162</v>
       </c>
       <c r="C52" s="248">
-        <v>22.6779699966886</v>
+        <v>22.6782933808569</v>
       </c>
       <c r="D52" s="248">
-        <v>49.9619814837093</v>
+        <v>49.9621897812681</v>
       </c>
       <c r="E52" s="248">
-        <v>126.794024542292</v>
+        <v>126.793197884037</v>
       </c>
       <c r="F52" s="248">
-        <v>104.92025923355601</v>
+        <v>104.917678099093</v>
       </c>
       <c r="G52" s="248">
-        <v>176.94367580184</v>
+        <v>176.936157964097</v>
       </c>
       <c r="H52" s="248">
-        <v>277.830903156304</v>
+        <v>277.82915670715204</v>
       </c>
       <c r="I52" s="248">
-        <v>442.35187585950604</v>
+        <v>442.37214307392804</v>
       </c>
       <c r="J52" s="248">
-        <v>15.577043957502156</v>
+        <v>15.568401217405835</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -26519,31 +26519,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>142.010496245788</v>
+        <v>142.011012169348</v>
       </c>
       <c r="C55" s="248">
-        <v>22.6779699966886</v>
+        <v>22.6782933808569</v>
       </c>
       <c r="D55" s="248">
-        <v>49.9619814837093</v>
+        <v>49.9621897812681</v>
       </c>
       <c r="E55" s="248">
-        <v>126.794024542292</v>
+        <v>126.793197884037</v>
       </c>
       <c r="F55" s="248">
-        <v>104.92025923355601</v>
+        <v>104.917678099093</v>
       </c>
       <c r="G55" s="248">
-        <v>283.875445524654</v>
+        <v>283.86792768691095</v>
       </c>
       <c r="H55" s="248">
-        <v>277.830903156304</v>
+        <v>277.82915670715204</v>
       </c>
       <c r="I55" s="248">
-        <v>442.35187585950604</v>
+        <v>442.37214307392804</v>
       </c>
       <c r="J55" s="248">
-        <v>15.577043957502156</v>
+        <v>15.568401217406063</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -26554,31 +26554,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2142.010496245784</v>
+        <v>2142.0110121693438</v>
       </c>
       <c r="C56" s="248">
-        <v>22.6779699966886</v>
+        <v>22.6782933808569</v>
       </c>
       <c r="D56" s="248">
-        <v>49.9619814837093</v>
+        <v>49.9621897812681</v>
       </c>
       <c r="E56" s="248">
-        <v>126.794024542292</v>
+        <v>126.793197884037</v>
       </c>
       <c r="F56" s="248">
-        <v>104.92025923355601</v>
+        <v>104.917678099093</v>
       </c>
       <c r="G56" s="248">
-        <v>2035.8754455246553</v>
+        <v>2035.867927686912</v>
       </c>
       <c r="H56" s="248">
-        <v>277.830903156304</v>
+        <v>277.82915670715204</v>
       </c>
       <c r="I56" s="248">
-        <v>442.35187585950604</v>
+        <v>442.37214307392804</v>
       </c>
       <c r="J56" s="248">
-        <v>15.577043957504429</v>
+        <v>15.5684012174097</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -26764,31 +26764,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>724.68582268339</v>
+        <v>724.68108812649</v>
       </c>
       <c r="C62" s="246">
-        <v>1237.1750140901302</v>
+        <v>1237.1562703197</v>
       </c>
       <c r="D62" s="246">
-        <v>3065.6379178923203</v>
+        <v>3065.54414057688</v>
       </c>
       <c r="E62" s="246">
-        <v>6479.95202072082</v>
+        <v>6479.76416558028</v>
       </c>
       <c r="F62" s="246">
-        <v>5090.89284321786</v>
+        <v>5090.7367288976</v>
       </c>
       <c r="G62" s="246">
-        <v>9497.77529362696</v>
+        <v>9497.6210852473814</v>
       </c>
       <c r="H62" s="246">
-        <v>16313.0057874338</v>
+        <v>16313.2579617027</v>
       </c>
       <c r="I62" s="246">
-        <v>14488.4097742551</v>
+        <v>14489.524401102699</v>
       </c>
       <c r="J62" s="246">
-        <v>903.46552607961348</v>
+        <v>902.71415844626608</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -26834,31 +26834,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>786.35033809514255</v>
+        <v>786.34560353824247</v>
       </c>
       <c r="C64" s="248">
-        <v>1293.6833233282978</v>
+        <v>1293.6645795578677</v>
       </c>
       <c r="D64" s="248">
-        <v>3164.8109376450384</v>
+        <v>3164.7171603295983</v>
       </c>
       <c r="E64" s="248">
-        <v>6629.0020876299941</v>
+        <v>6628.8142324894543</v>
       </c>
       <c r="F64" s="248">
-        <v>5196.3009946632183</v>
+        <v>5196.1448803429585</v>
       </c>
       <c r="G64" s="248">
-        <v>9623.3764196067423</v>
+        <v>9623.2222112271611</v>
       </c>
       <c r="H64" s="248">
-        <v>16406.567296507885</v>
+        <v>16406.819470776787</v>
       </c>
       <c r="I64" s="248">
-        <v>14488.4097742551</v>
+        <v>14489.524401102699</v>
       </c>
       <c r="J64" s="248">
-        <v>914.49882826858084</v>
+        <v>913.74746063523344</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -26869,31 +26869,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>956.67440559284648</v>
+        <v>956.66967103594664</v>
       </c>
       <c r="C65" s="248">
-        <v>1449.7653911528098</v>
+        <v>1449.7466473823797</v>
       </c>
       <c r="D65" s="248">
-        <v>3438.7375548822474</v>
+        <v>3438.6437775668073</v>
       </c>
       <c r="E65" s="248">
-        <v>7040.6945089076116</v>
+        <v>7040.5066537670718</v>
       </c>
       <c r="F65" s="248">
-        <v>5487.4497206640008</v>
+        <v>5487.2936063437419</v>
       </c>
       <c r="G65" s="248">
-        <v>9970.3003274055936</v>
+        <v>9970.1461190260143</v>
       </c>
       <c r="H65" s="248">
-        <v>16664.994313736734</v>
+        <v>16665.246488005636</v>
       </c>
       <c r="I65" s="248">
-        <v>14488.4097742551</v>
+        <v>14489.524401102699</v>
       </c>
       <c r="J65" s="248">
-        <v>944.97400340304739</v>
+        <v>944.22263576970727</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -27009,31 +27009,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>2169.79684083211</v>
+        <v>2169.7921062752102</v>
       </c>
       <c r="C69" s="248">
-        <v>2670.1952494366706</v>
+        <v>2670.1765056662402</v>
       </c>
       <c r="D69" s="248">
-        <v>5901.824685331665</v>
+        <v>5901.730908016224</v>
       </c>
       <c r="E69" s="248">
-        <v>12057.950793555963</v>
+        <v>12057.762938415424</v>
       </c>
       <c r="F69" s="248">
-        <v>14887.771448492244</v>
+        <v>14887.615334171984</v>
       </c>
       <c r="G69" s="248">
-        <v>9970.3003274055936</v>
+        <v>9970.1461190260143</v>
       </c>
       <c r="H69" s="248">
-        <v>16664.994313736734</v>
+        <v>16665.246488005636</v>
       </c>
       <c r="I69" s="248">
-        <v>14488.4097742551</v>
+        <v>14489.524401102699</v>
       </c>
       <c r="J69" s="248">
-        <v>1066.7565669539326</v>
+        <v>1066.0051993205852</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -27289,31 +27289,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>3146.1732849110126</v>
+        <v>3146.1685503541134</v>
       </c>
       <c r="C77" s="248">
-        <v>3629.338872281126</v>
+        <v>3629.3201285106961</v>
       </c>
       <c r="D77" s="248">
-        <v>7689.12249158587</v>
+        <v>7689.0287142704292</v>
       </c>
       <c r="E77" s="248">
-        <v>17074.761105960679</v>
+        <v>17074.57325082014</v>
       </c>
       <c r="F77" s="248">
-        <v>17506.528641128218</v>
+        <v>17506.372526807958</v>
       </c>
       <c r="G77" s="248">
-        <v>18577.014411554312</v>
+        <v>18576.860203174732</v>
       </c>
       <c r="H77" s="248">
-        <v>16664.994313736734</v>
+        <v>16665.246488005636</v>
       </c>
       <c r="I77" s="248">
-        <v>14488.4097742551</v>
+        <v>14489.524401102699</v>
       </c>
       <c r="J77" s="248">
-        <v>1348.6571045869787</v>
+        <v>1347.9057369536313</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -27499,31 +27499,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>25072.183781156797</v>
+        <v>25072.179562523455</v>
       </c>
       <c r="C83" s="248">
-        <v>3652.0168422778147</v>
+        <v>3651.9984218915533</v>
       </c>
       <c r="D83" s="248">
-        <v>7739.084473069579</v>
+        <v>7738.9909040516968</v>
       </c>
       <c r="E83" s="248">
-        <v>17201.555130502969</v>
+        <v>17201.366448704179</v>
       </c>
       <c r="F83" s="248">
-        <v>17611.448900361771</v>
+        <v>17611.290204907047</v>
       </c>
       <c r="G83" s="248">
-        <v>20612.889857078964</v>
+        <v>20612.728130861644</v>
       </c>
       <c r="H83" s="248">
-        <v>16942.825216893041</v>
+        <v>16943.075644712786</v>
       </c>
       <c r="I83" s="248">
-        <v>14930.761650114608</v>
+        <v>14931.896544176627</v>
       </c>
       <c r="J83" s="248">
-        <v>3141.2341485444922</v>
+        <v>3140.4741381710628</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -27879,31 +27879,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>11771.882755677492</v>
+        <v>11771.878537044149</v>
       </c>
       <c r="C97" s="248">
-        <v>-10548.274441905835</v>
+        <v>-10548.292862292095</v>
       </c>
       <c r="D97" s="248">
-        <v>-15902.407126922317</v>
+        <v>-15902.500695940198</v>
       </c>
       <c r="E97" s="248">
-        <v>-3649.002540182039</v>
+        <v>-3649.1912219808287</v>
       </c>
       <c r="F97" s="248">
-        <v>4911.1794400957733</v>
+        <v>4911.0207446410486</v>
       </c>
       <c r="G97" s="248">
-        <v>7442.5485768358558</v>
+        <v>7442.3868506185336</v>
       </c>
       <c r="H97" s="248">
-        <v>5129.3093412882909</v>
+        <v>5129.5597691080384</v>
       </c>
       <c r="I97" s="248">
-        <v>10593.463122581665</v>
+        <v>10594.598016643684</v>
       </c>
       <c r="J97" s="248">
-        <v>3897.3008725311447</v>
+        <v>3896.5408621576953</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -28090,31 +28090,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>26391.589842186073</v>
+        <v>26391.585734507957</v>
       </c>
       <c r="C9" s="231">
-        <v>5727.9816339478884</v>
+        <v>5727.9642526772041</v>
       </c>
       <c r="D9" s="231">
-        <v>10848.840187888978</v>
+        <v>10848.757175311817</v>
       </c>
       <c r="E9" s="231">
-        <v>21602.907206425632</v>
+        <v>21602.774001764043</v>
       </c>
       <c r="F9" s="231">
-        <v>20254.027992626936</v>
+        <v>20253.970696059387</v>
       </c>
       <c r="G9" s="231">
-        <v>23223.272694685704</v>
+        <v>23223.370925446383</v>
       </c>
       <c r="H9" s="231">
-        <v>13130.550421547272</v>
+        <v>13130.963493006393</v>
       </c>
       <c r="I9" s="231">
-        <v>2954.8322242452437</v>
+        <v>2955.0704482518158</v>
       </c>
       <c r="J9" s="231">
-        <v>2769.9977964463033</v>
+        <v>2769.5432729750173</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -28140,28 +28140,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>26391.589842186073</v>
+        <v>26391.585734507957</v>
       </c>
       <c r="C11" s="231">
-        <v>32119.571476133962</v>
+        <v>32119.549987185161</v>
       </c>
       <c r="D11" s="231">
-        <v>42968.41166402294</v>
+        <v>42968.307162496974</v>
       </c>
       <c r="E11" s="231">
-        <v>64571.318870448573</v>
+        <v>64571.081164261021</v>
       </c>
       <c r="F11" s="231">
-        <v>84825.346863075509</v>
+        <v>84825.051860320411</v>
       </c>
       <c r="G11" s="231">
-        <v>108048.61955776121</v>
+        <v>108048.4227857668</v>
       </c>
       <c r="H11" s="231">
-        <v>121179.16997930848</v>
+        <v>121179.38627877319</v>
       </c>
       <c r="I11" s="231">
-        <v>124134.00220355373</v>
+        <v>124134.45672702501</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -28278,31 +28278,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>13116.071239611547</v>
+        <v>13116.067131933431</v>
       </c>
       <c r="C15" s="231">
-        <v>-8467.5790871468016</v>
+        <v>-8467.5964684174869</v>
       </c>
       <c r="D15" s="231">
-        <v>-12781.693434535813</v>
+        <v>-12781.776447112974</v>
       </c>
       <c r="E15" s="231">
-        <v>802.122700574233</v>
+        <v>801.98949591264318</v>
       </c>
       <c r="F15" s="231">
-        <v>7582.3423724194163</v>
+        <v>7582.2850758518671</v>
       </c>
       <c r="G15" s="231">
-        <v>10090.994981819194</v>
+        <v>10091.093212579874</v>
       </c>
       <c r="H15" s="231">
-        <v>1410.8630245728127</v>
+        <v>1411.2760960319338</v>
       </c>
       <c r="I15" s="231">
-        <v>-1336.5344006517767</v>
+        <v>-1336.2961766452045</v>
       </c>
       <c r="J15" s="231">
-        <v>-10416.587396662813</v>
+        <v>-10417.0419201341</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -28311,31 +28311,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.10335427756108195</v>
+        <v>0.10335424519269233</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.06672428833722184</v>
+        <v>-0.066724425301152718</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.10071938973189033</v>
+        <v>-0.10072004386869579</v>
       </c>
       <c r="E16" s="236">
-        <v>0.0063207046316446514</v>
+        <v>0.0063196549826060877</v>
       </c>
       <c r="F16" s="237">
-        <v>0.05974864757942551</v>
+        <v>0.059748196084062483</v>
       </c>
       <c r="G16" s="236">
-        <v>0.07951676055773807</v>
+        <v>0.079517534613407548</v>
       </c>
       <c r="H16" s="236">
-        <v>0.011117561499817283</v>
+        <v>0.011120816491457585</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.010531854005009899</v>
+        <v>-0.010529976806445851</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.082082419755585417</v>
+        <v>-0.0820860013879318</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -28344,28 +28344,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>13116.071239611547</v>
+        <v>13116.067131933431</v>
       </c>
       <c r="C17" s="231">
-        <v>4648.4921524647434</v>
+        <v>4648.4706635159419</v>
       </c>
       <c r="D17" s="231">
-        <v>-8133.2012820710734</v>
+        <v>-8133.3057835970394</v>
       </c>
       <c r="E17" s="231">
-        <v>-7331.0785814968331</v>
+        <v>-7331.3162876843853</v>
       </c>
       <c r="F17" s="231">
-        <v>251.26379092258867</v>
+        <v>250.96878816749086</v>
       </c>
       <c r="G17" s="231">
-        <v>10342.258772741785</v>
+        <v>10342.062000747377</v>
       </c>
       <c r="H17" s="231">
-        <v>11753.121797314598</v>
+        <v>11753.338096779306</v>
       </c>
       <c r="I17" s="231">
-        <v>10416.587396662813</v>
+        <v>10417.0419201341</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -28377,28 +28377,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.10335427756108195</v>
+        <v>0.10335424519269233</v>
       </c>
       <c r="C18" s="236">
-        <v>0.0366299892238601</v>
+        <v>0.036629819891539593</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.057768695876385542</v>
+        <v>-0.057770568994550082</v>
       </c>
       <c r="F18" s="237">
-        <v>0.0019799517030400036</v>
+        <v>0.0019776270895124721</v>
       </c>
       <c r="G18" s="236">
-        <v>0.081496712260778092</v>
+        <v>0.081495161702920121</v>
       </c>
       <c r="H18" s="236">
-        <v>0.092614273760595361</v>
+        <v>0.092615978194377654</v>
       </c>
       <c r="I18" s="236">
-        <v>0.082082419755585417</v>
+        <v>0.0820860013879318</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -28410,31 +28410,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.9879893684204504</v>
+        <v>1.9879890590029248</v>
       </c>
       <c r="C19" s="236">
-        <v>0.40350513420974438</v>
+        <v>0.40350390979381418</v>
       </c>
       <c r="D19" s="236">
-        <v>0.45910263226530346</v>
+        <v>0.45909911932824976</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0385621369400078</v>
+        <v>1.0385557331112698</v>
       </c>
       <c r="F19" s="237">
-        <v>1.598368883167987</v>
+        <v>1.5983643615463761</v>
       </c>
       <c r="G19" s="236">
-        <v>1.7684116344822969</v>
+        <v>1.7684191145830708</v>
       </c>
       <c r="H19" s="236">
-        <v>1.1203840151006963</v>
+        <v>1.1204192610458421</v>
       </c>
       <c r="I19" s="236">
-        <v>0.68855273448377319</v>
+        <v>0.68860824687117672</v>
       </c>
       <c r="J19" s="236">
-        <v>0.21006179809870826</v>
+        <v>0.21002732947285632</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -28443,28 +28443,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.9879893684204504</v>
+        <v>1.9879890590029248</v>
       </c>
       <c r="C20" s="236">
-        <v>1.1692140340645292</v>
+        <v>1.1692132518255589</v>
       </c>
       <c r="D20" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="E20" s="236">
-        <v>0.89804124978730482</v>
+        <v>0.89803794383095326</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0029709313041944</v>
+        <v>1.0029674432054248</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1058504143399381</v>
+        <v>1.1058484004281228</v>
       </c>
       <c r="H20" s="236">
-        <v>1.107406983918191</v>
+        <v>1.1074089605907318</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0916006349102441</v>
+        <v>1.0916046318659616</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -28507,28 +28507,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.038846164468473721</v>
+        <v>-0.038846955757706476</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.045429985926631396</v>
+        <v>-0.045430784412634033</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.05387151383472473</v>
+        <v>-0.053872326127739428</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.056251647578101423</v>
+        <v>-0.056252444348477759</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.094637000047821968</v>
+        <v>-0.094637872728672134</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.11566852749441044</v>
+        <v>-0.11566944321052249</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.064089400508030248</v>
+        <v>-0.06409022397715626</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -28538,28 +28538,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="C24" s="236">
-        <v>0.90113598636578118</v>
+        <v>0.90113397252398841</v>
       </c>
       <c r="D24" s="236">
-        <v>0.88562322355000089</v>
+        <v>0.88562121324220167</v>
       </c>
       <c r="E24" s="236">
-        <v>0.86584729837259788</v>
+        <v>0.865845275572519</v>
       </c>
       <c r="F24" s="236">
-        <v>0.86014358535849722</v>
+        <v>0.86014160437744291</v>
       </c>
       <c r="G24" s="236">
-        <v>0.76502703268479555</v>
+        <v>0.76502486591694807</v>
       </c>
       <c r="H24" s="236">
-        <v>0.71298004126930925</v>
+        <v>0.712977769010758</v>
       </c>
       <c r="I24" s="236">
-        <v>0.84084257202114909</v>
+        <v>0.84084052704605061</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -28930,31 +28930,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="246">
-        <v>21.3757983594201</v>
+        <v>21.376312280137498</v>
       </c>
       <c r="C51" s="246">
-        <v>25.0445608185018</v>
+        <v>25.044875963948</v>
       </c>
       <c r="D51" s="246">
-        <v>56.725559329829395</v>
+        <v>56.725710283649</v>
       </c>
       <c r="E51" s="246">
-        <v>142.222935380026</v>
+        <v>142.221766935235</v>
       </c>
       <c r="F51" s="246">
-        <v>115.843818299925</v>
+        <v>115.841036682678</v>
       </c>
       <c r="G51" s="246">
-        <v>195.36159309565898</v>
+        <v>195.35542611914</v>
       </c>
       <c r="H51" s="246">
-        <v>318.811544511809</v>
+        <v>318.812573084829</v>
       </c>
       <c r="I51" s="246">
-        <v>346.911566295874</v>
+        <v>346.927705457876</v>
       </c>
       <c r="J51" s="246">
-        <v>14.702623908955729</v>
+        <v>14.694593192507455</v>
       </c>
       <c r="K51" s="246">
         <v>1237</v>
@@ -28965,31 +28965,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>21.3757983594201</v>
+        <v>21.376312280137498</v>
       </c>
       <c r="C52" s="248">
-        <v>25.0445608185018</v>
+        <v>25.044875963948</v>
       </c>
       <c r="D52" s="248">
-        <v>56.725559329829395</v>
+        <v>56.725710283649</v>
       </c>
       <c r="E52" s="248">
-        <v>142.222935380026</v>
+        <v>142.221766935235</v>
       </c>
       <c r="F52" s="248">
-        <v>115.843818299925</v>
+        <v>115.841036682678</v>
       </c>
       <c r="G52" s="248">
-        <v>195.36159309565898</v>
+        <v>195.35542611914</v>
       </c>
       <c r="H52" s="248">
-        <v>318.811544511809</v>
+        <v>318.812573084829</v>
       </c>
       <c r="I52" s="248">
-        <v>346.911566295874</v>
+        <v>346.927705457876</v>
       </c>
       <c r="J52" s="248">
-        <v>14.702623908955729</v>
+        <v>14.694593192507455</v>
       </c>
       <c r="K52" s="248">
         <v>1237</v>
@@ -29070,31 +29070,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>143.44402863660608</v>
+        <v>143.4445425573235</v>
       </c>
       <c r="C55" s="248">
-        <v>25.0445608185018</v>
+        <v>25.044875963948</v>
       </c>
       <c r="D55" s="248">
-        <v>56.725559329829395</v>
+        <v>56.725710283649</v>
       </c>
       <c r="E55" s="248">
-        <v>142.222935380026</v>
+        <v>142.221766935235</v>
       </c>
       <c r="F55" s="248">
-        <v>115.843818299925</v>
+        <v>115.841036682678</v>
       </c>
       <c r="G55" s="248">
-        <v>302.29336281847304</v>
+        <v>302.287195841954</v>
       </c>
       <c r="H55" s="248">
-        <v>318.811544511809</v>
+        <v>318.812573084829</v>
       </c>
       <c r="I55" s="248">
-        <v>346.911566295874</v>
+        <v>346.927705457876</v>
       </c>
       <c r="J55" s="248">
-        <v>14.702623908955502</v>
+        <v>14.694593192507455</v>
       </c>
       <c r="K55" s="248">
         <v>1466</v>
@@ -29105,31 +29105,31 @@
         <v>57</v>
       </c>
       <c r="B56" s="248">
-        <v>2143.4440286366021</v>
+        <v>2143.4445425573194</v>
       </c>
       <c r="C56" s="248">
-        <v>25.0445608185018</v>
+        <v>25.044875963948</v>
       </c>
       <c r="D56" s="248">
-        <v>56.725559329829395</v>
+        <v>56.725710283649</v>
       </c>
       <c r="E56" s="248">
-        <v>142.222935380026</v>
+        <v>142.221766935235</v>
       </c>
       <c r="F56" s="248">
-        <v>115.843818299925</v>
+        <v>115.841036682678</v>
       </c>
       <c r="G56" s="248">
-        <v>2054.2933628184742</v>
+        <v>2054.2871958419551</v>
       </c>
       <c r="H56" s="248">
-        <v>318.811544511809</v>
+        <v>318.812573084829</v>
       </c>
       <c r="I56" s="248">
-        <v>346.911566295874</v>
+        <v>346.927705457876</v>
       </c>
       <c r="J56" s="248">
-        <v>14.702623908958231</v>
+        <v>14.694593192511093</v>
       </c>
       <c r="K56" s="248">
         <v>5218</v>
@@ -29315,31 +29315,31 @@
         <v>63</v>
       </c>
       <c r="B62" s="246">
-        <v>2042.65835132185</v>
+        <v>2042.65372972301</v>
       </c>
       <c r="C62" s="246">
-        <v>3310.77321493839</v>
+        <v>3310.75551852226</v>
       </c>
       <c r="D62" s="246">
-        <v>6168.6300548656</v>
+        <v>6168.54689133462</v>
       </c>
       <c r="E62" s="246">
-        <v>10860.217742508401</v>
+        <v>10860.085706291598</v>
       </c>
       <c r="F62" s="246">
-        <v>7718.99834414671</v>
+        <v>7718.9438291964107</v>
       </c>
       <c r="G62" s="246">
-        <v>12088.304107408401</v>
+        <v>12088.4085051456</v>
       </c>
       <c r="H62" s="246">
-        <v>12470.2040258723</v>
+        <v>12470.6160687584</v>
       </c>
       <c r="I62" s="246">
-        <v>2607.92065794937</v>
+        <v>2608.14274279394</v>
       </c>
       <c r="J62" s="246">
-        <v>533.293500988977</v>
+        <v>532.84700823415915</v>
       </c>
       <c r="K62" s="246">
         <v>57801</v>
@@ -29385,31 +29385,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>2104.322866733602</v>
+        <v>2104.3182451347625</v>
       </c>
       <c r="C64" s="248">
-        <v>3367.2815241765579</v>
+        <v>3367.2638277604278</v>
       </c>
       <c r="D64" s="248">
-        <v>6267.8030746183185</v>
+        <v>6267.7199110873389</v>
       </c>
       <c r="E64" s="248">
-        <v>11010.771605401949</v>
+        <v>11010.639569185149</v>
       </c>
       <c r="F64" s="248">
-        <v>7825.35012401066</v>
+        <v>7825.29560906036</v>
       </c>
       <c r="G64" s="248">
-        <v>12214.286962576027</v>
+        <v>12214.391360313226</v>
       </c>
       <c r="H64" s="248">
-        <v>12560.986860221616</v>
+        <v>12561.398903107716</v>
       </c>
       <c r="I64" s="248">
-        <v>2607.92065794937</v>
+        <v>2608.14274279394</v>
       </c>
       <c r="J64" s="248">
-        <v>544.27632431190432</v>
+        <v>543.82983155707916</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -29420,31 +29420,31 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>2274.6469342313062</v>
+        <v>2274.6423126324667</v>
       </c>
       <c r="C65" s="248">
-        <v>3523.3635920010697</v>
+        <v>3523.3458955849396</v>
       </c>
       <c r="D65" s="248">
-        <v>6541.7296918555276</v>
+        <v>6541.6465283245479</v>
       </c>
       <c r="E65" s="248">
-        <v>11426.61767399254</v>
+        <v>11426.485637775737</v>
       </c>
       <c r="F65" s="248">
-        <v>8119.1052538627946</v>
+        <v>8119.050738912495</v>
       </c>
       <c r="G65" s="248">
-        <v>12562.265247718511</v>
+        <v>12562.36964545571</v>
       </c>
       <c r="H65" s="248">
-        <v>12811.738877035463</v>
+        <v>12812.150919921563</v>
       </c>
       <c r="I65" s="248">
-        <v>2607.92065794937</v>
+        <v>2608.14274279394</v>
       </c>
       <c r="J65" s="248">
-        <v>574.61207135342556</v>
+        <v>574.1655785986004</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -29560,31 +29560,31 @@
         <v>70</v>
       </c>
       <c r="B69" s="248">
-        <v>3487.7693694705704</v>
+        <v>3487.7647478717304</v>
       </c>
       <c r="C69" s="248">
-        <v>4743.79345028493</v>
+        <v>4743.7757538687993</v>
       </c>
       <c r="D69" s="248">
-        <v>9004.8168223049452</v>
+        <v>9004.7336587739665</v>
       </c>
       <c r="E69" s="248">
-        <v>16443.873958640892</v>
+        <v>16443.741922424091</v>
       </c>
       <c r="F69" s="248">
-        <v>17519.426981691035</v>
+        <v>17519.372466740737</v>
       </c>
       <c r="G69" s="248">
-        <v>12562.265247718511</v>
+        <v>12562.36964545571</v>
       </c>
       <c r="H69" s="248">
-        <v>12811.738877035463</v>
+        <v>12812.150919921563</v>
       </c>
       <c r="I69" s="248">
-        <v>2607.92065794937</v>
+        <v>2608.14274279394</v>
       </c>
       <c r="J69" s="248">
-        <v>696.3946349042817</v>
+        <v>695.94814214948565</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -29840,31 +29840,31 @@
         <v>78</v>
       </c>
       <c r="B77" s="248">
-        <v>4464.145813549474</v>
+        <v>4464.1411919506345</v>
       </c>
       <c r="C77" s="248">
-        <v>5702.9370731293866</v>
+        <v>5702.9193767132565</v>
       </c>
       <c r="D77" s="248">
-        <v>10792.114628559148</v>
+        <v>10792.031465028169</v>
       </c>
       <c r="E77" s="248">
-        <v>21460.684271045608</v>
+        <v>21460.552234828807</v>
       </c>
       <c r="F77" s="248">
-        <v>20138.184174327009</v>
+        <v>20138.129659376711</v>
       </c>
       <c r="G77" s="248">
-        <v>21168.979331867231</v>
+        <v>21169.083729604426</v>
       </c>
       <c r="H77" s="248">
-        <v>12811.738877035463</v>
+        <v>12812.150919921563</v>
       </c>
       <c r="I77" s="248">
-        <v>2607.92065794937</v>
+        <v>2608.14274279394</v>
       </c>
       <c r="J77" s="248">
-        <v>978.2951725373423</v>
+        <v>977.84867978253169</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -30050,31 +30050,31 @@
         <v>44</v>
       </c>
       <c r="B83" s="248">
-        <v>26391.589842186073</v>
+        <v>26391.585734507957</v>
       </c>
       <c r="C83" s="248">
-        <v>5727.9816339478884</v>
+        <v>5727.9642526772041</v>
       </c>
       <c r="D83" s="248">
-        <v>10848.840187888978</v>
+        <v>10848.757175311817</v>
       </c>
       <c r="E83" s="248">
-        <v>21602.907206425632</v>
+        <v>21602.774001764043</v>
       </c>
       <c r="F83" s="248">
-        <v>20254.027992626936</v>
+        <v>20253.970696059387</v>
       </c>
       <c r="G83" s="248">
-        <v>23223.272694685704</v>
+        <v>23223.370925446383</v>
       </c>
       <c r="H83" s="248">
-        <v>13130.550421547272</v>
+        <v>13130.963493006393</v>
       </c>
       <c r="I83" s="248">
-        <v>2954.8322242452437</v>
+        <v>2955.0704482518158</v>
       </c>
       <c r="J83" s="248">
-        <v>2769.9977964463033</v>
+        <v>2769.5432729750173</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -30430,31 +30430,31 @@
         <v>92</v>
       </c>
       <c r="B97" s="248">
-        <v>13116.071239611549</v>
+        <v>13116.067131933431</v>
       </c>
       <c r="C97" s="248">
-        <v>-8467.5790871468016</v>
+        <v>-8467.5964684174869</v>
       </c>
       <c r="D97" s="248">
-        <v>-12781.693434535815</v>
+        <v>-12781.776447112976</v>
       </c>
       <c r="E97" s="248">
-        <v>802.12270057423416</v>
+        <v>801.989495912645</v>
       </c>
       <c r="F97" s="248">
-        <v>7582.3423724194154</v>
+        <v>7582.2850758518671</v>
       </c>
       <c r="G97" s="248">
-        <v>10090.994981819196</v>
+        <v>10091.093212579874</v>
       </c>
       <c r="H97" s="248">
-        <v>1410.863024572812</v>
+        <v>1411.276096031934</v>
       </c>
       <c r="I97" s="248">
-        <v>-1336.5344006517762</v>
+        <v>-1336.296176645204</v>
       </c>
       <c r="J97" s="248">
-        <v>3229.4126033372158</v>
+        <v>3228.9580798659463</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Liquidity_GAP.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Liquidity Gap Report</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 03/14/21 4:46:41 AM</t>
+    <t>Printed on: 04/08/21 4:51:00 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-202012</t>
+  </si>
+  <si>
+    <t>Printed on: 04/08/21 4:50:59 AM</t>
   </si>
   <si>
     <t>Notes</t>
@@ -9870,7 +9873,7 @@
       <c r="I3" s="227"/>
       <c r="J3" s="227"/>
       <c r="K3" s="232" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -9973,22 +9976,22 @@
         <v>11637.171583286678</v>
       </c>
       <c r="E9" s="231">
-        <v>23449.927996953305</v>
+        <v>23449.92799677276</v>
       </c>
       <c r="F9" s="231">
-        <v>20396.723453801656</v>
+        <v>20396.723453131068</v>
       </c>
       <c r="G9" s="231">
-        <v>22124.1971899787</v>
+        <v>22124.197194767912</v>
       </c>
       <c r="H9" s="231">
-        <v>10952.173691723354</v>
+        <v>10952.173687826775</v>
       </c>
       <c r="I9" s="231">
         <v>2618.5736395004542</v>
       </c>
       <c r="J9" s="231">
-        <v>2722.0046145177912</v>
+        <v>2722.0046144763037</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -10023,19 +10026,19 @@
         <v>44640.399413524763</v>
       </c>
       <c r="E11" s="231">
-        <v>68090.327410478072</v>
+        <v>68090.327410297527</v>
       </c>
       <c r="F11" s="231">
-        <v>88487.050864279736</v>
+        <v>88487.0508634286</v>
       </c>
       <c r="G11" s="231">
-        <v>110611.24805425844</v>
+        <v>110611.24805819651</v>
       </c>
       <c r="H11" s="231">
-        <v>121563.42174598179</v>
+        <v>121563.42174602328</v>
       </c>
       <c r="I11" s="231">
-        <v>124181.99538548224</v>
+        <v>124181.99538552373</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -10161,22 +10164,22 @@
         <v>-11688.526390159515</v>
       </c>
       <c r="E15" s="231">
-        <v>2451.4167323468246</v>
+        <v>2451.416732166279</v>
       </c>
       <c r="F15" s="231">
-        <v>7592.6076153490267</v>
+        <v>7592.607614678438</v>
       </c>
       <c r="G15" s="231">
-        <v>8911.097987022009</v>
+        <v>8911.0979918112225</v>
       </c>
       <c r="H15" s="231">
-        <v>-793.94931834818453</v>
+        <v>-793.94932224476361</v>
       </c>
       <c r="I15" s="231">
         <v>-1669.5424210746887</v>
       </c>
       <c r="J15" s="231">
-        <v>-10726.282330194081</v>
+        <v>-10726.282330235568</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -10194,22 +10197,22 @@
         <v>-0.092105263743928578</v>
       </c>
       <c r="E16" s="236">
-        <v>0.019317095854715565</v>
+        <v>0.01931709585329287</v>
       </c>
       <c r="F16" s="237">
-        <v>0.059829537408978631</v>
+        <v>0.059829537403694413</v>
       </c>
       <c r="G16" s="236">
-        <v>0.070219204966131932</v>
+        <v>0.070219205003870813</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.0062562986064125976</v>
+        <v>-0.0062562986371175336</v>
       </c>
       <c r="I16" s="236">
         <v>-0.013155947969131695</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.084522807241647846</v>
+        <v>-0.084522807241974765</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -10227,19 +10230,19 @@
         <v>-5765.3482651009108</v>
       </c>
       <c r="E17" s="231">
-        <v>-3313.9315327540826</v>
+        <v>-3313.9315329346282</v>
       </c>
       <c r="F17" s="231">
-        <v>4278.6760825949459</v>
+        <v>4278.6760817438044</v>
       </c>
       <c r="G17" s="231">
-        <v>13189.774069616964</v>
+        <v>13189.774073555032</v>
       </c>
       <c r="H17" s="231">
-        <v>12395.824751268781</v>
+        <v>12395.824751310269</v>
       </c>
       <c r="I17" s="231">
-        <v>10726.282330194081</v>
+        <v>10726.282330235568</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -10260,19 +10263,19 @@
         <v>-0.045430784412634033</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.026113688557918444</v>
+        <v>-0.026113688559341135</v>
       </c>
       <c r="F18" s="237">
-        <v>0.033715848851060208</v>
+        <v>0.03371584884435324</v>
       </c>
       <c r="G18" s="236">
-        <v>0.1039350538171922</v>
+        <v>0.10393505384822407</v>
       </c>
       <c r="H18" s="236">
-        <v>0.097678755210779636</v>
+        <v>0.097678755211106555</v>
       </c>
       <c r="I18" s="236">
-        <v>0.084522807241647846</v>
+        <v>0.084522807241974765</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -10293,22 +10296,22 @@
         <v>0.49889917963159564</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1167424062332814</v>
+        <v>1.1167424062246834</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5929817967240907</v>
+        <v>1.5929817966717179</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6744139168370109</v>
+        <v>1.6744139171994705</v>
       </c>
       <c r="H19" s="236">
-        <v>0.932407542670256</v>
+        <v>0.93240754233852285</v>
       </c>
       <c r="I19" s="236">
         <v>0.61065829434412233</v>
       </c>
       <c r="J19" s="236">
-        <v>0.20240530453494945</v>
+        <v>0.20240530453186448</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -10326,19 +10329,19 @@
         <v>0.88562121324220167</v>
       </c>
       <c r="E20" s="236">
-        <v>0.95358916146180117</v>
+        <v>0.95358916145927264</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0508105766639917</v>
+        <v>1.0508105766538842</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1353887754941621</v>
+        <v>1.1353887755345848</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1135485720352452</v>
+        <v>1.1135485720356251</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0945415796291109</v>
+        <v>1.0945415796294766</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -11163,22 +11166,22 @@
         <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>425.75955424673305</v>
+        <v>425.75955411417704</v>
       </c>
       <c r="F61" s="246">
-        <v>296.222550715808</v>
+        <v>296.222550223469</v>
       </c>
       <c r="G61" s="246">
-        <v>344.366890995647</v>
+        <v>344.36689451184895</v>
       </c>
       <c r="H61" s="246">
-        <v>242.210818591806</v>
+        <v>242.21081573097</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.107432890581094</v>
+        <v>30.107432860110293</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -11233,22 +11236,22 @@
         <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>154.142963940798</v>
+        <v>154.142963892807</v>
       </c>
       <c r="F63" s="246">
-        <v>107.245090563433</v>
+        <v>107.245090385186</v>
       </c>
       <c r="G63" s="246">
-        <v>124.675377761188</v>
+        <v>124.675379034202</v>
       </c>
       <c r="H63" s="246">
-        <v>87.6905593870285</v>
+        <v>87.690558351284793</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.900163944913743</v>
+        <v>10.900163933881458</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -11268,22 +11271,22 @@
         <v>7039.2855605350187</v>
       </c>
       <c r="E64" s="248">
-        <v>12845.582150910099</v>
+        <v>12845.582150862107</v>
       </c>
       <c r="F64" s="248">
-        <v>7961.7094946470825</v>
+        <v>7961.7094944688351</v>
       </c>
       <c r="G64" s="248">
-        <v>11110.58167637829</v>
+        <v>11110.581677651302</v>
       </c>
       <c r="H64" s="248">
-        <v>10410.958661946828</v>
+        <v>10410.958660911083</v>
       </c>
       <c r="I64" s="248">
         <v>2299.94464130906</v>
       </c>
       <c r="J64" s="248">
-        <v>497.00721605548461</v>
+        <v>497.00721604446153</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -11303,22 +11306,22 @@
         <v>7313.2121777722277</v>
       </c>
       <c r="E65" s="248">
-        <v>13271.34170515683</v>
+        <v>13271.341704976285</v>
       </c>
       <c r="F65" s="248">
-        <v>8257.9320453628916</v>
+        <v>8257.9320446923048</v>
       </c>
       <c r="G65" s="248">
-        <v>11454.948567373936</v>
+        <v>11454.948572163152</v>
       </c>
       <c r="H65" s="248">
-        <v>10653.169480538632</v>
+        <v>10653.169476642053</v>
       </c>
       <c r="I65" s="248">
         <v>2299.94464130906</v>
       </c>
       <c r="J65" s="248">
-        <v>527.11464894606615</v>
+        <v>527.11464890456409</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -11443,22 +11446,22 @@
         <v>9776.2993082216453</v>
       </c>
       <c r="E69" s="248">
-        <v>18288.597989805185</v>
+        <v>18288.597989624639</v>
       </c>
       <c r="F69" s="248">
-        <v>17658.253773191136</v>
+        <v>17658.253772520548</v>
       </c>
       <c r="G69" s="248">
-        <v>11454.948567373936</v>
+        <v>11454.948572163152</v>
       </c>
       <c r="H69" s="248">
-        <v>10653.169480538632</v>
+        <v>10653.169476642053</v>
       </c>
       <c r="I69" s="248">
         <v>2299.94464130906</v>
       </c>
       <c r="J69" s="248">
-        <v>648.89721249694412</v>
+        <v>648.89721245544206</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -11723,22 +11726,22 @@
         <v>11563.597114475848</v>
       </c>
       <c r="E77" s="248">
-        <v>23305.4083022099</v>
+        <v>23305.408302029351</v>
       </c>
       <c r="F77" s="248">
-        <v>20277.010965827107</v>
+        <v>20277.010965156518</v>
       </c>
       <c r="G77" s="248">
-        <v>20061.662651522656</v>
+        <v>20061.662656311866</v>
       </c>
       <c r="H77" s="248">
-        <v>10653.169480538632</v>
+        <v>10653.169476642053</v>
       </c>
       <c r="I77" s="248">
         <v>2299.94464130906</v>
       </c>
       <c r="J77" s="248">
-        <v>930.79775012999016</v>
+        <v>930.79775008850265</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -11933,22 +11936,22 @@
         <v>11637.171583286678</v>
       </c>
       <c r="E83" s="248">
-        <v>23449.927996953305</v>
+        <v>23449.92799677276</v>
       </c>
       <c r="F83" s="248">
-        <v>20396.723453801656</v>
+        <v>20396.723453131068</v>
       </c>
       <c r="G83" s="248">
-        <v>22124.1971899787</v>
+        <v>22124.197194767912</v>
       </c>
       <c r="H83" s="248">
-        <v>10952.173691723354</v>
+        <v>10952.173687826775</v>
       </c>
       <c r="I83" s="248">
         <v>2618.5736395004542</v>
       </c>
       <c r="J83" s="248">
-        <v>2722.0046145177912</v>
+        <v>2722.0046144763037</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -12313,22 +12316,22 @@
         <v>-11688.526390159515</v>
       </c>
       <c r="E97" s="248">
-        <v>2451.4167323468255</v>
+        <v>2451.416732166279</v>
       </c>
       <c r="F97" s="248">
-        <v>7592.6076153490285</v>
+        <v>7592.6076146784389</v>
       </c>
       <c r="G97" s="248">
-        <v>8911.09798702201</v>
+        <v>8911.09799181122</v>
       </c>
       <c r="H97" s="248">
-        <v>-793.94931834818419</v>
+        <v>-793.94932224476338</v>
       </c>
       <c r="I97" s="248">
         <v>-1669.5424210746885</v>
       </c>
       <c r="J97" s="248">
-        <v>2919.7176698059448</v>
+        <v>2919.7176697644481</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -12372,7 +12375,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="227" customFormat="1">
       <c r="A1" s="241" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="241"/>
       <c r="C1" s="241"/>
@@ -12396,127 +12399,127 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="229" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="226" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="226" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="226" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="226" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="226" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="226" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="226" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="226" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="226" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="226" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="226" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="226" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="226" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="226" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="226" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="226" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="226" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="226" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="226" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="226" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="226" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="229" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="226" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="226" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -12567,7 +12570,7 @@
   <sheetData>
     <row r="1" ht="24.75">
       <c r="A1" s="242" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>
@@ -17886,22 +17889,22 @@
         <v>11056.630977337549</v>
       </c>
       <c r="E9" s="231">
-        <v>22383.839678780736</v>
+        <v>22383.839678606189</v>
       </c>
       <c r="F9" s="231">
-        <v>20133.927583484608</v>
+        <v>20133.927582829754</v>
       </c>
       <c r="G9" s="231">
-        <v>22234.145980116245</v>
+        <v>22234.145984836774</v>
       </c>
       <c r="H9" s="231">
-        <v>11946.820503442168</v>
+        <v>11946.820499592042</v>
       </c>
       <c r="I9" s="231">
         <v>3321.1112798520262</v>
       </c>
       <c r="J9" s="231">
-        <v>2760.1058467129769</v>
+        <v>2760.1058466719696</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -17936,19 +17939,19 @@
         <v>44124.049127611281</v>
       </c>
       <c r="E11" s="231">
-        <v>66507.888806392017</v>
+        <v>66507.888806217466</v>
       </c>
       <c r="F11" s="231">
-        <v>86641.816389876622</v>
+        <v>86641.816389047221</v>
       </c>
       <c r="G11" s="231">
-        <v>108875.96236999286</v>
+        <v>108875.96237388399</v>
       </c>
       <c r="H11" s="231">
-        <v>120822.78287343503</v>
+        <v>120822.78287347603</v>
       </c>
       <c r="I11" s="231">
-        <v>124143.89415328705</v>
+        <v>124143.89415332806</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -18074,22 +18077,22 @@
         <v>-12526.135637013847</v>
       </c>
       <c r="E15" s="231">
-        <v>1604.4992360744764</v>
+        <v>1604.4992358999298</v>
       </c>
       <c r="F15" s="231">
-        <v>7450.8295640820379</v>
+        <v>7450.8295634271835</v>
       </c>
       <c r="G15" s="231">
-        <v>9097.9737897399955</v>
+        <v>9097.973794460524</v>
       </c>
       <c r="H15" s="231">
-        <v>207.18701500568022</v>
+        <v>207.1870111555545</v>
       </c>
       <c r="I15" s="231">
         <v>-972.58670675883786</v>
       </c>
       <c r="J15" s="231">
-        <v>-10551.289223228683</v>
+        <v>-10551.28922326969</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -18107,22 +18110,22 @@
         <v>-0.098705601375952245</v>
       </c>
       <c r="E16" s="236">
-        <v>0.012643409475465517</v>
+        <v>0.012643409474090095</v>
       </c>
       <c r="F16" s="237">
-        <v>0.0587123302975638</v>
+        <v>0.05871233029240356</v>
       </c>
       <c r="G16" s="236">
-        <v>0.071691781108081651</v>
+        <v>0.071691781145279285</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0016326279313944414</v>
+        <v>0.0016326279010555574</v>
       </c>
       <c r="I16" s="236">
         <v>-0.0076639562721335626</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.083143866412632231</v>
+        <v>-0.083143866412955361</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -18140,19 +18143,19 @@
         <v>-6836.6136749146463</v>
       </c>
       <c r="E17" s="231">
-        <v>-5232.1144388401735</v>
+        <v>-5232.1144390147238</v>
       </c>
       <c r="F17" s="231">
-        <v>2218.7151252418553</v>
+        <v>2218.7151244124543</v>
       </c>
       <c r="G17" s="231">
-        <v>11316.688914981845</v>
+        <v>11316.688918872969</v>
       </c>
       <c r="H17" s="231">
-        <v>11523.875929987524</v>
+        <v>11523.875930028516</v>
       </c>
       <c r="I17" s="231">
-        <v>10551.289223228683</v>
+        <v>10551.28922326969</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -18173,19 +18176,19 @@
         <v>-0.053872326127739428</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.041228916652273941</v>
+        <v>-0.041228916653649389</v>
       </c>
       <c r="F18" s="237">
-        <v>0.017483413645289783</v>
+        <v>0.017483413638754129</v>
       </c>
       <c r="G18" s="236">
-        <v>0.089175194753371392</v>
+        <v>0.089175194784033338</v>
       </c>
       <c r="H18" s="236">
-        <v>0.090807822684765824</v>
+        <v>0.090807822685088843</v>
       </c>
       <c r="I18" s="236">
-        <v>0.083143866412632231</v>
+        <v>0.083143866412955361</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -18206,22 +18209,22 @@
         <v>0.46884367547482692</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0772160810637121</v>
+        <v>1.077216081055312</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5874613247239577</v>
+        <v>1.5874613246723257</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6925894132542891</v>
+        <v>1.6925894136136424</v>
       </c>
       <c r="H19" s="236">
-        <v>1.0176485079546784</v>
+        <v>1.0176485076267188</v>
       </c>
       <c r="I19" s="236">
         <v>0.773485068164627</v>
       </c>
       <c r="J19" s="236">
-        <v>0.20734910444852972</v>
+        <v>0.20734910444544913</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -18239,19 +18242,19 @@
         <v>0.865845275572519</v>
       </c>
       <c r="E20" s="236">
-        <v>0.92706838301979178</v>
+        <v>0.92706838301735861</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0262809005118991</v>
+        <v>1.026280900502075</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1159980852071483</v>
+        <v>1.1159980852470328</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1054345029813528</v>
+        <v>1.1054345029817279</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0928871138198244</v>
+        <v>1.0928871138201854</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -19076,22 +19079,22 @@
         <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>422.05775635591</v>
+        <v>422.05775622776196</v>
       </c>
       <c r="F61" s="246">
-        <v>294.933587444203</v>
+        <v>294.933586963416</v>
       </c>
       <c r="G61" s="246">
-        <v>345.11323859794396</v>
+        <v>345.11324206371904</v>
       </c>
       <c r="H61" s="246">
-        <v>246.35962989826098</v>
+        <v>246.359627071531</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.203035144257</v>
+        <v>30.203035114147042</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -19146,22 +19149,22 @@
         <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>152.802756555879</v>
+        <v>152.802756509484</v>
       </c>
       <c r="F63" s="246">
-        <v>106.778431349062</v>
+        <v>106.778431174996</v>
       </c>
       <c r="G63" s="246">
-        <v>124.945587156141</v>
+        <v>124.945588410898</v>
       </c>
       <c r="H63" s="246">
-        <v>89.1926045325321</v>
+        <v>89.1926035091363</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.934776003747288</v>
+        <v>10.934775992846994</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -19181,22 +19184,22 @@
         <v>6465.6843044231091</v>
       </c>
       <c r="E64" s="248">
-        <v>11793.439057681278</v>
+        <v>11793.439057634885</v>
       </c>
       <c r="F64" s="248">
-        <v>7707.8026357772424</v>
+        <v>7707.802635603176</v>
       </c>
       <c r="G64" s="248">
-        <v>11231.487623945341</v>
+        <v>11231.487625200096</v>
       </c>
       <c r="H64" s="248">
-        <v>11404.810847435734</v>
+        <v>11404.810846412336</v>
       </c>
       <c r="I64" s="248">
         <v>2956.04549429482</v>
       </c>
       <c r="J64" s="248">
-        <v>534.46433031010383</v>
+        <v>534.46433029920445</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -19216,22 +19219,22 @@
         <v>6739.6109216603181</v>
       </c>
       <c r="E65" s="248">
-        <v>12215.496814037189</v>
+        <v>12215.496813862646</v>
       </c>
       <c r="F65" s="248">
-        <v>8002.7362232214455</v>
+        <v>8002.7362225665929</v>
       </c>
       <c r="G65" s="248">
-        <v>11576.600862543284</v>
+        <v>11576.600867263816</v>
       </c>
       <c r="H65" s="248">
-        <v>11651.170477333995</v>
+        <v>11651.170473483868</v>
       </c>
       <c r="I65" s="248">
         <v>2956.04549429482</v>
       </c>
       <c r="J65" s="248">
-        <v>564.6673654543556</v>
+        <v>564.66736541335558</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -19356,22 +19359,22 @@
         <v>9202.6980521097357</v>
       </c>
       <c r="E69" s="248">
-        <v>17232.753098685545</v>
+        <v>17232.753098511</v>
       </c>
       <c r="F69" s="248">
-        <v>17403.05795104969</v>
+        <v>17403.057950394836</v>
       </c>
       <c r="G69" s="248">
-        <v>11576.600862543284</v>
+        <v>11576.600867263816</v>
       </c>
       <c r="H69" s="248">
-        <v>11651.170477333995</v>
+        <v>11651.170473483868</v>
       </c>
       <c r="I69" s="248">
         <v>2956.04549429482</v>
       </c>
       <c r="J69" s="248">
-        <v>686.44992900524812</v>
+        <v>686.44992896424083</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -19636,22 +19639,22 @@
         <v>10989.99585836394</v>
       </c>
       <c r="E77" s="248">
-        <v>22249.563411090257</v>
+        <v>22249.563410915714</v>
       </c>
       <c r="F77" s="248">
-        <v>20021.815143685661</v>
+        <v>20021.815143030806</v>
       </c>
       <c r="G77" s="248">
-        <v>20183.314946692</v>
+        <v>20183.314951412533</v>
       </c>
       <c r="H77" s="248">
-        <v>11651.170477333995</v>
+        <v>11651.170473483868</v>
       </c>
       <c r="I77" s="248">
         <v>2956.04549429482</v>
       </c>
       <c r="J77" s="248">
-        <v>968.35046663830872</v>
+        <v>968.35046659727232</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -19846,22 +19849,22 @@
         <v>11056.630977337549</v>
       </c>
       <c r="E83" s="248">
-        <v>22383.839678780736</v>
+        <v>22383.839678606189</v>
       </c>
       <c r="F83" s="248">
-        <v>20133.927583484608</v>
+        <v>20133.927582829754</v>
       </c>
       <c r="G83" s="248">
-        <v>22234.145980116245</v>
+        <v>22234.145984836774</v>
       </c>
       <c r="H83" s="248">
-        <v>11946.820503442168</v>
+        <v>11946.820499592042</v>
       </c>
       <c r="I83" s="248">
         <v>3321.1112798520262</v>
       </c>
       <c r="J83" s="248">
-        <v>2760.1058467129769</v>
+        <v>2760.1058466719696</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -20226,22 +20229,22 @@
         <v>-12526.135637013847</v>
       </c>
       <c r="E97" s="248">
-        <v>1604.4992360744736</v>
+        <v>1604.4992358999289</v>
       </c>
       <c r="F97" s="248">
-        <v>7450.8295640820379</v>
+        <v>7450.8295634271835</v>
       </c>
       <c r="G97" s="248">
-        <v>9097.9737897399937</v>
+        <v>9097.9737944605258</v>
       </c>
       <c r="H97" s="248">
-        <v>207.1870150056798</v>
+        <v>207.18701115555317</v>
       </c>
       <c r="I97" s="248">
         <v>-972.58670675883809</v>
       </c>
       <c r="J97" s="248">
-        <v>3094.7107767713351</v>
+        <v>3094.7107767303278</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -20440,22 +20443,22 @@
         <v>11913.560505497106</v>
       </c>
       <c r="E9" s="231">
-        <v>22832.093431849647</v>
+        <v>22832.093431681042</v>
       </c>
       <c r="F9" s="231">
-        <v>19691.692586068697</v>
+        <v>19691.692585429711</v>
       </c>
       <c r="G9" s="231">
-        <v>21365.167927398266</v>
+        <v>21365.1679320474</v>
       </c>
       <c r="H9" s="231">
-        <v>12063.834682230079</v>
+        <v>12063.834678429037</v>
       </c>
       <c r="I9" s="231">
         <v>4259.9565381749262</v>
       </c>
       <c r="J9" s="231">
-        <v>2787.8580583035509</v>
+        <v>2787.8580582630384</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -20490,19 +20493,19 @@
         <v>43903.396775974878</v>
       </c>
       <c r="E11" s="231">
-        <v>66735.490207824521</v>
+        <v>66735.490207655923</v>
       </c>
       <c r="F11" s="231">
-        <v>86427.182793893211</v>
+        <v>86427.182793085638</v>
       </c>
       <c r="G11" s="231">
-        <v>107792.35072129147</v>
+        <v>107792.35072513303</v>
       </c>
       <c r="H11" s="231">
-        <v>119856.18540352155</v>
+        <v>119856.18540356206</v>
       </c>
       <c r="I11" s="231">
-        <v>124116.14194169648</v>
+        <v>124116.14194173699</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -20628,22 +20631,22 @@
         <v>-11708.472345287089</v>
       </c>
       <c r="E15" s="231">
-        <v>2039.1499615205976</v>
+        <v>2039.1499613519918</v>
       </c>
       <c r="F15" s="231">
-        <v>7007.6105427443981</v>
+        <v>7007.6105421054126</v>
       </c>
       <c r="G15" s="231">
-        <v>8216.4597502362467</v>
+        <v>8216.45975488538</v>
       </c>
       <c r="H15" s="231">
-        <v>304.71791433352882</v>
+        <v>304.71791053248671</v>
       </c>
       <c r="I15" s="231">
         <v>-44.88480994949623</v>
       </c>
       <c r="J15" s="231">
-        <v>-10384.393161286047</v>
+        <v>-10384.39316132656</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -20661,22 +20664,22 @@
         <v>-0.09226243731708289</v>
       </c>
       <c r="E16" s="236">
-        <v>0.016068445135855428</v>
+        <v>0.016068445134526817</v>
       </c>
       <c r="F16" s="237">
-        <v>0.055219776703211848</v>
+        <v>0.055219776698176661</v>
       </c>
       <c r="G16" s="236">
-        <v>0.064745474927789856</v>
+        <v>0.0647454749644249</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0024011687128343371</v>
+        <v>0.0024011686828822308</v>
       </c>
       <c r="I16" s="236">
         <v>-0.00035369105740950814</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.081828730073804173</v>
+        <v>-0.081828730074123418</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -20694,19 +20697,19 @@
         <v>-7138.6601975992235</v>
       </c>
       <c r="E17" s="231">
-        <v>-5099.5102360786259</v>
+        <v>-5099.5102362472244</v>
       </c>
       <c r="F17" s="231">
-        <v>1908.1003066657577</v>
+        <v>1908.1003058581846</v>
       </c>
       <c r="G17" s="231">
-        <v>10124.560056902003</v>
+        <v>10124.560060743563</v>
       </c>
       <c r="H17" s="231">
-        <v>10429.277971235541</v>
+        <v>10429.277971276053</v>
       </c>
       <c r="I17" s="231">
-        <v>10384.393161286047</v>
+        <v>10384.39316132656</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -20727,19 +20730,19 @@
         <v>-0.056252444348477759</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.040183999212622334</v>
+        <v>-0.04018399921395089</v>
       </c>
       <c r="F18" s="237">
-        <v>0.0150357774905894</v>
+        <v>0.015035777484225748</v>
       </c>
       <c r="G18" s="236">
-        <v>0.079781252418379245</v>
+        <v>0.079781252448650641</v>
       </c>
       <c r="H18" s="236">
-        <v>0.08218242113121367</v>
+        <v>0.0821824211315329</v>
       </c>
       <c r="I18" s="236">
-        <v>0.081828730073804173</v>
+        <v>0.081828730074123418</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -20760,22 +20763,22 @@
         <v>0.50434103536951114</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0980693264727242</v>
+        <v>1.0980693264646153</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5524728174107438</v>
+        <v>1.5524728173603668</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6248872238648822</v>
+        <v>1.6248872242184629</v>
       </c>
       <c r="H19" s="236">
-        <v>1.0259133334882291</v>
+        <v>1.025913333164987</v>
       </c>
       <c r="I19" s="236">
         <v>0.989573411347888</v>
       </c>
       <c r="J19" s="236">
-        <v>0.21164628671502142</v>
+        <v>0.21164628671194585</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -20793,19 +20796,19 @@
         <v>0.86014160437744291</v>
       </c>
       <c r="E20" s="236">
-        <v>0.92901078576506879</v>
+        <v>0.92901078576272167</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0225759704260171</v>
+        <v>1.0225759704164623</v>
       </c>
       <c r="G20" s="236">
-        <v>1.10366324443329</v>
+        <v>1.1036632444726229</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0953081670309401</v>
+        <v>1.0953081670313103</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0913060185272969</v>
+        <v>1.0913060185276533</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -21630,22 +21633,22 @@
         <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>418.480378005624</v>
+        <v>418.480377881832</v>
       </c>
       <c r="F61" s="246">
-        <v>293.657225639597</v>
+        <v>293.65722517046</v>
       </c>
       <c r="G61" s="246">
-        <v>345.78643941611097</v>
+        <v>345.78644282946505</v>
       </c>
       <c r="H61" s="246">
-        <v>250.447008220621</v>
+        <v>250.447005429927</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.296196158621797</v>
+        <v>30.29619612889087</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -21700,22 +21703,22 @@
         <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>151.507594306317</v>
+        <v>151.507594261499</v>
       </c>
       <c r="F63" s="246">
-        <v>106.316334398658</v>
+        <v>106.31633422880999</v>
       </c>
       <c r="G63" s="246">
-        <v>125.189314321872</v>
+        <v>125.189315557651</v>
       </c>
       <c r="H63" s="246">
-        <v>90.6724083398022</v>
+        <v>90.67240732945271</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.968504230712028</v>
+        <v>10.968504219948727</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -21735,22 +21738,22 @@
         <v>7333.6586093412889</v>
       </c>
       <c r="E64" s="248">
-        <v>12245.078937449516</v>
+        <v>12245.0789374047</v>
       </c>
       <c r="F64" s="248">
-        <v>7268.5578650890984</v>
+        <v>7268.55786491925</v>
       </c>
       <c r="G64" s="248">
-        <v>10366.718938868871</v>
+        <v>10366.718940104651</v>
       </c>
       <c r="H64" s="248">
-        <v>11523.779654709502</v>
+        <v>11523.779653699154</v>
       </c>
       <c r="I64" s="248">
         <v>3861.86994845878</v>
       </c>
       <c r="J64" s="248">
-        <v>561.73957397959748</v>
+        <v>561.73957396882906</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -21770,22 +21773,22 @@
         <v>7607.5852265784979</v>
       </c>
       <c r="E65" s="248">
-        <v>12663.559315455141</v>
+        <v>12663.559315286531</v>
       </c>
       <c r="F65" s="248">
-        <v>7562.2150907286941</v>
+        <v>7562.2150900897095</v>
       </c>
       <c r="G65" s="248">
-        <v>10712.505378284981</v>
+        <v>10712.505382934116</v>
       </c>
       <c r="H65" s="248">
-        <v>11774.226662930123</v>
+        <v>11774.226659129081</v>
       </c>
       <c r="I65" s="248">
         <v>3861.86994845878</v>
       </c>
       <c r="J65" s="248">
-        <v>592.0357701382236</v>
+        <v>592.03577009772562</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -21910,22 +21913,22 @@
         <v>10070.672357027916</v>
       </c>
       <c r="E69" s="248">
-        <v>17680.815600103495</v>
+        <v>17680.815599934886</v>
       </c>
       <c r="F69" s="248">
-        <v>16962.536818556939</v>
+        <v>16962.536817917953</v>
       </c>
       <c r="G69" s="248">
-        <v>10712.505378284981</v>
+        <v>10712.505382934116</v>
       </c>
       <c r="H69" s="248">
-        <v>11774.226662930123</v>
+        <v>11774.226659129081</v>
       </c>
       <c r="I69" s="248">
         <v>3861.86994845878</v>
       </c>
       <c r="J69" s="248">
-        <v>713.81833368909429</v>
+        <v>713.81833364858176</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -22190,22 +22193,22 @@
         <v>11857.97016328212</v>
       </c>
       <c r="E77" s="248">
-        <v>22697.625912508207</v>
+        <v>22697.6259123396</v>
       </c>
       <c r="F77" s="248">
-        <v>19581.294011192909</v>
+        <v>19581.294010553927</v>
       </c>
       <c r="G77" s="248">
-        <v>19319.2194624337</v>
+        <v>19319.219467082832</v>
       </c>
       <c r="H77" s="248">
-        <v>11774.226662930123</v>
+        <v>11774.226659129081</v>
       </c>
       <c r="I77" s="248">
         <v>3861.86994845878</v>
       </c>
       <c r="J77" s="248">
-        <v>995.71887132212578</v>
+        <v>995.7188712816278</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -22400,22 +22403,22 @@
         <v>11913.560505497106</v>
       </c>
       <c r="E83" s="248">
-        <v>22832.093431849647</v>
+        <v>22832.093431681042</v>
       </c>
       <c r="F83" s="248">
-        <v>19691.692586068697</v>
+        <v>19691.692585429711</v>
       </c>
       <c r="G83" s="248">
-        <v>21365.167927398266</v>
+        <v>21365.1679320474</v>
       </c>
       <c r="H83" s="248">
-        <v>12063.834682230079</v>
+        <v>12063.834678429037</v>
       </c>
       <c r="I83" s="248">
         <v>4259.9565381749262</v>
       </c>
       <c r="J83" s="248">
-        <v>2787.8580583035509</v>
+        <v>2787.8580582630384</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -22780,22 +22783,22 @@
         <v>-11708.472345287088</v>
       </c>
       <c r="E97" s="248">
-        <v>2039.1499615205973</v>
+        <v>2039.1499613519907</v>
       </c>
       <c r="F97" s="248">
-        <v>7007.6105427443981</v>
+        <v>7007.6105421054144</v>
       </c>
       <c r="G97" s="248">
-        <v>8216.4597502362485</v>
+        <v>8216.4597548853817</v>
       </c>
       <c r="H97" s="248">
-        <v>304.71791433352979</v>
+        <v>304.71791053248756</v>
       </c>
       <c r="I97" s="248">
         <v>-44.884809949495832</v>
       </c>
       <c r="J97" s="248">
-        <v>3261.6068387139676</v>
+        <v>3261.6068386734678</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -22994,22 +22997,22 @@
         <v>9304.0829809964471</v>
       </c>
       <c r="E9" s="231">
-        <v>19812.601462504343</v>
+        <v>19812.601462341583</v>
       </c>
       <c r="F9" s="231">
-        <v>18985.623658467663</v>
+        <v>18985.623657844641</v>
       </c>
       <c r="G9" s="231">
-        <v>21704.822084535208</v>
+        <v>21704.822089110443</v>
       </c>
       <c r="H9" s="231">
-        <v>15368.372300223713</v>
+        <v>15368.372296474203</v>
       </c>
       <c r="I9" s="231">
         <v>8956.1960085252249</v>
       </c>
       <c r="J9" s="231">
-        <v>2974.8387276248104</v>
+        <v>2974.8387275848509</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -23044,19 +23047,19 @@
         <v>39101.545758119079</v>
       </c>
       <c r="E11" s="231">
-        <v>58914.147220623418</v>
+        <v>58914.147220460662</v>
       </c>
       <c r="F11" s="231">
-        <v>77899.770879091084</v>
+        <v>77899.770878305309</v>
       </c>
       <c r="G11" s="231">
-        <v>99604.592963626288</v>
+        <v>99604.592967415752</v>
       </c>
       <c r="H11" s="231">
-        <v>114972.96526385</v>
+        <v>114972.96526388996</v>
       </c>
       <c r="I11" s="231">
-        <v>123929.16127237522</v>
+        <v>123929.16127241518</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -23182,22 +23185,22 @@
         <v>-14336.308034034146</v>
       </c>
       <c r="E15" s="231">
-        <v>-1008.6092307047475</v>
+        <v>-1008.609230867507</v>
       </c>
       <c r="F15" s="231">
-        <v>6299.5496243899615</v>
+        <v>6299.5496237669395</v>
       </c>
       <c r="G15" s="231">
-        <v>8552.0745345305877</v>
+        <v>8552.0745391058226</v>
       </c>
       <c r="H15" s="231">
-        <v>3588.7586806998643</v>
+        <v>3588.7586769503541</v>
       </c>
       <c r="I15" s="231">
         <v>4637.1911513505556</v>
       </c>
       <c r="J15" s="231">
-        <v>-10059.040159506796</v>
+        <v>-10059.040159546756</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -23215,22 +23218,22 @@
         <v>-0.11296970965481107</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.0079478127616524879</v>
+        <v>-0.0079478127629350279</v>
       </c>
       <c r="F16" s="237">
-        <v>0.049640276306420289</v>
+        <v>0.04964027630151089</v>
       </c>
       <c r="G16" s="236">
-        <v>0.0673901101189134</v>
+        <v>0.067390110154966126</v>
       </c>
       <c r="H16" s="236">
-        <v>0.028279318860712534</v>
+        <v>0.0282793188311665</v>
       </c>
       <c r="I16" s="236">
         <v>0.036540937648541848</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.079264957444263331</v>
+        <v>-0.0792649574445782</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -23248,19 +23251,19 @@
         <v>-12009.924600759412</v>
       </c>
       <c r="E17" s="231">
-        <v>-13018.533831464156</v>
+        <v>-13018.533831626912</v>
       </c>
       <c r="F17" s="231">
-        <v>-6718.984207074187</v>
+        <v>-6718.9842078599613</v>
       </c>
       <c r="G17" s="231">
-        <v>1833.0903274563898</v>
+        <v>1833.090331245854</v>
       </c>
       <c r="H17" s="231">
-        <v>5421.8490081562486</v>
+        <v>5421.8490081962082</v>
       </c>
       <c r="I17" s="231">
-        <v>10059.040159506796</v>
+        <v>10059.040159546756</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -23281,19 +23284,19 @@
         <v>-0.094637872728672134</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.1025856854903246</v>
+        <v>-0.1025856854916071</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.052945409183904252</v>
+        <v>-0.052945409190096139</v>
       </c>
       <c r="G18" s="236">
-        <v>0.014444700935009056</v>
+        <v>0.01444470096486993</v>
       </c>
       <c r="H18" s="236">
-        <v>0.042724019795721546</v>
+        <v>0.042724019796036433</v>
       </c>
       <c r="I18" s="236">
-        <v>0.079264957444263331</v>
+        <v>0.0792649574445782</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -23314,22 +23317,22 @@
         <v>0.39356722040176484</v>
       </c>
       <c r="E19" s="236">
-        <v>0.95155856950077788</v>
+        <v>0.95155856949296092</v>
       </c>
       <c r="F19" s="237">
-        <v>1.4965720369807025</v>
+        <v>1.4965720369315918</v>
       </c>
       <c r="G19" s="236">
-        <v>1.6502120185928439</v>
+        <v>1.6502120189406981</v>
       </c>
       <c r="H19" s="236">
-        <v>1.3046584375867607</v>
+        <v>1.3046584372684558</v>
       </c>
       <c r="I19" s="236">
         <v>2.0736712054507929</v>
       </c>
       <c r="J19" s="236">
-        <v>0.22823894202069645</v>
+        <v>0.22823894201763065</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -23347,19 +23350,19 @@
         <v>0.76502486591694807</v>
       </c>
       <c r="E20" s="236">
-        <v>0.81901781441960664</v>
+        <v>0.819017814417344</v>
       </c>
       <c r="F20" s="237">
-        <v>0.920596985854585</v>
+        <v>0.92059698584529892</v>
       </c>
       <c r="G20" s="236">
-        <v>1.0187487179600556</v>
+        <v>1.018748717998814</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0494914994339408</v>
+        <v>1.0494914994343056</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0883378366616143</v>
+        <v>1.0883378366619652</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -24184,22 +24187,22 @@
         <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>415.025848960073</v>
+        <v>415.025848840577</v>
       </c>
       <c r="F61" s="246">
-        <v>292.395099962784</v>
+        <v>292.39509950536797</v>
       </c>
       <c r="G61" s="246">
-        <v>346.3891057808</v>
+        <v>346.38910913990003</v>
       </c>
       <c r="H61" s="246">
-        <v>254.470282941391</v>
+        <v>254.470280188532</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.386909795527117</v>
+        <v>30.386909766198187</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -24254,22 +24257,22 @@
         <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>150.25690870034597</v>
+        <v>150.25690865708398</v>
       </c>
       <c r="F63" s="246">
-        <v>105.859391528558</v>
+        <v>105.859391362955</v>
       </c>
       <c r="G63" s="246">
-        <v>125.40750503255401</v>
+        <v>125.40750624869</v>
       </c>
       <c r="H63" s="246">
-        <v>92.1290039323654</v>
+        <v>92.1290029357141</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>11.001346403537809</v>
+        <v>11.001346392918322</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -24289,22 +24292,22 @@
         <v>4727.7329762522586</v>
       </c>
       <c r="E64" s="248">
-        <v>9233.2229811687357</v>
+        <v>9233.2229811254747</v>
       </c>
       <c r="F64" s="248">
-        <v>6566.759202916588</v>
+        <v>6566.7592027509845</v>
       </c>
       <c r="G64" s="248">
-        <v>10711.389450880355</v>
+        <v>10711.38945209649</v>
       </c>
       <c r="H64" s="248">
-        <v>14830.339005959066</v>
+        <v>14830.339004962414</v>
       </c>
       <c r="I64" s="248">
         <v>8533.28901237169</v>
       </c>
       <c r="J64" s="248">
-        <v>748.37979640655976</v>
+        <v>748.37979639595142</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -24324,22 +24327,22 @@
         <v>5001.6595934894685</v>
       </c>
       <c r="E65" s="248">
-        <v>9648.2488301288085</v>
+        <v>9648.24882996605</v>
       </c>
       <c r="F65" s="248">
-        <v>6859.1543028793712</v>
+        <v>6859.1543022563519</v>
       </c>
       <c r="G65" s="248">
-        <v>11057.778556661155</v>
+        <v>11057.778561236391</v>
       </c>
       <c r="H65" s="248">
-        <v>15084.809288900457</v>
+        <v>15084.809285150946</v>
       </c>
       <c r="I65" s="248">
         <v>8533.28901237169</v>
       </c>
       <c r="J65" s="248">
-        <v>778.76670620209188</v>
+        <v>778.76670616214687</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -24464,22 +24467,22 @@
         <v>7464.7467239388852</v>
       </c>
       <c r="E69" s="248">
-        <v>14665.505114777163</v>
+        <v>14665.505114614405</v>
       </c>
       <c r="F69" s="248">
-        <v>16259.476030707616</v>
+        <v>16259.476030084596</v>
       </c>
       <c r="G69" s="248">
-        <v>11057.778556661155</v>
+        <v>11057.778561236391</v>
       </c>
       <c r="H69" s="248">
-        <v>15084.809288900457</v>
+        <v>15084.809285150946</v>
       </c>
       <c r="I69" s="248">
         <v>8533.28901237169</v>
       </c>
       <c r="J69" s="248">
-        <v>900.5492697529553</v>
+        <v>900.54926971302484</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -24744,22 +24747,22 @@
         <v>9252.0445301930886</v>
       </c>
       <c r="E77" s="248">
-        <v>19682.315427181878</v>
+        <v>19682.315427019119</v>
       </c>
       <c r="F77" s="248">
-        <v>18878.233223343588</v>
+        <v>18878.233222720566</v>
       </c>
       <c r="G77" s="248">
-        <v>19664.492640809873</v>
+        <v>19664.492645385104</v>
       </c>
       <c r="H77" s="248">
-        <v>15084.809288900457</v>
+        <v>15084.809285150946</v>
       </c>
       <c r="I77" s="248">
         <v>8533.28901237169</v>
       </c>
       <c r="J77" s="248">
-        <v>1182.4498073860013</v>
+        <v>1182.4498073460709</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -24954,22 +24957,22 @@
         <v>9304.0829809964471</v>
       </c>
       <c r="E83" s="248">
-        <v>19812.601462504343</v>
+        <v>19812.601462341583</v>
       </c>
       <c r="F83" s="248">
-        <v>18985.623658467663</v>
+        <v>18985.623657844641</v>
       </c>
       <c r="G83" s="248">
-        <v>21704.822084535208</v>
+        <v>21704.822089110443</v>
       </c>
       <c r="H83" s="248">
-        <v>15368.372300223713</v>
+        <v>15368.372296474203</v>
       </c>
       <c r="I83" s="248">
         <v>8956.1960085252249</v>
       </c>
       <c r="J83" s="248">
-        <v>2974.8387276248104</v>
+        <v>2974.8387275848509</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -25334,22 +25337,22 @@
         <v>-14336.308034034146</v>
       </c>
       <c r="E97" s="248">
-        <v>-1008.6092307047471</v>
+        <v>-1008.6092308675051</v>
       </c>
       <c r="F97" s="248">
-        <v>6299.5496243899615</v>
+        <v>6299.54962376694</v>
       </c>
       <c r="G97" s="248">
-        <v>8552.0745345305877</v>
+        <v>8552.07453910582</v>
       </c>
       <c r="H97" s="248">
-        <v>3588.7586806998643</v>
+        <v>3588.7586769503541</v>
       </c>
       <c r="I97" s="248">
         <v>4637.1911513505547</v>
       </c>
       <c r="J97" s="248">
-        <v>3586.9598404932167</v>
+        <v>3586.9598404532735</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -25548,22 +25551,22 @@
         <v>7738.9909040516968</v>
       </c>
       <c r="E9" s="231">
-        <v>17201.366448704179</v>
+        <v>17201.366448547185</v>
       </c>
       <c r="F9" s="231">
-        <v>17611.290204907047</v>
+        <v>17611.290204300058</v>
       </c>
       <c r="G9" s="231">
-        <v>20612.728130861644</v>
+        <v>20612.72813536071</v>
       </c>
       <c r="H9" s="231">
-        <v>16943.075644712786</v>
+        <v>16943.075641017091</v>
       </c>
       <c r="I9" s="231">
         <v>14931.896544176627</v>
       </c>
       <c r="J9" s="231">
-        <v>3140.4741381710628</v>
+        <v>3140.4741381316562</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -25598,19 +25601,19 @@
         <v>36463.1688884667</v>
       </c>
       <c r="E11" s="231">
-        <v>53664.535337170877</v>
+        <v>53664.535337013891</v>
       </c>
       <c r="F11" s="231">
-        <v>71275.825542077917</v>
+        <v>71275.825541313941</v>
       </c>
       <c r="G11" s="231">
-        <v>91888.553672939568</v>
+        <v>91888.553676674652</v>
       </c>
       <c r="H11" s="231">
-        <v>108831.62931765235</v>
+        <v>108831.62931769174</v>
       </c>
       <c r="I11" s="231">
-        <v>123763.52586182897</v>
+        <v>123763.52586186837</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -25736,22 +25739,22 @@
         <v>-15902.500695940198</v>
       </c>
       <c r="E15" s="231">
-        <v>-3649.1912219808291</v>
+        <v>-3649.1912221378225</v>
       </c>
       <c r="F15" s="231">
-        <v>4911.0207446410477</v>
+        <v>4911.0207440340582</v>
       </c>
       <c r="G15" s="231">
-        <v>7442.3868506185336</v>
+        <v>7442.3868551176</v>
       </c>
       <c r="H15" s="231">
-        <v>5129.5597691080366</v>
+        <v>5129.5597654123412</v>
       </c>
       <c r="I15" s="231">
         <v>10594.598016643684</v>
       </c>
       <c r="J15" s="231">
-        <v>-9749.4591378423065</v>
+        <v>-9749.4591378817131</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -25769,22 +25772,22 @@
         <v>-0.1253112643883581</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.028755525609758782</v>
+        <v>-0.028755525610995883</v>
       </c>
       <c r="F16" s="237">
-        <v>0.038698707248321938</v>
+        <v>0.038698707243538875</v>
       </c>
       <c r="G16" s="236">
-        <v>0.058645801949651168</v>
+        <v>0.05864580198510369</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0404207886993951</v>
+        <v>0.040420788670273121</v>
       </c>
       <c r="I16" s="236">
         <v>0.083485138503464673</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.076825467580551476</v>
+        <v>-0.076825467580861992</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -25802,19 +25805,19 @@
         <v>-14678.91502118815</v>
       </c>
       <c r="E17" s="231">
-        <v>-18328.106243168979</v>
+        <v>-18328.106243325965</v>
       </c>
       <c r="F17" s="231">
-        <v>-13417.085498527944</v>
+        <v>-13417.085499291919</v>
       </c>
       <c r="G17" s="231">
-        <v>-5974.6986479094048</v>
+        <v>-5974.6986441743211</v>
       </c>
       <c r="H17" s="231">
-        <v>-845.1388788013719</v>
+        <v>-845.13887876197987</v>
       </c>
       <c r="I17" s="231">
-        <v>9749.4591378423065</v>
+        <v>9749.4591378817131</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -25835,19 +25838,19 @@
         <v>-0.11566944321052249</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.14442496882028127</v>
+        <v>-0.14442496882151834</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.10572626157195945</v>
+        <v>-0.10572626157797954</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.047080459622308231</v>
+        <v>-0.047080459592875872</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.00665967092291316</v>
+        <v>-0.0066596709226027515</v>
       </c>
       <c r="I18" s="236">
-        <v>0.076825467580551476</v>
+        <v>0.076825467580861992</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -25868,22 +25871,22 @@
         <v>0.32734782707425913</v>
       </c>
       <c r="E19" s="236">
-        <v>0.82498351940430648</v>
+        <v>0.82498351939677717</v>
       </c>
       <c r="F19" s="237">
-        <v>1.3866863423650691</v>
+        <v>1.3866863423172753</v>
       </c>
       <c r="G19" s="236">
-        <v>1.5650868639055613</v>
+        <v>1.5650868642471674</v>
       </c>
       <c r="H19" s="236">
-        <v>1.4342111038848922</v>
+        <v>1.4342111035720562</v>
       </c>
       <c r="I19" s="236">
         <v>3.4426720801876405</v>
       </c>
       <c r="J19" s="236">
-        <v>0.24363773426314869</v>
+        <v>0.24363773426009153</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -25901,19 +25904,19 @@
         <v>0.712977769010758</v>
       </c>
       <c r="E20" s="236">
-        <v>0.74541695038768907</v>
+        <v>0.74541695038550859</v>
       </c>
       <c r="F20" s="237">
-        <v>0.841579592274315</v>
+        <v>0.84157959226529455</v>
       </c>
       <c r="G20" s="236">
-        <v>0.93894849694631954</v>
+        <v>0.9389484969844859</v>
       </c>
       <c r="H20" s="236">
-        <v>0.992294276238268</v>
+        <v>0.99229427623862732</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0855110199818105</v>
+        <v>1.085511019982156</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -26738,22 +26741,22 @@
         <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>411.692421277617</v>
+        <v>411.692421162354</v>
       </c>
       <c r="F61" s="246">
-        <v>291.148726000783</v>
+        <v>291.148725555134</v>
       </c>
       <c r="G61" s="246">
-        <v>346.923907798853</v>
+        <v>346.923911102032</v>
       </c>
       <c r="H61" s="246">
-        <v>258.427017228849</v>
+        <v>258.427014515499</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.47517513447292</v>
+        <v>30.475175105556218</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -26808,22 +26811,22 @@
         <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>149.050066909174</v>
+        <v>149.050066867444</v>
       </c>
       <c r="F63" s="246">
-        <v>105.408151445358</v>
+        <v>105.40815128401401</v>
       </c>
       <c r="G63" s="246">
-        <v>125.601125979781</v>
+        <v>125.60112717567101</v>
       </c>
       <c r="H63" s="246">
-        <v>93.561509074085592</v>
+        <v>93.5615080917383</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>11.033302188962693</v>
+        <v>11.033302178493955</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -26843,22 +26846,22 @@
         <v>3164.7171603295983</v>
       </c>
       <c r="E64" s="248">
-        <v>6628.8142324894543</v>
+        <v>6628.814232447724</v>
       </c>
       <c r="F64" s="248">
-        <v>5196.1448803429585</v>
+        <v>5196.1448801816141</v>
       </c>
       <c r="G64" s="248">
-        <v>9623.2222112271611</v>
+        <v>9623.22221242305</v>
       </c>
       <c r="H64" s="248">
-        <v>16406.819470776787</v>
+        <v>16406.819469794438</v>
       </c>
       <c r="I64" s="248">
         <v>14489.524401102699</v>
       </c>
       <c r="J64" s="248">
-        <v>913.74746063523344</v>
+        <v>913.74746062477061</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -26878,22 +26881,22 @@
         <v>3438.6437775668073</v>
       </c>
       <c r="E65" s="248">
-        <v>7040.5066537670718</v>
+        <v>7040.5066536100776</v>
       </c>
       <c r="F65" s="248">
-        <v>5487.2936063437419</v>
+        <v>5487.2936057367488</v>
       </c>
       <c r="G65" s="248">
-        <v>9970.1461190260143</v>
+        <v>9970.1461235250827</v>
       </c>
       <c r="H65" s="248">
-        <v>16665.246488005636</v>
+        <v>16665.246484309937</v>
       </c>
       <c r="I65" s="248">
         <v>14489.524401102699</v>
       </c>
       <c r="J65" s="248">
-        <v>944.22263576970727</v>
+        <v>944.22263573032978</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -27018,22 +27021,22 @@
         <v>5901.730908016224</v>
       </c>
       <c r="E69" s="248">
-        <v>12057.762938415424</v>
+        <v>12057.762938258429</v>
       </c>
       <c r="F69" s="248">
-        <v>14887.615334171984</v>
+        <v>14887.615333564992</v>
       </c>
       <c r="G69" s="248">
-        <v>9970.1461190260143</v>
+        <v>9970.1461235250827</v>
       </c>
       <c r="H69" s="248">
-        <v>16665.246488005636</v>
+        <v>16665.246484309937</v>
       </c>
       <c r="I69" s="248">
         <v>14489.524401102699</v>
       </c>
       <c r="J69" s="248">
-        <v>1066.0051993205852</v>
+        <v>1066.0051992811932</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -27298,22 +27301,22 @@
         <v>7689.0287142704292</v>
       </c>
       <c r="E77" s="248">
-        <v>17074.57325082014</v>
+        <v>17074.573250663147</v>
       </c>
       <c r="F77" s="248">
-        <v>17506.372526807958</v>
+        <v>17506.372526200965</v>
       </c>
       <c r="G77" s="248">
-        <v>18576.860203174732</v>
+        <v>18576.8602076738</v>
       </c>
       <c r="H77" s="248">
-        <v>16665.246488005636</v>
+        <v>16665.246484309937</v>
       </c>
       <c r="I77" s="248">
         <v>14489.524401102699</v>
       </c>
       <c r="J77" s="248">
-        <v>1347.9057369536313</v>
+        <v>1347.9057369142392</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -27508,22 +27511,22 @@
         <v>7738.9909040516968</v>
       </c>
       <c r="E83" s="248">
-        <v>17201.366448704179</v>
+        <v>17201.366448547185</v>
       </c>
       <c r="F83" s="248">
-        <v>17611.290204907047</v>
+        <v>17611.290204300058</v>
       </c>
       <c r="G83" s="248">
-        <v>20612.728130861644</v>
+        <v>20612.72813536071</v>
       </c>
       <c r="H83" s="248">
-        <v>16943.075644712786</v>
+        <v>16943.075641017091</v>
       </c>
       <c r="I83" s="248">
         <v>14931.896544176627</v>
       </c>
       <c r="J83" s="248">
-        <v>3140.4741381710628</v>
+        <v>3140.4741381316562</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -27888,22 +27891,22 @@
         <v>-15902.500695940198</v>
       </c>
       <c r="E97" s="248">
-        <v>-3649.1912219808287</v>
+        <v>-3649.1912221378238</v>
       </c>
       <c r="F97" s="248">
-        <v>4911.0207446410486</v>
+        <v>4911.0207440340573</v>
       </c>
       <c r="G97" s="248">
-        <v>7442.3868506185336</v>
+        <v>7442.3868551176</v>
       </c>
       <c r="H97" s="248">
-        <v>5129.5597691080384</v>
+        <v>5129.5597654123421</v>
       </c>
       <c r="I97" s="248">
         <v>10594.598016643684</v>
       </c>
       <c r="J97" s="248">
-        <v>3896.5408621576953</v>
+        <v>3896.540862118316</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
@@ -28099,22 +28102,22 @@
         <v>10848.757175311817</v>
       </c>
       <c r="E9" s="231">
-        <v>21602.774001764043</v>
+        <v>21602.773893126934</v>
       </c>
       <c r="F9" s="231">
-        <v>20253.970696059387</v>
+        <v>20253.970719774807</v>
       </c>
       <c r="G9" s="231">
-        <v>23223.370925446383</v>
+        <v>23223.37097331748</v>
       </c>
       <c r="H9" s="231">
-        <v>13130.963493006393</v>
+        <v>13130.963528400684</v>
       </c>
       <c r="I9" s="231">
         <v>2955.0704482518158</v>
       </c>
       <c r="J9" s="231">
-        <v>2769.5432729750173</v>
+        <v>2769.5432746313309</v>
       </c>
       <c r="K9" s="231">
         <v>126904.00000000003</v>
@@ -28149,19 +28152,19 @@
         <v>42968.307162496974</v>
       </c>
       <c r="E11" s="231">
-        <v>64571.081164261021</v>
+        <v>64571.081055623908</v>
       </c>
       <c r="F11" s="231">
-        <v>84825.051860320411</v>
+        <v>84825.051775398722</v>
       </c>
       <c r="G11" s="231">
-        <v>108048.4227857668</v>
+        <v>108048.4227487162</v>
       </c>
       <c r="H11" s="231">
-        <v>121179.38627877319</v>
+        <v>121179.38627711688</v>
       </c>
       <c r="I11" s="231">
-        <v>124134.45672702501</v>
+        <v>124134.4567253687</v>
       </c>
       <c r="J11" s="231">
         <v>126904.00000000003</v>
@@ -28287,22 +28290,22 @@
         <v>-12781.776447112974</v>
       </c>
       <c r="E15" s="231">
-        <v>801.98949591264318</v>
+        <v>801.98938727553468</v>
       </c>
       <c r="F15" s="231">
-        <v>7582.2850758518671</v>
+        <v>7582.285099567287</v>
       </c>
       <c r="G15" s="231">
-        <v>10091.093212579874</v>
+        <v>10091.093260450971</v>
       </c>
       <c r="H15" s="231">
-        <v>1411.2760960319338</v>
+        <v>1411.2761314262243</v>
       </c>
       <c r="I15" s="231">
         <v>-1336.2961766452045</v>
       </c>
       <c r="J15" s="231">
-        <v>-10417.0419201341</v>
+        <v>-10417.041918477786</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -28320,22 +28323,22 @@
         <v>-0.10072004386869579</v>
       </c>
       <c r="E16" s="236">
-        <v>0.0063196549826060877</v>
+        <v>0.0063196541265486857</v>
       </c>
       <c r="F16" s="237">
-        <v>0.059748196084062483</v>
+        <v>0.05974819627093933</v>
       </c>
       <c r="G16" s="236">
-        <v>0.079517534613407548</v>
+        <v>0.079517534990630467</v>
       </c>
       <c r="H16" s="236">
-        <v>0.011120816491457585</v>
+        <v>0.011120816770363614</v>
       </c>
       <c r="I16" s="236">
         <v>-0.010529976806445851</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.0820860013879318</v>
+        <v>-0.082086001374880091</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -28353,19 +28356,19 @@
         <v>-8133.3057835970394</v>
       </c>
       <c r="E17" s="231">
-        <v>-7331.3162876843853</v>
+        <v>-7331.3163963214974</v>
       </c>
       <c r="F17" s="231">
-        <v>250.96878816749086</v>
+        <v>250.96870324580232</v>
       </c>
       <c r="G17" s="231">
-        <v>10342.062000747377</v>
+        <v>10342.061963696775</v>
       </c>
       <c r="H17" s="231">
-        <v>11753.338096779306</v>
+        <v>11753.338095122992</v>
       </c>
       <c r="I17" s="231">
-        <v>10417.0419201341</v>
+        <v>10417.041918477786</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -28386,19 +28389,19 @@
         <v>-0.06409022397715626</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.057770568994550082</v>
+        <v>-0.057770569850607509</v>
       </c>
       <c r="F18" s="237">
-        <v>0.0019776270895124721</v>
+        <v>0.0019776264203319222</v>
       </c>
       <c r="G18" s="236">
-        <v>0.081495161702920121</v>
+        <v>0.081495161410962413</v>
       </c>
       <c r="H18" s="236">
-        <v>0.092615978194377654</v>
+        <v>0.09261597818132597</v>
       </c>
       <c r="I18" s="236">
-        <v>0.0820860013879318</v>
+        <v>0.082086001374880091</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -28419,22 +28422,22 @@
         <v>0.45909911932824976</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0385557331112698</v>
+        <v>1.0385557278885289</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5983643615463761</v>
+        <v>1.5983643634179046</v>
       </c>
       <c r="G19" s="236">
-        <v>1.7684191145830708</v>
+        <v>1.7684191182283708</v>
       </c>
       <c r="H19" s="236">
-        <v>1.1204192610458421</v>
+        <v>1.1204192640659134</v>
       </c>
       <c r="I19" s="236">
         <v>0.68860824687117672</v>
       </c>
       <c r="J19" s="236">
-        <v>0.21002732947285632</v>
+        <v>0.21002732959846227</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -28452,19 +28455,19 @@
         <v>0.84084052704605061</v>
       </c>
       <c r="E20" s="236">
-        <v>0.89803794383095326</v>
+        <v>0.89803794232005629</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0029674432054248</v>
+        <v>1.0029674422013146</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1058484004281228</v>
+        <v>1.1058484000489193</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1074089605907318</v>
+        <v>1.1074089605755955</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0916046318659616</v>
+        <v>1.0916046318513966</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -29289,22 +29292,22 @@
         <v>273.926617237209</v>
       </c>
       <c r="E61" s="246">
-        <v>415.846068590588</v>
+        <v>415.84598883013604</v>
       </c>
       <c r="F61" s="246">
-        <v>293.75512985213504</v>
+        <v>293.755147263796</v>
       </c>
       <c r="G61" s="246">
-        <v>347.978285142485</v>
+        <v>347.978320289042</v>
       </c>
       <c r="H61" s="246">
-        <v>250.752016813848</v>
+        <v>250.752042800039</v>
       </c>
       <c r="I61" s="246">
         <v>0</v>
       </c>
       <c r="J61" s="246">
-        <v>30.335747041518971</v>
+        <v>30.335748257562045</v>
       </c>
       <c r="K61" s="246">
         <v>1939</v>
@@ -29359,22 +29362,22 @@
         <v>99.1730197527184</v>
       </c>
       <c r="E63" s="246">
-        <v>150.55386289355</v>
+        <v>150.553834016893</v>
       </c>
       <c r="F63" s="246">
-        <v>106.35177986395</v>
+        <v>106.35178616770801</v>
       </c>
       <c r="G63" s="246">
-        <v>125.982855167625</v>
+        <v>125.982867892165</v>
       </c>
       <c r="H63" s="246">
-        <v>90.7828343493147</v>
+        <v>90.782843757415</v>
       </c>
       <c r="I63" s="246">
         <v>0</v>
       </c>
       <c r="J63" s="246">
-        <v>10.982823322921604</v>
+        <v>10.982823763180249</v>
       </c>
       <c r="K63" s="246">
         <v>702</v>
@@ -29394,22 +29397,22 @@
         <v>6267.7199110873389</v>
       </c>
       <c r="E64" s="248">
-        <v>11010.639569185149</v>
+        <v>11010.639540308492</v>
       </c>
       <c r="F64" s="248">
-        <v>7825.29560906036</v>
+        <v>7825.2956153641189</v>
       </c>
       <c r="G64" s="248">
-        <v>12214.391360313226</v>
+        <v>12214.391373037764</v>
       </c>
       <c r="H64" s="248">
-        <v>12561.398903107716</v>
+        <v>12561.398912515815</v>
       </c>
       <c r="I64" s="248">
         <v>2608.14274279394</v>
       </c>
       <c r="J64" s="248">
-        <v>543.82983155707916</v>
+        <v>543.82983199734736</v>
       </c>
       <c r="K64" s="248">
         <v>58503</v>
@@ -29429,22 +29432,22 @@
         <v>6541.6465283245479</v>
       </c>
       <c r="E65" s="248">
-        <v>11426.485637775737</v>
+        <v>11426.485529138628</v>
       </c>
       <c r="F65" s="248">
-        <v>8119.050738912495</v>
+        <v>8119.050762627915</v>
       </c>
       <c r="G65" s="248">
-        <v>12562.36964545571</v>
+        <v>12562.369693326808</v>
       </c>
       <c r="H65" s="248">
-        <v>12812.150919921563</v>
+        <v>12812.150955315854</v>
       </c>
       <c r="I65" s="248">
         <v>2608.14274279394</v>
       </c>
       <c r="J65" s="248">
-        <v>574.1655785986004</v>
+        <v>574.1655802548994</v>
       </c>
       <c r="K65" s="248">
         <v>60442</v>
@@ -29569,22 +29572,22 @@
         <v>9004.7336587739665</v>
       </c>
       <c r="E69" s="248">
-        <v>16443.741922424091</v>
+        <v>16443.741813786983</v>
       </c>
       <c r="F69" s="248">
-        <v>17519.372466740737</v>
+        <v>17519.372490456157</v>
       </c>
       <c r="G69" s="248">
-        <v>12562.36964545571</v>
+        <v>12562.369693326808</v>
       </c>
       <c r="H69" s="248">
-        <v>12812.150919921563</v>
+        <v>12812.150955315854</v>
       </c>
       <c r="I69" s="248">
         <v>2608.14274279394</v>
       </c>
       <c r="J69" s="248">
-        <v>695.94814214948565</v>
+        <v>695.94814380578464</v>
       </c>
       <c r="K69" s="248">
         <v>79878.000000000015</v>
@@ -29849,22 +29852,22 @@
         <v>10792.031465028169</v>
       </c>
       <c r="E77" s="248">
-        <v>21460.552234828807</v>
+        <v>21460.5521261917</v>
       </c>
       <c r="F77" s="248">
-        <v>20138.129659376711</v>
+        <v>20138.129683092127</v>
       </c>
       <c r="G77" s="248">
-        <v>21169.083729604426</v>
+        <v>21169.083777475524</v>
       </c>
       <c r="H77" s="248">
-        <v>12812.150919921563</v>
+        <v>12812.150955315854</v>
       </c>
       <c r="I77" s="248">
         <v>2608.14274279394</v>
       </c>
       <c r="J77" s="248">
-        <v>977.84867978253169</v>
+        <v>977.84868143883068</v>
       </c>
       <c r="K77" s="248">
         <v>100125.00000000003</v>
@@ -30059,22 +30062,22 @@
         <v>10848.757175311817</v>
       </c>
       <c r="E83" s="248">
-        <v>21602.774001764043</v>
+        <v>21602.773893126934</v>
       </c>
       <c r="F83" s="248">
-        <v>20253.970696059387</v>
+        <v>20253.970719774807</v>
       </c>
       <c r="G83" s="248">
-        <v>23223.370925446383</v>
+        <v>23223.37097331748</v>
       </c>
       <c r="H83" s="248">
-        <v>13130.963493006393</v>
+        <v>13130.963528400684</v>
       </c>
       <c r="I83" s="248">
         <v>2955.0704482518158</v>
       </c>
       <c r="J83" s="248">
-        <v>2769.5432729750173</v>
+        <v>2769.5432746313309</v>
       </c>
       <c r="K83" s="248">
         <v>126904.00000000003</v>
@@ -30439,22 +30442,22 @@
         <v>-12781.776447112976</v>
       </c>
       <c r="E97" s="248">
-        <v>801.989495912645</v>
+        <v>801.98938727553559</v>
       </c>
       <c r="F97" s="248">
-        <v>7582.2850758518671</v>
+        <v>7582.2850995672852</v>
       </c>
       <c r="G97" s="248">
-        <v>10091.093212579874</v>
+        <v>10091.093260450973</v>
       </c>
       <c r="H97" s="248">
-        <v>1411.276096031934</v>
+        <v>1411.2761314262245</v>
       </c>
       <c r="I97" s="248">
         <v>-1336.296176645204</v>
       </c>
       <c r="J97" s="248">
-        <v>3228.9580798659463</v>
+        <v>3228.9580815222489</v>
       </c>
       <c r="K97" s="248">
         <v>13646.000000000029</v>
